--- a/file/stock-output/interesting-stock/SET/SET-interesting-company-info.xlsx
+++ b/file/stock-output/interesting-stock/SET/SET-interesting-company-info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekala\PycharmProjects\SET-stock-analysis\file\stock-output\interesting-stock\SET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4533D3F-ED95-40C0-9CAA-1717B6A95786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960747BD-0F87-40AD-9183-27AFC4DAB91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12315" yWindow="1410" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5640" yWindow="2280" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Company Information" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="539">
   <si>
     <t>Quote</t>
   </si>
@@ -31,1045 +31,1612 @@
     <t>Company info</t>
   </si>
   <si>
+    <t>charan</t>
+  </si>
+  <si>
+    <t>pps</t>
+  </si>
+  <si>
+    <t>vih</t>
+  </si>
+  <si>
+    <t>br</t>
+  </si>
+  <si>
+    <t>tgpro</t>
+  </si>
+  <si>
+    <t>eason</t>
+  </si>
+  <si>
+    <t>pt</t>
+  </si>
+  <si>
+    <t>nation</t>
+  </si>
+  <si>
+    <t>ptl</t>
+  </si>
+  <si>
+    <t>pimo</t>
+  </si>
+  <si>
+    <t>insure</t>
+  </si>
+  <si>
+    <t>tmd</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>ner</t>
+  </si>
+  <si>
+    <t>tr</t>
+  </si>
+  <si>
+    <t>uec</t>
+  </si>
+  <si>
     <t>q-con</t>
   </si>
   <si>
+    <t>prg</t>
+  </si>
+  <si>
+    <t>smt</t>
+  </si>
+  <si>
+    <t>thg</t>
+  </si>
+  <si>
+    <t>tacc</t>
+  </si>
+  <si>
+    <t>lalin</t>
+  </si>
+  <si>
+    <t>mtc</t>
+  </si>
+  <si>
+    <t>ssp</t>
+  </si>
+  <si>
+    <t>cpi</t>
+  </si>
+  <si>
+    <t>sanko</t>
+  </si>
+  <si>
+    <t>sithai</t>
+  </si>
+  <si>
+    <t>hpt</t>
+  </si>
+  <si>
+    <t>esso</t>
+  </si>
+  <si>
+    <t>stgt</t>
+  </si>
+  <si>
+    <t>tse</t>
+  </si>
+  <si>
+    <t>upoic</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>tpipl</t>
+  </si>
+  <si>
+    <t>kiat</t>
+  </si>
+  <si>
+    <t>tpipp</t>
+  </si>
+  <si>
+    <t>jkn</t>
+  </si>
+  <si>
+    <t>prakit</t>
+  </si>
+  <si>
+    <t>planb</t>
+  </si>
+  <si>
+    <t>ekh</t>
+  </si>
+  <si>
+    <t>fpt</t>
+  </si>
+  <si>
+    <t>akr</t>
+  </si>
+  <si>
+    <t>fpi</t>
+  </si>
+  <si>
+    <t>pg</t>
+  </si>
+  <si>
+    <t>tfg</t>
+  </si>
+  <si>
+    <t>skn</t>
+  </si>
+  <si>
+    <t>thana</t>
+  </si>
+  <si>
+    <t>smpc</t>
+  </si>
+  <si>
+    <t>tpch</t>
+  </si>
+  <si>
+    <t>tu</t>
+  </si>
+  <si>
+    <t>uvan</t>
+  </si>
+  <si>
+    <t>tipco</t>
+  </si>
+  <si>
+    <t>caz</t>
+  </si>
+  <si>
+    <t>tog</t>
+  </si>
+  <si>
+    <t>htech</t>
+  </si>
+  <si>
+    <t>gbx</t>
+  </si>
+  <si>
+    <t>scn</t>
+  </si>
+  <si>
+    <t>preb</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>smd</t>
+  </si>
+  <si>
+    <t>ama</t>
+  </si>
+  <si>
+    <t>ttcl</t>
+  </si>
+  <si>
+    <t>ircp</t>
+  </si>
+  <si>
+    <t>ggc</t>
+  </si>
+  <si>
+    <t>ayud</t>
+  </si>
+  <si>
+    <t>rjh</t>
+  </si>
+  <si>
+    <t>tycn</t>
+  </si>
+  <si>
+    <t>pttep</t>
+  </si>
+  <si>
+    <t>bui</t>
+  </si>
+  <si>
+    <t>prm</t>
+  </si>
+  <si>
+    <t>epg</t>
+  </si>
+  <si>
+    <t>bay</t>
+  </si>
+  <si>
+    <t>psl</t>
+  </si>
+  <si>
+    <t>sabina</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>sat</t>
+  </si>
+  <si>
+    <t>gfpt</t>
+  </si>
+  <si>
+    <t>phol</t>
+  </si>
+  <si>
+    <t>sccc</t>
+  </si>
+  <si>
+    <t>sonic</t>
+  </si>
+  <si>
+    <t>rph</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>bcp</t>
+  </si>
+  <si>
+    <t>sq</t>
+  </si>
+  <si>
+    <t>mega</t>
+  </si>
+  <si>
+    <t>spvi</t>
+  </si>
+  <si>
+    <t>tpcs</t>
+  </si>
+  <si>
+    <t>bjchi</t>
+  </si>
+  <si>
+    <t>ilink</t>
+  </si>
+  <si>
+    <t>ai</t>
+  </si>
+  <si>
+    <t>susco</t>
+  </si>
+  <si>
+    <t>tcap</t>
+  </si>
+  <si>
+    <t>singer</t>
+  </si>
+  <si>
+    <t>cwt</t>
+  </si>
+  <si>
+    <t>sta</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>sprc</t>
+  </si>
+  <si>
+    <t>wice</t>
+  </si>
+  <si>
+    <t>ccet</t>
+  </si>
+  <si>
+    <t>ktbstmr</t>
+  </si>
+  <si>
+    <t>lph</t>
+  </si>
+  <si>
+    <t>rcl</t>
+  </si>
+  <si>
+    <t>tmi</t>
+  </si>
+  <si>
+    <t>tta</t>
+  </si>
+  <si>
+    <t>kgi</t>
+  </si>
+  <si>
+    <t>ttw</t>
+  </si>
+  <si>
+    <t>bpp</t>
+  </si>
+  <si>
+    <t>skr</t>
+  </si>
+  <si>
+    <t>ecl</t>
+  </si>
+  <si>
     <t>lanna</t>
   </si>
   <si>
+    <t>tsc</t>
+  </si>
+  <si>
+    <t>banpu</t>
+  </si>
+  <si>
+    <t>tvi</t>
+  </si>
+  <si>
+    <t>chg</t>
+  </si>
+  <si>
+    <t>twpc</t>
+  </si>
+  <si>
+    <t>ah</t>
+  </si>
+  <si>
+    <t>seaoil</t>
+  </si>
+  <si>
+    <t>salee</t>
+  </si>
+  <si>
+    <t>th</t>
+  </si>
+  <si>
+    <t>tqm</t>
+  </si>
+  <si>
+    <t>gunkul</t>
+  </si>
+  <si>
+    <t>fns</t>
+  </si>
+  <si>
+    <t>mst</t>
+  </si>
+  <si>
+    <t>symc</t>
+  </si>
+  <si>
+    <t>tru</t>
+  </si>
+  <si>
+    <t>trubb</t>
+  </si>
+  <si>
+    <t>nvd</t>
+  </si>
+  <si>
+    <t>ptt</t>
+  </si>
+  <si>
+    <t>sutha</t>
+  </si>
+  <si>
+    <t>arip</t>
+  </si>
+  <si>
+    <t>nch</t>
+  </si>
+  <si>
+    <t>amanah</t>
+  </si>
+  <si>
+    <t>ivl</t>
+  </si>
+  <si>
     <t>kbs</t>
   </si>
   <si>
+    <t>lhk</t>
+  </si>
+  <si>
+    <t>metco</t>
+  </si>
+  <si>
+    <t>siri</t>
+  </si>
+  <si>
+    <t>snc</t>
+  </si>
+  <si>
+    <t>hft</t>
+  </si>
+  <si>
+    <t>ntsc</t>
+  </si>
+  <si>
+    <t>psh</t>
+  </si>
+  <si>
     <t>smit</t>
   </si>
   <si>
-    <t>ekh</t>
-  </si>
-  <si>
-    <t>smd</t>
-  </si>
-  <si>
-    <t>tru</t>
-  </si>
-  <si>
-    <t>sta</t>
-  </si>
-  <si>
-    <t>uec</t>
-  </si>
-  <si>
-    <t>vih</t>
-  </si>
-  <si>
-    <t>tfg</t>
-  </si>
-  <si>
-    <t>banpu</t>
-  </si>
-  <si>
-    <t>bjchi</t>
-  </si>
-  <si>
-    <t>tipco</t>
-  </si>
-  <si>
-    <t>mtc</t>
-  </si>
-  <si>
-    <t>cwt</t>
-  </si>
-  <si>
-    <t>cpi</t>
+    <t>amatav</t>
+  </si>
+  <si>
+    <t>brock</t>
+  </si>
+  <si>
+    <t>brr</t>
+  </si>
+  <si>
+    <t>iii</t>
+  </si>
+  <si>
+    <t>choti</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>tisco</t>
+  </si>
+  <si>
+    <t>mbax</t>
+  </si>
+  <si>
+    <t>tkn</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
+  <si>
+    <t>tpbi</t>
+  </si>
+  <si>
+    <t>floyd</t>
+  </si>
+  <si>
+    <t>samtel</t>
+  </si>
+  <si>
+    <t>bct</t>
+  </si>
+  <si>
+    <t>amarin</t>
+  </si>
+  <si>
+    <t>pcsgh</t>
+  </si>
+  <si>
+    <t>cmr</t>
+  </si>
+  <si>
+    <t>tcc</t>
+  </si>
+  <si>
+    <t>takuni</t>
+  </si>
+  <si>
+    <t>rsp</t>
+  </si>
+  <si>
+    <t>jmart</t>
+  </si>
+  <si>
+    <t>tpp</t>
+  </si>
+  <si>
+    <t>ckp</t>
   </si>
   <si>
     <t>ahc</t>
   </si>
   <si>
-    <t>mst</t>
-  </si>
-  <si>
-    <t>hpt</t>
-  </si>
-  <si>
-    <t>sat</t>
-  </si>
-  <si>
-    <t>jkn</t>
-  </si>
-  <si>
-    <t>nch</t>
-  </si>
-  <si>
-    <t>psl</t>
+    <t>cimbt</t>
+  </si>
+  <si>
+    <t>itel</t>
+  </si>
+  <si>
+    <t>tapac</t>
+  </si>
+  <si>
+    <t>asp</t>
+  </si>
+  <si>
+    <t>btnc</t>
+  </si>
+  <si>
+    <t>tsth</t>
+  </si>
+  <si>
+    <t>samco</t>
+  </si>
+  <si>
+    <t>bch</t>
   </si>
   <si>
     <t>fmt</t>
   </si>
   <si>
-    <t>gc</t>
-  </si>
-  <si>
-    <t>tmd</t>
-  </si>
-  <si>
-    <t>eason</t>
-  </si>
-  <si>
-    <t>gbx</t>
+    <t>s</t>
+  </si>
+  <si>
+    <t>fvc</t>
   </si>
   <si>
     <t>tnr</t>
   </si>
   <si>
-    <t>upoic</t>
-  </si>
-  <si>
-    <t>bcp</t>
-  </si>
-  <si>
-    <t>tpipl</t>
-  </si>
-  <si>
-    <t>lhk</t>
-  </si>
-  <si>
-    <t>hft</t>
-  </si>
-  <si>
-    <t>th</t>
-  </si>
-  <si>
-    <t>pt</t>
-  </si>
-  <si>
-    <t>chg</t>
-  </si>
-  <si>
-    <t>scn</t>
-  </si>
-  <si>
-    <t>uvan</t>
-  </si>
-  <si>
-    <t>ama</t>
-  </si>
-  <si>
-    <t>rph</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>tpch</t>
-  </si>
-  <si>
-    <t>tapac</t>
-  </si>
-  <si>
-    <t>stgt</t>
-  </si>
-  <si>
-    <t>tsth</t>
-  </si>
-  <si>
-    <t>ivl</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>kgi</t>
-  </si>
-  <si>
-    <t>tisco</t>
-  </si>
-  <si>
-    <t>seaoil</t>
-  </si>
-  <si>
-    <t>asp</t>
-  </si>
-  <si>
-    <t>tgpro</t>
-  </si>
-  <si>
-    <t>tta</t>
-  </si>
-  <si>
-    <t>ktbstmr</t>
-  </si>
-  <si>
-    <t>tcc</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>esso</t>
-  </si>
-  <si>
-    <t>nation</t>
-  </si>
-  <si>
-    <t>psh</t>
-  </si>
-  <si>
-    <t>insure</t>
-  </si>
-  <si>
-    <t>bui</t>
-  </si>
-  <si>
-    <t>samco</t>
-  </si>
-  <si>
-    <t>ckp</t>
-  </si>
-  <si>
-    <t>prakit</t>
-  </si>
-  <si>
-    <t>tpp</t>
-  </si>
-  <si>
-    <t>gunkul</t>
-  </si>
-  <si>
-    <t>pcsgh</t>
-  </si>
-  <si>
-    <t>brock</t>
-  </si>
-  <si>
-    <t>siri</t>
-  </si>
-  <si>
-    <t>mbax</t>
-  </si>
-  <si>
-    <t>trubb</t>
-  </si>
-  <si>
-    <t>ttcl</t>
-  </si>
-  <si>
-    <t>skn</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>ttw</t>
-  </si>
-  <si>
-    <t>salee</t>
-  </si>
-  <si>
-    <t>rcl</t>
-  </si>
-  <si>
-    <t>tse</t>
-  </si>
-  <si>
-    <t>takuni</t>
-  </si>
-  <si>
-    <t>sprc</t>
-  </si>
-  <si>
-    <t>ptl</t>
-  </si>
-  <si>
-    <t>ayud</t>
-  </si>
-  <si>
-    <t>pimo</t>
-  </si>
-  <si>
-    <t>kiat</t>
-  </si>
-  <si>
-    <t>phol</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>skr</t>
-  </si>
-  <si>
-    <t>charan</t>
-  </si>
-  <si>
-    <t>rjh</t>
-  </si>
-  <si>
-    <t>samtel</t>
-  </si>
-  <si>
-    <t>tcap</t>
-  </si>
-  <si>
-    <t>tmi</t>
-  </si>
-  <si>
-    <t>rsp</t>
-  </si>
-  <si>
-    <t>tpipp</t>
-  </si>
-  <si>
-    <t>amatav</t>
-  </si>
-  <si>
-    <t>smpc</t>
-  </si>
-  <si>
-    <t>fpi</t>
-  </si>
-  <si>
-    <t>ai</t>
-  </si>
-  <si>
-    <t>sccc</t>
-  </si>
-  <si>
-    <t>ntsc</t>
-  </si>
-  <si>
-    <t>lalin</t>
-  </si>
-  <si>
-    <t>metco</t>
-  </si>
-  <si>
-    <t>susco</t>
-  </si>
-  <si>
-    <t>cimbt</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>wice</t>
-  </si>
-  <si>
-    <t>snc</t>
-  </si>
-  <si>
-    <t>tsc</t>
-  </si>
-  <si>
-    <t>brr</t>
-  </si>
-  <si>
-    <t>ner</t>
-  </si>
-  <si>
-    <t>ecl</t>
-  </si>
-  <si>
-    <t>lph</t>
-  </si>
-  <si>
-    <t>thana</t>
-  </si>
-  <si>
-    <t>tr</t>
+    <t>บริษัท จรัญประกันภัย จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท โปรเจค แพลนนิ่ง เซอร์วิส จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ศรีวิชัยเวชวิวัฒน์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท บางกอกแร้นช์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ไทย-เยอรมัน โปรดักส์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท อีซึ่น แอนด์ โค จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท พรีเมียร์ เทคโนโลยี จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท เนชั่น กรุ๊ป (ไทยแลนด์) จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท โพลีเพล็กซ์ (ประเทศไทย) จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ไพโอเนียร์ มอเตอร์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท อินทรประกันภัย จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท อุตสาหกรรมถังโลหะไทย จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท เดอะ สตีล จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท นอร์ทอีส รับเบอร์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ไทยเรยอน จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ยูนิมิต เอนจิเนียริ่ง จำกัด (มหาชน)</t>
   </si>
   <si>
     <t>บริษัท ควอลิตี้คอนสตรัคชั่นโปรดัคส์ จำกัด (มหาชน)</t>
   </si>
   <si>
+    <t>บริษัท พี อาร์ จี คอร์ปอเรชั่น จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท สตาร์ส ไมโครอิเล็กทรอนิกส์ (ประเทศไทย) จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ธนบุรี เฮลท์แคร์ กรุ๊ป จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ที.เอ.ซี. คอนซูเมอร์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ลลิล พร็อพเพอร์ตี้ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท เมืองไทย แคปปิตอล จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท เสริมสร้าง พาวเวอร์ คอร์ปอเรชั่น จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ชุมพรอุตสาหกรรมน้ำมันปาล์ม จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ซังโกะ ไดคาซติ้ง (ประเทศไทย) จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ศรีไทยซุปเปอร์แวร์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท โฮม พอตเทอรี่ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท เอสโซ่ (ประเทศไทย) จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ศรีตรังโกลฟส์ (ประเทศไทย) จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ไทย โซล่าร์ เอ็นเนอร์ยี่ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท สหอุตสาหกรรมน้ำมันปาล์ม จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท เอเชีย กรีน เอนเนอจี จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท เจเอเอส แอสเซ็ท จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ทีพีไอ โพลีน จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท เกียรติธนา ขนส่ง จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ทีพีไอ โพลีน เพาเวอร์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท เจเคเอ็น โกลบอล กรุ๊ป จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ประกิต โฮลดิ้งส์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท แพลน บี มีเดีย จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท เอกชัยการแพทย์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท เฟรเซอร์ส พร็อพเพอร์ตี้ (ประเทศไทย) จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท เอกรัฐวิศวกรรม จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ฟอร์จูน พาร์ท อินดัสตรี้ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ประชาอาภรณ์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ไทยฟู้ดส์ กรุ๊ป จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ส.กิจชัย เอ็นเตอร์ไพรส์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ธนาสิริ กรุ๊ป จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท สหมิตรถังแก๊ส จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ทีพีซี เพาเวอร์โฮลดิ้ง จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ไทยยูเนี่ยน กรุ๊ป จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ยูนิวานิชน้ำมันปาล์ม จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ทิปโก้ฟูดส์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ซี เอ แซด (ประเทศไทย) จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ไทยออพติคอล กรุ๊ป จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท แฮลเซี่ยน เทคโนโลยี่ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท โกลเบล็ก โฮลดิ้ง แมนเนจเม้นท์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท สแกน อินเตอร์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท พรีบิลท์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท วัฒนาการแพทย์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท เซนต์เมด จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท อาม่า มารีน จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ทีทีซีแอล จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท อินเตอร์เนชั่นแนล รีเสริช คอร์ปอเรชั่น จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท โกลบอลกรีนเคมิคอล จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท อลิอันซ์ อยุธยา แคปปิตอล จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท โรงพยาบาลราชธานี จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัทไทยคูน เวิลด์ไวด์ กรุ๊ป (ประเทศไทย) จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ปตท. สำรวจและผลิตปิโตรเลียม จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท บางกอกสหประกันภัย จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท พริมา มารีน จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท อีสเทิร์นโพลีเมอร์ กรุ๊ป จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>ธนาคารกรุงศรีอยุธยา จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท พรีเชียส ชิพปิ้ง จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ซาบีน่า จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ไทยออยล์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท สมบูรณ์ แอ๊ดวานซ์ เทคโนโลยี จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท จีเอฟพีที จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ผลธัญญะ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ปูนซีเมนต์นครหลวง จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท โซนิค อินเตอร์เฟรท จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท โรงพยาบาลราชพฤกษ์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท สาลี่ คัลเล่อร์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท บางจาก คอร์ปอเรชั่น จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท สหกลอิควิปเมนท์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท เมก้า ไลฟ์ไซแอ็นซ์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท เอส พี วี ไอ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ทีพีซีเอส จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท บีเจซี เฮฟวี่ อินดัสทรี จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท อินเตอร์ลิ้งค์ คอมมิวนิเคชั่น จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท เอเชียน อินซูเลเตอร์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ซัสโก้ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ทุนธนชาต จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ซิงเกอร์ประเทศไทย จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ชัยวัฒนา แทนเนอรี่ กรุ๊ป จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ศรีตรังแอโกรอินดัสทรี จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท สยามโกลบอลเฮ้าส์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท สตาร์ ปิโตรเลียม รีไฟน์นิ่ง จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ไวส์ โลจิสติกส์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท แคล-คอมพ์ อีเล็คโทรนิคส์ (ประเทศไทย) จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>ทรัสต์เพื่อการลงทุนในอสังหาริมทรัพย์และสิทธิการเช่าอสังหาริมทรัพย์ เคทีบีเอสที มิกซ์</t>
+  </si>
+  <si>
+    <t>บริษัท โรงพยาบาล ลาดพร้าว จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท อาร์ ซี แอล จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ธีระมงคล อุตสาหกรรม จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท โทรีเซนไทย เอเยนต์ซีส์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัทหลักทรัพย์ เคจีไอ (ประเทศไทย) จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ทีทีดับบลิว จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท บ้านปู เพาเวอร์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ศิครินทร์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ตะวันออกพาณิชย์ลีสซิ่ง จำกัด (มหาชน)</t>
+  </si>
+  <si>
     <t>บริษัท ลานนารีซอร์สเซส จำกัด (มหาชน)</t>
   </si>
   <si>
+    <t>บริษัท ไทยสตีลเคเบิล จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท บ้านปู จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ประกันภัยไทยวิวัฒน์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท โรงพยาบาลจุฬารัตน์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ไทยวา จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท อาปิโก ไฮเทค จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ซีออยล์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท สาลี่อุตสาหกรรม จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ตงฮั้ว โฮลดิ้ง จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ทีคิวเอ็ม อัลฟา จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท กันกุลเอ็นจิเนียริ่ง จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท เอฟเอ็นเอส โฮลดิ้งส์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัทหลักทรัพย์ เมย์แบงก์ (ประเทศไทย) จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ซิมโฟนี่ คอมมูนิเคชั่น จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ไทยรุ่งยูเนียนคาร์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ไทยรับเบอร์ลาเท็คซ์กรุ๊ป จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท เนอวานา ไดอิ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ปตท. จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท สุธากัญจน์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท เออาร์ไอพี จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท เอ็น. ซี. เฮ้าส์ซิ่ง จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท อะมานะฮ์ ลิสซิ่ง จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท อินโดรามา เวนเจอร์ส จำกัด (มหาชน)</t>
+  </si>
+  <si>
     <t>บริษัท น้ำตาลครบุรี จำกัด (มหาชน)</t>
   </si>
   <si>
+    <t>บริษัท โลหะกิจ เม็ททอล จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัทมูราโมโต้ อีเล็คตรอน (ประเทศไทย) จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท แสนสิริ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท เอส เอ็น ซี ฟอร์เมอร์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ฮั้วฟง รับเบอร์ (ไทยแลนด์) จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท นิวทรีชั่น เอสซี จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท พฤกษา โฮลดิ้ง จำกัด (มหาชน)</t>
+  </si>
+  <si>
     <t>บริษัท สหมิตรเครื่องกล จำกัด (มหาชน)</t>
   </si>
   <si>
-    <t>บริษัท เอกชัยการแพทย์ จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท เซนต์เมด จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ไทยรุ่งยูเนียนคาร์ จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ศรีตรังแอโกรอินดัสทรี จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ยูนิมิต เอนจิเนียริ่ง จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ศรีวิชัยเวชวิวัฒน์ จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ไทยฟู้ดส์ กรุ๊ป จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท บ้านปู จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท บีเจซี เฮฟวี่ อินดัสทรี จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ทิปโก้ฟูดส์ จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท เมืองไทย แคปปิตอล จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ชัยวัฒนา แทนเนอรี่ กรุ๊ป จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ชุมพรอุตสาหกรรมน้ำมันปาล์ม จำกัด (มหาชน)</t>
+    <t>บริษัท อมตะ วีเอ็น จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท บ้านร็อคการ์เด้น จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท น้ำตาลบุรีรัมย์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ทริพเพิล ไอ โลจิสติกส์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ห้องเย็นโชติวัฒน์หาดใหญ่ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ทีมพรีซิชั่น จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ทิสโก้ไฟแนนเชียลกรุ๊ป จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท มัลติแบกซ์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท เถ้าแก่น้อย ฟู๊ดแอนด์มาร์เก็ตติ้ง จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท สยามอีสต์ โซลูชั่น จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ทีพีบีไอ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ฟลอยด์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท สามารถเทลคอม จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท เบอร์ล่า คาร์บอน (ไทยแลนด์) จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท อมรินทร์พริ้นติ้ง แอนด์ พับลิชชิ่ง จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท พี.ซี.เอส.แมชีน กรุ๊ปโฮลดิ้ง จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท เชียงใหม่รามธุรกิจการแพทย์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ไทย แคปปิตอล คอร์ปอเรชั่น จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ทาคูนิ กรุ๊ป จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ริช สปอร์ต จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท เจมาร์ท กรุ๊ป โฮลดิ้งส์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ไทยบรรจุภัณฑ์และการพิมพ์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ซีเค พาวเวอร์ จำกัด (มหาชน)</t>
   </si>
   <si>
     <t>บริษัท โรงพยาบาลเอกชล จำกัด (มหาชน)</t>
   </si>
   <si>
-    <t>บริษัทหลักทรัพย์ เมย์แบงก์ (ประเทศไทย) จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท โฮม พอตเทอรี่ จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท สมบูรณ์ แอ๊ดวานซ์ เทคโนโลยี จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท เจเคเอ็น โกลบอล กรุ๊ป จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท เอ็น. ซี. เฮ้าส์ซิ่ง จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท พรีเชียส ชิพปิ้ง จำกัด (มหาชน)</t>
+    <t>ธนาคาร ซีไอเอ็มบี ไทย จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท อินเตอร์ลิ้งค์ เทเลคอม จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ทาพาโก้ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท เอเซีย พลัส กรุ๊ป โฮลดิ้งส์ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท บูติคนิวซิตี้ จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ทาทา สตีล (ประเทศไทย) จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท สัมมากร จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท บางกอก เชน ฮอสปิทอล จำกัด (มหาชน)</t>
   </si>
   <si>
     <t>บริษัท ไฟน์ เม็ททัล เทคโนโลยีส์ จำกัด (มหาชน)</t>
   </si>
   <si>
-    <t>บริษัท โกลบอล คอนเน็คชั่นส์ จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท อุตสาหกรรมถังโลหะไทย จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท อีซึ่น แอนด์ โค จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท โกลเบล็ก โฮลดิ้ง แมนเนจเม้นท์ จำกัด (มหาชน)</t>
+    <t>บริษัท สิงห์ เอสเตท จำกัด (มหาชน)</t>
+  </si>
+  <si>
+    <t>บริษัท ฟิลเตอร์ วิชั่น จำกัด (มหาชน)</t>
   </si>
   <si>
     <t>บริษัท ไทยนิปปอนรับเบอร์อินดัสตรี้ จำกัด (มหาชน)</t>
   </si>
   <si>
-    <t>บริษัท สหอุตสาหกรรมน้ำมันปาล์ม จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท บางจาก คอร์ปอเรชั่น จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ทีพีไอ โพลีน จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท โลหะกิจ เม็ททอล จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ฮั้วฟง รับเบอร์ (ไทยแลนด์) จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ตงฮั้ว โฮลดิ้ง จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท พรีเมียร์ เทคโนโลยี จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท โรงพยาบาลจุฬารัตน์ จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท สแกน อินเตอร์ จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ยูนิวานิชน้ำมันปาล์ม จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท อาม่า มารีน จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท โรงพยาบาลราชพฤกษ์ จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท เจเอเอส แอสเซ็ท จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ทีพีซี เพาเวอร์โฮลดิ้ง จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ทาพาโก้ จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ศรีตรังโกลฟส์ (ประเทศไทย) จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ทาทา สตีล (ประเทศไทย) จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท อินโดรามา เวนเจอร์ส จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท เอเชีย กรีน เอนเนอจี จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัทหลักทรัพย์ เคจีไอ (ประเทศไทย) จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ทิสโก้ไฟแนนเชียลกรุ๊ป จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ซีออยล์ จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท เอเซีย พลัส กรุ๊ป โฮลดิ้งส์ จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ไทย-เยอรมัน โปรดักส์ จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท โทรีเซนไทย เอเยนต์ซีส์ จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>ทรัสต์เพื่อการลงทุนในอสังหาริมทรัพย์และสิทธิการเช่าอสังหาริมทรัพย์ เคทีบีเอสที มิกซ์</t>
-  </si>
-  <si>
-    <t>บริษัท ไทย แคปปิตอล คอร์ปอเรชั่น จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ไทยออยล์ จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท เอสโซ่ (ประเทศไทย) จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท เนชั่น กรุ๊ป (ไทยแลนด์) จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท พฤกษา โฮลดิ้ง จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท อินทรประกันภัย จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท บางกอกสหประกันภัย จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท สัมมากร จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ซีเค พาวเวอร์ จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ประกิต โฮลดิ้งส์ จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ไทยบรรจุภัณฑ์และการพิมพ์ จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท กันกุลเอ็นจิเนียริ่ง จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท พี.ซี.เอส.แมชีน กรุ๊ปโฮลดิ้ง จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท บ้านร็อคการ์เด้น จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท แสนสิริ จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท มัลติแบกซ์ จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ไทยรับเบอร์ลาเท็คซ์กรุ๊ป จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ทีทีซีแอล จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ส.กิจชัย เอ็นเตอร์ไพรส์ จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท เดอะ สตีล จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ทีทีดับบลิว จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท สาลี่อุตสาหกรรม จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท อาร์ ซี แอล จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ไทย โซล่าร์ เอ็นเนอร์ยี่ จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ทาคูนิ กรุ๊ป จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท สตาร์ ปิโตรเลียม รีไฟน์นิ่ง จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท โพลีเพล็กซ์ (ประเทศไทย) จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท อลิอันซ์ อยุธยา แคปปิตอล จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ไพโอเนียร์ มอเตอร์ จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท เกียรติธนา ขนส่ง จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ผลธัญญะ จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท วัฒนาการแพทย์ จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ศิครินทร์ จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท จรัญประกันภัย จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท โรงพยาบาลราชธานี จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท สามารถเทลคอม จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ทุนธนชาต จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ธีระมงคล อุตสาหกรรม จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ริช สปอร์ต จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ทีพีไอ โพลีน เพาเวอร์ จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท อมตะ วีเอ็น จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท สหมิตรถังแก๊ส จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ฟอร์จูน พาร์ท อินดัสตรี้ จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท เอเชียน อินซูเลเตอร์ จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ปูนซีเมนต์นครหลวง จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท นิวทรีชั่น เอสซี จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ลลิล พร็อพเพอร์ตี้ จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัทมูราโมโต้ อีเล็คตรอน (ประเทศไทย) จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ซัสโก้ จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>ธนาคาร ซีไอเอ็มบี ไทย จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ทีมพรีซิชั่น จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ไวส์ โลจิสติกส์ จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท เอส เอ็น ซี ฟอร์เมอร์ จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ไทยสตีลเคเบิล จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท น้ำตาลบุรีรัมย์ จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท นอร์ทอีส รับเบอร์ จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ตะวันออกพาณิชย์ลีสซิ่ง จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท โรงพยาบาล ลาดพร้าว จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ธนาสิริ กรุ๊ป จำกัด (มหาชน)</t>
-  </si>
-  <si>
-    <t>บริษัท ไทยเรยอน จำกัด (มหาชน)</t>
+    <t>ธุรกิจประกันวินาศภัย</t>
+  </si>
+  <si>
+    <t>เป็นบริษัทวิศวกรที่ปรึกษาให้บริการทางด้านบริหารและควบคุมการก่อสร้างงานแขนงต่าง ๆ ได้แก่ งานก่อสร้างอาคาร  งานก่อสร้างระบบสาธารณูปโภคพื้นฐานต่าง ๆ งานโยธา งานโครงสร้าง งานสถาปัตยกรรม งานระบบต่าง ๆ (ระบบไฟฟ้า, สื่อสาร, เครื่องกล, ระบบประปาสุขาภิบาล และป้องกันอัคคีภัย) งานภูมิสถาปัตย์ งานตกแต่งภายใน รวมถึงงานก่อสร้างที่ต้องอาศัยความชำนาญเฉพาะด้าน  มีกลุ่มลูกค้าเป้าหมายทั้งที่เป็นโครงการก่อสร้างของภาครัฐและภาคเอกชน</t>
+  </si>
+  <si>
+    <t>กลุ่มโรงพยาบาลวิชัยเวชฯ ประกอบธุรกิจโรงพยาบาลทั่วไป (General Hospital) ระดับทุติยภูมิ (Secondary) และมีโรงพยาบาลในกลุ่ม 4 โรงพยาบาล ได้แก่ 1) โรงพยาบาลวิชัยเวช อินเตอร์เนชั่นแนล อ้อมน้อย 2) โรงพยาบาลวิชัยเวช อินเตอร์เนชั่นแนล หนองแขม 3) โรงพยาบาลวิชัยเวช อินเตอร์เนชั่นแนล สมุทรสาคร และ 4) โรงพยาบาลวิชัยเวช แยกไฟฉาย นอกจากนี้ บริษัทฯ ยังมีบริษัทย่อยอีกแห่งหนึ่งคือ บริษัท โรงเรียนศรีวิชัยอาชีวศึกษา จำกัด ซึ่งดำเนินธุรกิจภายใต้ชื่อ โรงเรียนศรีวิชัยอาชีวศึกษา เพื่อผลิตผู้ดูแลผู้สูงอายุและเด็กเล็ก กลุ่มลูกค้าหลักของกลุ่มโรงพยาบาลวิชัยเวชฯ ประกอบด้วย 2 กลุ่มหลัก คือ (1) กลุ่มลูกค้าทั่วไป (Non-Capitation) ได้แก่ ลูกค้าบุคคลทั่วไป ลูกค้าประกันชีวิต ลูกค้าประเภทคู่สัญญา ลูกค้าผู้ประสบภัยจากรถ ลูกค้าโครงการกองทุนเงินทดแทน (2) กลุ่มลูกค้าโครงการภาครัฐ (Capitation) ได้แก่ ลูกค้าโครงการกองทุนประกันสังคม</t>
+  </si>
+  <si>
+    <t>บริษัท บางกอกแร้นช์ จำกัด (มหาชน) ("บริษัทฯ") เป็นผู้นำในธุรกิจผลิตอาหารจากเนื้อเป็ดแบบครบวงจร โดยดำเนินธุรกิจเกษตรอุตสาหกรรมและผลิตอาหารจากเนื้อเป็ดที่มีคุณภาพในระดับพรีเมี่ยม และจำแนกธุรกิจของกลุ่มบริษัทออกเป็น 5 ประเภท ได้แก่ 1) ธุรกิจอาหารสัตว์ 2) ธุรกิจฟาร์มพ่อแม่พันธุ์เป็ด 3) ธุรกิจโรงฟักไข่เป็ด 4) ธุรกิจฟาร์มเลี้ยงเป็ดเนื้อ และ 5) ธุรกิจโรงงานชำแหละและแปรรูปเนื้อเป็ด เพื่อผลิตเป็นผลิตภัณฑ์อาหารแปรรูปพร้อมปรุง และผลิตภัณฑ์อาหารแปรรูปปรุงสุกจากเนื้อเป็ด รวมถึงผลพลอยได้อื่นๆ โดยผลิตภัณฑ์ของกลุ่มบริษัทมีการจำหน่ายทั้งในประเทศและต่างประเทศ ทั้งเอเชีย ยุโรป และตะวันออกกลาง กลุ่มบริษัทมีฐานการผลิตแบบครบวงจรทั้งในประเทศไทยและประเทศเนเธอร์แลนด์</t>
+  </si>
+  <si>
+    <t>บริษัทดำเนินธุรกิจโดยการผลิตและจำหน่ายท่อสเตนเลส ภายใต้เครื่องหมายการค้า TGPRO เพื่อใช้ในอุตสาหกรรมการผลิตทั่วไป เช่น อุตสาหกรรมน้ำตาล อาหาร ยาและเคมีภัณฑ์ โดยจะใช้ในส่วนของหม้อต้มน้ำ (BOILER), เครื่องแลกเปลี่ยนความร้อน (HEAT EXCHANGER) และเครื่องระเหย (EVAPORATOR) และใช้ในอุตสาหกรรมก่อสร้างในส่วนของการตบแต่งอาคารและเฟอร์นิเจอร์</t>
+  </si>
+  <si>
+    <t>ผลิตและจำหน่ายสีอุตสาหกรรม ได้แก่ สีพ่นรถจักรยานยนต์ หมึกพิมพ์ บรรจุภัณฑ์  สีเคลือบบรรจุภัณฑ์  สีอุตสาหกรรมอื่นๆ และ การลงทุน</t>
+  </si>
+  <si>
+    <t>ดำเนินธุรกิจให้เช่าอาคารสำนักงานและลงทุนในธุรกิจเทคโนโลยีสารสนเทศ โดยมีบริษัทย่อย 1 แห่ง คือ บริษัท ดาต้าโปร คอมพิวเตอร์ ซิสเต็มส์ จำกัด ซึ่งดำเนินธุรกิจเป็นผู้ให้บริการเทคโนโลยีสารสนเทศแบบครบวงจร (Total Enterprise Solution and Service Provider) มีผลิตภัณฑ์ที่บริษัทย่อยพัฒนาขึ้นเองและผลิตภัณฑ์ที่ได้รับการแต่งตั้งให้เป็นผู้แทนจำหน่ายจากบริษัทชั้นนำของโลก รวมถึงการให้บริการทางด้านเทคโนโลยีสารสนเทศด้านต่างๆ</t>
+  </si>
+  <si>
+    <t>ผลิตและจำหน่ายและจัดหา/ผลิตหนังสือพิมพ์ สิ่งพิมพ์ และให้บริการโฆษณาและข้อมูลข่าวสาร ผ่านสื่อประเภทต่างๆ ได้แก่ โทรทัศน์ และสื่อรูปแบบใหม่</t>
+  </si>
+  <si>
+    <t>ผลิตและส่งออกพลาสติกฟิล์มใช้สำหรับบรรจุภัณฑ์(Packaging) อุตสาหกรรม(Industrial) และอุปกรณ์ไฟฟ้า (Electrical)</t>
+  </si>
+  <si>
+    <t>บริษัทดำเนินธุรกิจผลิตและจัดจำหน่ายมอเตอร์สำหรับเครื่องปรับอากาศ มอเตอร์กำลังสำหรับอุตสาหกรรม และเครื่องสูบน้ำ ปั๊มหอยโข่ง และมอเตอร์สำหรับสระและสปา โดยแบ่งเป็นการผลิตตามคำสั่งจ้างผลิต (OEM) และการผลิตจัดจำหน่ายภายใต้ตราสินค้า Pioneer Motor ซึ่งเป็นตราสินค้าของบริษัทเอง</t>
+  </si>
+  <si>
+    <t>รับประกันวินาศภัยทุกประเภท คือ อัคคีภัย ภัยทางทะเลและขนส่ง รถยนต์และอุบัติเหตุเบ็ดเตล็ด</t>
+  </si>
+  <si>
+    <t>ประกอบธุรกิจผลิตและจำหน่ายถังเหล็ก ขนาด 200 ลิตร,ขวด PET และธุรกิจให้เช่าอาคารชุด</t>
+  </si>
+  <si>
+    <t>บริษัทประกอบธุรกิจจัดจำหน่ายผลิตภัณฑ์เหล็กที่หลากหลายทั้งในรูปแบบวัตถุดิบที่ยังมิได้แปรรูป ได้แก่ เหล็กแผ่นรีดร้อนชนิดม้วน (Hot Rolled Coil) และที่แปรรูปแล้วทั้งเหล็กม้วนสลิต เหล็กแผ่น เหล็กรูปพรรณประเภทขึ้นรูปร้อน และเหล็กรูปพรรณประเภทขึ้นรูปเย็นรวมทั้งผลิตภัณฑ์เหล็กอื่นๆ นอกจากนี้บริษัทยังเป็นผู้แปรรูปผลิตภัณฑ์เหล็กบางประเภท ได้แก่ เหล็กแผ่น เหล็กม้วนสลิต เหล็กแบน เหล็กฉากพับ เหล็กรางพับ ท่อเหล็ก และเหล็กโครงสร้างรูปตัวซี</t>
+  </si>
+  <si>
+    <t>ดำเนินธุรกิจผลิตและจำหน่ายยางแผ่นรมควัน ยางแท่ง และยางผสม เพื่อจำหน่ายไปยังผู้ผลิตในอุตสาหกรรมยานยนต์และกลุ่มผู้ค้าคนกลาง</t>
+  </si>
+  <si>
+    <t>ผลิตเส้นใยประดิษฐ์เรยอนจำหน่ายทั้งภายในประเทศและต่างประเทศ</t>
+  </si>
+  <si>
+    <t>ออกแบบ ประกอบ ติดตั้ง และขึ้นรูปผลิตภัณฑ์โลหะตามสัญญาที่ทำกับลูกค้า เช่น ภาชนะทนแรงดัน, ชิ้นส่วนเครื่องจักรกล, ถังที่ไม่ใช้แรงดัน, โครงสร้างเหล็ก และ การติดตั้งเครื่องจักรและอุปกรณ์</t>
   </si>
   <si>
     <t>ผลิตและจำหน่ายคอนกรีตมวลเบาเพื่อจำหน่ายในประเทศ และส่งออก รวมถึงผลิตภัณฑ์ทั้งประเภทไม่เสริมเหล็ก ได้แก่ บล็อค (Block) ขนาดต่างๆ และประเภทเสริมเหล็ก ได้แก่ คานทับหลังสำเร็จรูป (Lintel), แผ่นผนัง (Wall Panel), แผ่นพื้น (Floor Panel) และแผ่นบันได (Stair)  โดยเป็นการ spin off มาจาก LH</t>
   </si>
   <si>
+    <t>เป็นผู้ผลิตและจำหน่ายข้าวสารในประเทศ และเพื่อการส่งออกผลิตภัณฑ์ของบริษัทฯ ได้แก่ ข้าวสารบรรจุถุงพลาสติก ขนาด 2 กิโลกรัม และ 5 กิโลกรัม ข้าวสารบรรจุกระสอบพลาสติก ขนาด 15, 48, 49 และ 50 กิโลกรัม ภายใต้เครื่องหมายการค้า ?ข้าวมาบุญครอง?, ?มาบุญครอง พลัส?, และ ?ข้าวจัสมินโกลด์? และเป็นผู้ประกอบกิจการศูนย์อาหาร และร้านอาหาร</t>
+  </si>
+  <si>
+    <t>รับจ้างผลิตและประกอบชิ้นส่วนอิเล็กทรอนิกส์</t>
+  </si>
+  <si>
+    <t>กลุ่มบริษัทประกอบกิจการสถานพยาบาลประเภทที่รับผู้ป่วยไว้ค้างคืน ในลักษณะโรงพยาบาลทั่วไป (General Hospital) ภายใต้ชื่อ "โรงพยาบาลธนบุรี"</t>
+  </si>
+  <si>
+    <t>TACC ประกอบธุรกิจจัดหา ผลิต และจำหน่ายเครื่องดื่มประเภทชาและกาแฟ  และสินค้าไลฟสไตล์ โดยแบ่งกลุ่มผลิตภัณฑ์ของบริษัทได้ 2 กลุ่ม ดังนี้ 1) กลุ่มผลิตภัณฑ์ที่ร่วมพัฒนากับพันธมิตรทางธุรกิจ ได้แก่ เครื่องดื่มในโถกดในร้าน 7-Eleven, เครื่องดื่มปรุงสำเร็จชนิดผงที่จัดจำหน่ายให้กับร้าน All Cafe ในร้าน 7-Eleven และผลิตภัณฑ์ที่ร่วมพัฒนาเพื่อจำหน่ายเป็นครั้งคราวหรือตามฤดูกาล, เครื่องกดเครื่องดื่มร้อนแบบอัตโนมัติ   2) กลุ่มผลิตภัณฑ์ที่จำหน่ายภายใต้ตราสินค้าของบริษัท  ได้แก่ เครื่องดื่มปรุงสำเร็จชนิดผงตรา "ณ อรุณ" (Na-Arun), ธุรกิจคาแรคเตอร์ และไซรัปผลไม้ ตรา ทรีว่า (TRIVA)</t>
+  </si>
+  <si>
+    <t>ประกอบธุรกิจพัฒนาอสังหาริมทรัพย์เพื่อขาย</t>
+  </si>
+  <si>
+    <t>ให้บริการสินเชื่อทะเบียนรถและสินเชื่อส่วนบุคคล</t>
+  </si>
+  <si>
+    <t>บริษัทประกอบธุรกิจโดยการถือหุ้นในบริษัทอื่น (Holding Company) ที่ประกอบธุรกิจผลิตและจำหน่ายไฟฟ้าจากพลังงานหมุนเวียน และธุรกิจที่เกี่ยวข้องอื่นๆ ทั้งในและต่างประเทศ ทั้งนี้มีบริษัท เสริมสร้าง พลังงาน จำกัด เป็นบริษัทแกน ดำเนินโครงการโรงไฟฟ้าพลังงานแสงอาทิตย์ ตั้งอยู่ที่ จ.ลพบุรี มีปริมาณพลังงานไฟฟ้าเสนอขายตามสัญญา 40 เมกะวัตต์</t>
+  </si>
+  <si>
+    <t>ดำเนินธุรกิจในฐานะเป็นผู้ผลิตและจำหน่ายผลิตภัณฑ์น้ำมันปาล์มประเภทต่างๆ อาทิ น้ำมันปาล์มดิบ น้ำมันเมล็ดในปาล์ม น้ำมันปาล์มบริสุทธิ์ น้ำมันเมล็ดในปาล์มบริสุทธิ์ น้ำมันปาล์มโอเลอิน เพื่อการนำไปใช้ในอุตสาหกรรมต่อเนื่องต่างๆ มากมาย และ น้ำมันปาล์มโอเลอินผ่านกรรมวิธีบรรจุขวด ปี๊บ และถุง ตรา "ลีลา" ที่ได้คุณภาพและมาตรฐานสากล สำหรับใช้ในตลาดผู้บริโภคทั่วไป รวมทั้งยังมีผลิตภัณฑ์ผลพลอยได้อื่นๆ อาทิ ไขปาล์มบริสุทธิ์ กรดไขมันปาล์ม และกากเมล็ดในปาล์ม สำหรับใช้ในอุตสาหกรรมอาหารสัตว์อีกด้วย</t>
+  </si>
+  <si>
+    <t>ประกอบธุรกิจผลิตชิ้นส่วนอลูมิเนียมและสังกะสีในรูปแบบที่ลูกค้ากำหนดตามคำสั่งซื้อของลูกค้า โดยกระบวนการขึ้นรูปด้วยแม่พิมพ์ฉีดหล่อความดันสูง (High-Pressure Diecasting หรือ "HPDC") และแบบ Gravity โดยบริษัทมีการให้บริการออกแบบและว่าจ้างบริษัทผู้ผลิตแม่พิมพ์เพื่อทำการผลิตแม่พิมพ์ให้กับลูกค้าเพื่อให้สามารถผลิตชิ้นงานตามที่ลูกค้ากำหนด</t>
+  </si>
+  <si>
+    <t>1. ธุรกิจผลิตและจำหน่ายผลิตภัณฑ์พลาสติกเพื่องานอุตสาหกรรมและผลิตภัณฑ์เครื่องใช้ในครัวเรือนที่ทำจากเมลามีน   2. ธุรกิจแม่พิมพ์และอื่นๆ ให้บริการผลิตและจัดหาแม่พิมพ์ และจัดหาสินค้าจากทั้งในประเทศและต่างประเทศมาจำหน่าย</t>
+  </si>
+  <si>
+    <t>ผู้ผลิตและจัดจำหน่ายเครื่องใช้บนโต๊ะอาหารเซรามิคระดับสากล</t>
+  </si>
+  <si>
+    <t>บริษัทฯ เป็นผู้ประกอบกิจการโรงกลั่นปิโตรเลียม และจำหน่ายผลิตภัณฑ์ปิโตรเลียมแบบครบวงจร (integrated) อีกทั้งบริษัทฯ ทำการผลิตและจำหน่ายผลิตภัณฑ์อะโรเมติกส์และเคมีภัณฑ์อื่นๆ ซึ่งบริษัทฯ และบริษัทในเครือที่เกี่ยวข้องได้ประกอบธุรกิจในประเทศไทยมากว่า 120  ปี บริษัทฯ ขายผลิตภัณฑ์ปิโตรเลียมแก่ลูกค้ารายย่อยผ่านทางเครือข่ายที่กว้างขวางของสถานีบริการน้ำมันค้าปลีกภายใต้ชื่อการค้าเอสโซ่ รวมทั้งขายโดยตรงให้แก่ลูกค้าในภาคอุตสาหกรรม ค้าส่ง การบินและการเดินเรือ นอกจากนี้ บริษัทฯ ยังขายผลิตภัณฑ์อะโรเมติกส์และเคมีภัณฑ์อื่นๆ ที่บริษัทฯ ผลิตให้แก่ลูกค้าในภาคอุตสาหกรรมภายในประเทศ และเพี่อจำหน่ายไปยังต่างประเทศ</t>
+  </si>
+  <si>
+    <t>ผลิตและจัดจำหน่ายถุงมือยางที่ใช้ในทางการแพทย์และอุตสาหกรรมอื่น โดยมีผลิตภัณฑ์หลัก ได้แก่ ถุงมือยางธรรมชาติชนิดมีแป้ง ถุงมือยางธรรมชาติชนิดไม่มีแป้ง และถุงมือยางไนไตรล์</t>
+  </si>
+  <si>
+    <t>บริษัทฯ ประกอบธุรกิจผลิตและจำหน่ายกระแสไฟฟ้าพลังงานแสงอาทิตย์และพลังงานหมุนเวียนอื่น โดยสามารถแบ่งออกได้เป็น   2 ประเภท คือ ธุรกิจโรงไฟฟ้าพลังงานแสงอาทิตย์ด้วยระบบโฟโต้โวลตาอิกหรือโซลาร์เซลล์ (Solar PV) และธุรกิจโรงไฟฟ้าชีวมวล (Biomass Power Plants)</t>
+  </si>
+  <si>
+    <t>ดำเนินกิจการปลูกปาล์มน้ำมัน และมีโรงงานสกัดน้ำมันปาล์มดิบและน้ำมันเมล็ดในปาล์มดิบ ซึ่งเป็นวัตถุดิบของอุตสาหกรรมต่อเนื่องอื่น เช่น น้ำมันปรุงอาหาร เนยเทียม ไอศครีม  สบู่  แชมพู ส่วนผสมอาหาร เคมีภัณฑ์ อาหารสัตว์ เป็นต้น และน้ำมันปาล์มยังเป็นส่วนประกอบสำคัญในการผลิตไบโอดีเซล ซึ่งเป็นพลังงานทางเลือก</t>
+  </si>
+  <si>
+    <t>ประกอบธุรกิจเป็นผู้จัดจำหน่ายถ่านหินสะอาด เพื่อจำหน่ายทั้งในประเทศ และต่างประเทศให้กับกลุ่มโรงงานอุตสาหกรรมต่าง ๆ และประกอบธุรกิจโลจิสติกส์  ทั้งทางบกโดยรถบรรทุกและทางน้ำโดยเรือลำเลียง</t>
+  </si>
+  <si>
+    <t>ธุรกิจของบริษัทแบ่งออกเป็น 3 รูปแบบหลัก ดังนี้1. การบริหารจัดการพื้นที่เช่าภายในศูนย์การค้าในส่วนโทรศัพท์เคลื่อนที่และสินค้าเทคโนโลยี ภายใต้ชื่อ "IT Junction" 2. การพัฒนาและบริหารพื้นที่ในรูปแบบตลาดชุมชน ภายใต้ชื่อ "J Market" 3. การพัฒนาและบริหารพื้นที่ในรูปแบบศูนย์การค้าชุมชน ภายใต้ชื่อ "The Jas"</t>
+  </si>
+  <si>
+    <t>ผลิตและจำหน่ายปูนซีเมนต์ คอนกรีตผสมเสร็จ และเม็ดพลาสติค LDPE/EVA โดยร่วมทุนในธุรกิจแอมโมเนียมไนเตรทและกรดไนตริก และมีการลงทุนที่เกี่ยวเนื่องกับธุรกิจเหล็กและธุรกิจประกันชีวิต เป็นต้น</t>
+  </si>
+  <si>
+    <t>ธุรกิจขนส่ง</t>
+  </si>
+  <si>
+    <t>บริษัทประกอบธุรกิจด้านการผลิตและจำหน่ายไฟฟ้า โดยประกอบด้วยโรงไฟฟ้าพลังงานความร้อนทิ้ง และโรงไฟฟ้าพลังงานเชื้อเพลิง RDF ซึ่งโรงไฟฟ้าทั้งหมดตั้งอยู่ที่ อ.แก่งคอย จ.สระบุรี และประกอบธุรกิจสถานีบริการน้ำมันเชื้อเพลิงและก๊าซธรรมชาติ (NGV)</t>
+  </si>
+  <si>
+    <t>บริษัทและบริษัทย่อยดำเนินธุรกิจดังนีิ้ 1. ธุรกิจให้บริการและจำหน่ายลิขสิทธิ์คอนเทนต์ในประเทศ 2. ธุรกิจให้บริการและจำหน่ายลิขสิทธิ์คอนเทนต์ไปยังต่างประเทศ 3. ธุรกิจให้บริการเวลาเพื่อโฆษณาและประชาสัมพันธ์สินค้า 4. ธุรกิจจำหน่ายผลิตภัณฑ์ 5. ธุรกิจการบริหารจัดการลิขสิทธิ์นางงามจักรวาล</t>
+  </si>
+  <si>
+    <t>3 ธุรกิจหลัก คือ 1) ลงทุนในบริษัทร่วมและบริษัทย่อย ซึ่งประกอบธุรกิจโฆษณา 2) ให้บริการเกี่ยวกับการให้คำแนะนำปรึกษา วางแผน จัดซื้อและจัดทำรายงานทางด้านสื่อโฆษณา 3) ให้บริการทางด้านงานบริหาร งานบัญชีและการเงิน งานบริหารงานบุคคล และอื่น ๆ ให้แก่ บริษัทร่วมบริษัทย่อย บริษัทที่เกี่ยวข้อง และบริษัทอื่น</t>
+  </si>
+  <si>
+    <t>ให้บริการและรับจ้างผลิตสื่อโฆษณาภายนอกที่อยู่อาศัยประกอบด้วย สื่อโฆษณาบนระบบขนส่งมวลชน สื่อโฆษณาภาพนิ่งกลางแจ้ง สื่อโฆษณาดิจิทัลกลางแจ้ง สื่อโฆษณาภายในสนามบิน สื่อโฆษณาภายในห้างสรรพสินค้า สื่อโฆษณาออนไลน์</t>
+  </si>
+  <si>
+    <t>บริษัทประกอบกิจการสถานพยาบาลประเภทที่รับผู้ป่วยไว้ค้างคืน ในลักษณะโรงพยาบาลทั่วไป (General Hospital) ภายใต้ชื่อ "โรงพยาบาลเอกชัย"</t>
+  </si>
+  <si>
+    <t>พัฒนาและบริหารจัดการกลุ่มอสังหาริมทรัพย์ ในรูปแบบครบวงจร ครอบคลุมอสังหาริมทรัพย์เพื่อการอุตสาหกรรม ที่อยู่อาศัย พาณิชยกรรม และฮอสพิทาลิตี้ รวมถึงลงทุนและได้รับแต่งตั้งเป็นผู้บริหารอสังหาริมทรัพย์ของกองทรัสต์ฯ (FTREIT และ GVREIT) และกองทุนรวมสิทธิการเช่าอสังหาริมทรัพย์  (GOLDPF)</t>
+  </si>
+  <si>
+    <t>ผลิตหม้อแปลงไฟฟ้าและบริการซ่อมบำรุงรักษา รับออกแบบติดตั้งรวมทั้งก่อสร้างสถานีไฟฟ้าย่อย รวมทั้งผลิตและจำหน่ายเซลล์แสงอาทิตย์และแผงเซลล์แสงอาทิตย์ และให้บริการออกแบบและติดตั้งระบบผลิตไฟฟ้าจากพลังงานแสงอาทิตย์</t>
+  </si>
+  <si>
+    <t>เป็นผู้ผลิตชิ้นส่วนยานยนต์ที่ผลิตจากพลาสติก และเป็นศูนย์รวมในการจำหน่าย ทั้งชิ้นส่วนอะไหล่รถยนต์ทดแทน (Replacement Equipment Manufacturer: REM) และชิ้นส่วนอะไหล่รถยนต์ภายใต้ตราสินค้าของค่ายรถยนต์ต่างๆ (Original Equipment Manufacturer: OEM) รวมทั้งให้บริการรับจ้างฉีดขึ้นรูป ชุบ และพ่นสีผลิตภัณฑ์พลาสติก</t>
+  </si>
+  <si>
+    <t>ผู้ผลิตสิ่งทอและเครื่องนุ่งห่ม ประเภท เสื้อผ้าบุรุษ สตรี เด็ก ชุดว่ายน้ำ ชุดกีฬา ชุดปั่นจักรยาน และชุดชั้นในชาย  โดยผลิตสินค้าภายใต้เครื่องหมายการค้าสากล (International Brand) ที่ได้รับลิขสิทธิ์และเครื่องหมายการค้าของบริษัท (House Brand)  เช่น Arrow Elle  BSC  Felix Buhler  Mizuno  Lecoq และ เครื่องแบบชุด Uniform</t>
+  </si>
+  <si>
+    <t>บริษัทประกอบธุรกิจหลักเกี่ยวกับการผลิตไก่และจำหน่ายไก่สด แช่เย็นและแช่แข็งและผลิตภัณฑ์แปรรูปจากไก่ ผลิตและจำหน่ายสุกร และผลิตและจำหน่ายอาหารสัตว์</t>
+  </si>
+  <si>
+    <t>บริษัทประกอบธุรกิจผลิตและจำหน่ายแผ่นไฟเบอร์บอร์ดความหนาแน่นปานกลาง (Medium Density Fiberboard : MDF) ซึ่งเป็นแผ่นไม้ทดแทนไม้ธรรมชาติ โดยส่วนใหญ่ส่งออกไปจำหน่ายในตลาดต่างประเทศ</t>
+  </si>
+  <si>
+    <t>พัฒนาอสังหาริมทรัพย์ประเภทบ้านจัดสรรพร้อมที่ดินเพื่อขาย เน้นการพัฒนาโครงการในเขตปริมณฑล และสำหรับบริษัทย่อย เน้นการพัฒนาโครงการในส่วนภูมิภาคที่มีการเติบโตทางเศรษฐกิจอย่างต่อเนื่อง โดยบริษัทจะพัฒนาโครงการในขนาดไม่ใหญ่มากนัก</t>
+  </si>
+  <si>
+    <t>ผลิตถังแก๊สปิโตรเลียมเหลว และถังทนความดันต่ำแบบต่างๆ</t>
+  </si>
+  <si>
+    <t>ประกอบธุรกิจหลักโดยการถือหุ้นในบริษัทอื่น (Holding Company) ที่ประกอบธุรกิจผลิตและจำหน่ายไฟฟ้าจากพลังงานหมุนเวียน โดยมีบริษัท ช้างแรก ไบโอเพาเวอร์ จำกัด ซึ่งประกอบธุรกิจผลิตและจำหน่ายไฟฟ้าจากชีวมวล เป็นบริษัทแกน</t>
+  </si>
+  <si>
+    <t>ผลิตและส่งออกอาหารสำเร็จรูปแช่แข็งและบรรจุกระป๋อง และขยายธุรกิจให้ครบวงจรด้วยธุรกิจอาหารสำเร็จรูปและอาหารว่าง โดยเน้นอาหารทะเล ธุรกิจบรรจุภัณฑ์และสิ่งพิมพ์ ธุรกิจการตลาดภายในประเทศ ธุรกิจอาหารสัตว์ และธุรกิจพัฒนาสายพันธุ์กุ้งเพื่อจำหน่าย</t>
+  </si>
+  <si>
+    <t>ธุรกิจหลัก คือ สวนปาล์ม สกัดน้ำมันปาล์มดิบ และน้ำมันเมล็ดในปาล์มดิบ เพื่อจำหน่ายให้แก่โรงกลั่นน้ำมันปาล์มทั้งในและต่างประเทศ โดยมีผลิตภัณฑ์พลอยได้ คือ เมล็ดในปาล์ม กากเมล็ดในปาล์มและกะลาปาล์ม นอกจากนี้ยังผลิตเมล็ดพันธุ์และต้นกล้าพันธุ์ปาล์มน้ำมันลูกผสมจำหน่ายให้แก่เกษตรกรทั้งในและต่างประเทศ และโรงผลิตกระแสไฟฟ้าจากก๊าซชีวภาพ เพื่อจำหน่ายให้กับการไฟฟ้าส่วนภูมิภาค</t>
+  </si>
+  <si>
+    <t>ผลิตและจำหน่ายน้ำแร่ธรรมชาติพร้อมดื่ม ภายใต้เครื่องหมายการค้าหลัก ออรา</t>
+  </si>
+  <si>
+    <t>บริษัทประกอบธุรกิจรับเหมาก่อสร้างให้ลูกค้าในอุตสาหกรรมน้ำมัน ก๊าซ และปิโตรเคมี แบ่งออกเป็น 4 ประเภท ดังนี้1. บริการรับเหมาก่อสร้างแบบครบวงจร2. บริการรับเหมาก่อสร้างติดตั้งโครงสร้างและระบบ3. บริการงานด้านวิศวกรรมโยธาและอาคาร4. บริการผลิต ประกอบ และบริการอื่น</t>
+  </si>
+  <si>
+    <t>ผู้ผลิตและจำหน่ายเลนส์สายตา แม่แบบแก้วและบริการเคลือบเลนส์สายตาเพื่อคุณสมบัติต่างๆ</t>
+  </si>
+  <si>
+    <t>บริษัท แฮลเซี่ยน เทคโนโลยี่ จำกัด (มหาชน) และบริษัทย่อย ประกอบธุรกิจเป็นผู้ผลิต รับจ้างผลิตและจำหน่ายเครื่องมือตัดเฉือนโลหะที่ทำมาจากเพชรสังเคราะห์ (Polycrystalline Diamond หรือ PCD และ Single Crystal Diamond หรือ SCD), PCBN (Polycrystalline Cubic Boron Nitride) และคาร์ไบด์ (Carbide) สำหรับใช้ในการผลิตชิ้นงานที่มีความเที่ยงตรงสูง เพื่อรองรับลูกค้าในกลุ่มอุตสาหกรรมผลิตชิ้นส่วนฮาร์ดดิสก์ไดรฟ (HDD), อุตสาหกรรมผลิตชิ้นส่วนยานยนต์ อุตสาหกรรมผลิตชิ้นส่วนเครื่องบิน และอุตสาหกรรมเครื่องจักรกลอื่นๆ ทั้งในและต่างประเทศ นอกจากนี้ยังรับจ้างผลิตและจำหน่ายอุปกรณ์และชิ้นส่วนโลหะต่างๆ ตามความต้องการของลูกค้า โดยมีโรงงานผลิต 3 แห่ง ในประเทศไทย ประเทศเวียดนาม และประเทศสหรัฐอเมริกา และมีบริษัทย่อยที่เป็นตัวแทนจำหน่ายใน 7 ประเทศทั่วโลก ได้แก่ ไทย, ฟิลิปปินส์, สิงคโปร์, มาเลเซีย, เวียดนาม, อินโดนีเซีย และสหรัฐอเมริกา</t>
+  </si>
+  <si>
+    <t>ลงทุนโดยการถือหุ้นในบริษัทอื่น</t>
+  </si>
+  <si>
+    <t>บริษัทฯ มุ่งเน้นการประกอบธุรกิจพลังงาน โดยเฉพาะธุรกิจที่เกี่ยวเนื่องกับก๊าซธรรมชาติแบบครบวงจร ได้แก่ ธุรกิจสถานีบริการก๊าซธรรมชาติหลักโดยเอกชน ธุรกิจขนส่งก๊าซ NGV ธุรกิจสถานีบริการก๊าซธรรมชาติสำหรับยานยนต์ ธุรกิจออกแบบ ผลิต รับเหมา ติดตั้งและซ่อมบำรุงอุปกรณ์ก๊าซ NGV ธุรกิจติดตั้งระบบก๊าซในรถยนต์ ธุรกิจจำหน่ายรถยนต์  ธุรกิจพลังงานหมุนเวียน และธุรกิจอื่นๆ เช่น ธุรกิจการขายก๊าซคาร์บอนไดออกไซด์ ธุรกิจร้านสะดวกซื้อ ธุรกิจการขายกระจก แบตเตอรี่ และวัสดุอื่นๆ</t>
+  </si>
+  <si>
+    <t>รับเหมาก่อสร้าง</t>
+  </si>
+  <si>
+    <t>ธุรกิจโรงพยาบาลเอกชน ภายใต้ชื่อ โรงพยาบาลนอร์ทอีสเทอร์น-วัฒนา ให้บริการตรวจรักษา ฟื้นฟูป้องกัน และส่งเสริมสุขภาพแก่ประชาชน กลุ่มลูกค้าประกอบด้วยผู้ป่วย ซึ่งแบ่งการรักษาเป็นผู้ป่วยนอก และผู้ป่วยค้างคืน (ผู้ป่วยใน) ผู้รับบริการที่ไม่ป่วย ซึ่งเป็นการให้บริการสุขภาพในด้านป้องกัน และส่งเสริมสุขภาพ</t>
+  </si>
+  <si>
+    <t>ตัวแทนจำหน่ายเครื่องมือแพทย์และอุปกรณ์ทางการแพทย์ โดยนำเข้าจากผู้ผลิตต่างประเทศ เพื่อจัดจำหน่ายให้แก่สถานพยาบาลในประเทศและบุคคลทั่วไป</t>
+  </si>
+  <si>
+    <t>1) บริษัทให้บริการขนส่งสินค้าเหลวทางเรือระหว่างประเทศ ได้แก่ ผลิตภัณฑ์น้ำมันปาล์มและน้ำมันพืชชนิดต่างๆ ไปยังประเทศในภูมิภาคเอเชียตะวันออกเฉียงใต้ และภูมิภาคเอเชียตะวันออก2) บริษัทย่อยให้บริการขนส่งสินค้าเหลวทางรถในประเทศ ได้แก่ น้ำมันเชื้อเพลิงและไบโอดีเซล B100</t>
+  </si>
+  <si>
+    <t>ให้บริการด้านการออกแบบวิศวกรรม การจัดหาเครื่องจักรและอุปกรณ์ และการก่อสร้างโรงงานแบบครบวงจร ให้แก่ ผู้ประกอบการในอุตสาหกรรมพลังงาน ปิโตรเคมี และเคมีภัณฑ์ ทั้งในประเทศไทยและต่างประเทศ</t>
+  </si>
+  <si>
+    <t>ประกอบธุรกิจด้านโทรคมนาคมและเทคโนโลยีสารสนเทศครบวงจร</t>
+  </si>
+  <si>
+    <t>บริษัทประกอบธุรกิจผลิตภัณฑ์เคมีเพื่อสิ่งแวดล้อม โดยมีผลิตภัณฑ์ คือ เมทิลเอสเทอร์ แฟตตี้แอลกอฮอล์ กลีเซอรีนบริสุทธิ์ และผลิตภัณฑ์พลอยได้หลายประเภท</t>
+  </si>
+  <si>
+    <t>ประกอบธุรกิจโดยการถือหุ้นในบริษัทอื่น</t>
+  </si>
+  <si>
+    <t>กลุ่มบริษัทประกอบกิจการสถานพยาบาลประเภทที่รับผู้ป่วยไว้ค้างคืน ในลักษณะโรงพยาบาลทั่วไป (General Hospital) ภายใต้ชื่อ "โรงพยาบาลราชธานี" และ "โรงพยาบาลราชธานี โรจนะ"</t>
+  </si>
+  <si>
+    <t>ผลิตและจำหน่าย เหล็กลวด เหล็กเส้นเสริมคอนกรีต (เหล็กเส้นกลม และเหล็กข้ออ้อย ซึ่งต่อไปนี้จะเรียกว่า?เหล็กเส้นเสริมคอนกรีต?) ลวดเหล็ก สกรู สลักเกลียว และแท่งเกลียว</t>
+  </si>
+  <si>
+    <t>กลุ่มบริษัทประกอบธุรกิจด้านการสำรวจและผลิตปิโตรเลียมทั้งภายในประเทศและต่างประเทศ ธุรกิจขนส่งก๊าซทางท่อในต่างประเทศ และการลงทุนในธุรกิจต่อเนื่อง</t>
+  </si>
+  <si>
+    <t>ประกอบธุรกิจให้บริการขนส่งและจัดเก็บน้ำมันดิบ ผลิตภัณฑ์น้ำมันสำเร็จรูป และปิโตรเคมีเหลว ทางเรือให้กับลูกค้าตามความต้องการอย่างครบวงจร รวมถึงการให้บริการเรือขนส่งที่ให้การสนับสนุนงานสำรวจและผลิตปิโตรเลียมกลางทะเล และการบริหารจัดการเรือ โดยแบ่งเป็น 4 ประเภทธุรกิจหลัก ดังนี้ 1. ธุรกิจเรือขนส่งน้ำมันและปิโตรเคมีเหลว (ธุรกิจเรือขนส่งฯ) 2. ธุรกิจเรือขนส่งและจัดเก็บน้ำมัน (ธุรกิจเรือขนส่งและจัดเก็บ FSU) 3. ธุรกิจเรือขนส่งที่ให้การสนับสนุนงานสำรวจและผลิตปิโตรเลียมกลางทะเล (ธุรกิจเรือ Offshore) 4. ธุรกิจบริหารจัดการเรือ (ธุรกิจบริหารเรือ)</t>
+  </si>
+  <si>
+    <t>EPG ประกอบธุรกิจหลักโดยการถือหุ้นในบริษัทอื่น (Holding Company) มีการลงทุนหลักในธุรกิจแปรรูปพลาสติก ได้แก่ (1) ธุรกิจผลิตและจำหน่ายฉนวนยางกันความร้อนและความเย็น ดำเนินการโดย บริษัท แอร์โรเฟลกซ์ จำกัด (AFC) ซึ่งเป็นบริษัทแกน  ภายใต้เครื่องหมายการค้า "AEROFLEX" (2) ธุรกิจผลิตและจำหน่ายอุปกรณ์ชิ้นส่วนตกแต่งรถยนต์ ดำเนินการโดย  บริษัท แอร์โรคลาส จำกัด (ARK) ภายใต้เครื่องหมายการค้า "AEROKLAS" และ (3) ธุรกิจผลิตและจำหน่ายบรรจุภัณฑ์พลาสติก ดำเนินการโดย บริษัท อีสเทิร์น โพลีแพค จำกัด (EPP)  ภายใต้เครื่องหมายการค้า "EPP"</t>
+  </si>
+  <si>
+    <t>ปัจจุบันธนาคารกรุงศรีอยุธยา จำกัด (มหาชน) เป็นธนาคารพาณิชย์ขนาดใหญ่อันดับ 5 ของประเทศในด้านสินทรัพย์ สินเชื่อและเงินฝาก และยังเป็นบริษัทในเครือของมิตซูบิชิ ยูเอฟเจ ไฟแนนเชียล กรุ๊ป (MUFG) ซึ่งเป็นกลุ่มสถาบันการเงินที่ใหญ่ที่สุดในญี่ปุ่น และเป็นหนึ่งในกลุ่มสถาบันการเงินที่ใหญ่ที่สุดระดับโลก  ธนาคาร บริษัทย่อยและการร่วมค้ารวม 23 บริษัท (กรุงศรี กรุ๊ป) มีความมุ่งมั่นที่จะตอบสนองทุกโจทย์ความต้องการของลูกค้าที่เปลี่ยนแปลงอยู่ตลอดเวลา ด้วยการนำเสนอผลิตภัณฑ์และบริการที่หลากหลาย ครอบคลุมลูกค้าทุกกลุ่มเป้าหมายสำคัญ ได้แก่ กลุ่มลูกค้าธุรกิจ (ธุรกิจขนาดใหญ่ของไทย ธุรกิจญี่ปุ่น บริษัทข้ามชาติ ตลอดจนลูกค้าธุรกิจขนาดกลางและขนาดย่อมของไทย) และกลุ่มธุรกิจลูกค้ารายย่อย นอกจากนี้ ยังให้บริการทางการเงินที่เกี่ยวข้องอื่นๆ ผ่านบริษัทย่อย และการร่วมค้า ทั้งในด้านการบริหารความมั่งคั่ง บัตรเครดิต ประกันวินาศภัย การบริหารสินทรัพย์ การค้าหลักทรัพย์ สินเชื่อเช่าซื้อรถยนต์ ไมโครไฟแนนซ์และสินเชื่อเพื่อการผ่อนชำระ</t>
+  </si>
+  <si>
+    <t>ธุรกิจเดินเรือโดยเป็นเจ้าของเรือเอนกประสงค์ขนาดเล็กสำหรับขนส่งสินค้าแห้งเทกองแบบไม่ประจำเส้นทาง มีเส้นทางเดินเรือครอบคลุมทั่วโลกในภูมิภาคสำคัญ ประกอบด้วย สหรัฐอเมริกา แคนาดา ยุโรป ละตินอเมริกา-แอฟริกา อินเดียอนุทวีป-ตะวันออกกลาง และเอเชียตะวันออกเฉียงใต้และตะวันออกไกล  และสินค้าพื้นฐานที่กองเรือขนส่งคือ สินค้าทางการเกษตร เหล็ก ปุ๋ย สินแร่และเนื้อแร่ ไม้ซุง ถ่านหินและอื่นๆ</t>
+  </si>
+  <si>
+    <t>ออกแบบ ผลิต และจำหน่ายสินค้าชุดชั้นในสตรี ภายใต้เครื่องหมายการค้า Sabina และกลุ่มลูกค้าซึ่งเป็นผู้จัดจำหน่ายสินค้าภายใต้เครื่องหมายการค้ายอดนิยมในยุโรป</t>
+  </si>
+  <si>
+    <t>ไทยออยล์เป็นผู้ประกอบธุรกิจการกลั่นและจำหน่ายผลิตภัณฑ์ปิโตรเลียมสำเร็จรูปที่ใหญ่ที่สุดในประเทศไทย และเป็นโรงกลั่นที่มีประสิทธิภาพอยู่ในระดับชั้นนำแห่งหนึ่งในภูมิภาคเอเชียแปซิฟิก ซึ่งก่อตั้งขึ้นในปี 2504 โดยมีธุรกิจหลักคือ โรงกลั่นนํ้ามัน ปัจจุบันมีกำลังการกลั่น 275,000 บาร์เรลต่อวันนอกจากนี้ ไทยออยล์ยังมีธุรกิจที่เกี่ยวข้องหลากหลาย เช่น ธุรกิจน้ำมันหล่อลื่นพื้นฐาน ธุรกิจปิโตรเคมีสายอะโรเมติกส์และสายโอเลฟิน ธุรกิจไฟฟ้า ธุรกิจสารทำละลายและเคมีภัณฑ์ ธุรกิจบริการขนส่งผลิตภัณฑ์ปิโตรเลียมสำเร็จรูปทางท่อ ธุรกิจพลังงานทดแทน ธุรกิจผลิตสารตั้งต้นสำหรับการผลิตผลิตภัณฑ์สารทำความสะอาด ธุรกิจให้บริการด้านการสรรหาและคัดเลือกบุคลากรสำหรับกลุ่มไทยออยล์ รวมถึงมีศูนย์บริหารการเงิน เพื่อช่วยเพิ่มขีดความสามารถในการบริหารจัดการทางการเงินของกลุ่มไทยออยล์</t>
+  </si>
+  <si>
+    <t>บริษัทประกอบธุรกิจโดยการถือหุ้นในบริษัทอื่น (Holding Company) โดยกลุ่มธุรกิจผลิตชิ้นส่วนยานยนต์และเครื่องจักรกลการเกษตรเป็นธุรกิจหลัก</t>
+  </si>
+  <si>
+    <t>กลุ่มบริษัทประกอบธุรกิจการเกษตรครบวงจร ครอบคลุมตั้งแต่ธุรกิจอาหารสัตว์ ธุรกิจฟาร์มเลี้ยงไก่ปู่ย่าพันธุ์ ธุรกิจฟาร์มเลี้ยงไก่พ่อแม่พันธุ์ ธุรกิจฟาร์มเลี้ยงไก่เนื้อ ธุรกิจชำแหละและแปรรูปผลิตภัณฑ์จากเนื้อไก่ โดยผลิตภัณฑ์หลักของกลุ่มบริษัท ได้แก่ ผลิตภัณฑ์จากเนื้อไก่ เนื้อไก่สด อาหารแปรรูปจากเนื้อไก่ และ อาหารปรุงสุกพร้อมรับประทาน รวมถึง อาหารสัตว์บก อาหารสัตว์น้ำ</t>
+  </si>
+  <si>
+    <t>ผู้จัดจำหน่ายผลิตภัณฑ์เพื่อความปลอดภัย อาชีวอนามัย และสิ่งแวดล้อม และผู้จัดจำหน่าย และให้บริการออกแบบ ผลิต รับก่อสร้าง ให้บริการเกี่ยวกับระบบบำบัดน้ำเพื่ออุปโภค และบริโภค</t>
+  </si>
+  <si>
+    <t>ผลิตและจำหน่ายปูนซีเมนต์และปูนสำเร็จรูป ภายใต้ตราสินค้า อินทรี ทั้งในลักษณะผงและเม็ด รวมถึงผลิตภัณฑ์ที่เกี่ยวเนื่องอย่างครบวงจร</t>
+  </si>
+  <si>
+    <t>บริษัท โซนิค อินเตอร์เฟรท จำกัด (มหาชน) (?บริษัทฯ? หรือ ?SONIC?) ประกอบธุรกิจให้บริการจัดการระบบโลจิสติกส์ระหว่างประเทศแบบครบวงจร (International Logistics Services Provider) ให้บริการทั้งการนำเข้าและส่งออกทั้งทางทะเล และทางอากาศ ให้บริการด้านพิธีการกรมศุลกากร การขนส่งในประเทศ การขนส่งข้ามแดน (cross border) รวมถึงให้บริการศูนย์รวบรวมและกระจายสินค้า</t>
+  </si>
+  <si>
+    <t>ประกอบกิจการสถานพยาบาลประเภทรับผู้ป่วยไว้ค้างคืนภายใต้ชื่อ "โรงพยาบาลราชพฤกษ์" โดยให้บริการครอบคลุมจังหวัดขอนแก่น และจังหวัดใกล้เคียง รวมทั้งประเทศเพื่อนบ้านในภูมิภาคอินโดจีน</t>
+  </si>
+  <si>
+    <t>ผลิตและจำหน่ายเม็ดพลาสติกมาสเตอร์แบตซ์ เม็ดพลาสติกคอมพาวด์ และสีผสมพลาสติกชนิดผง</t>
+  </si>
+  <si>
+    <t>ประกอบธุรกิจโรงกลั่นน้ำมันและการค้าน้ำมัน และธุรกิจการตลาด รวมถึงลงทุนในธุรกิจพลังงานไฟฟ้าสีเขียว ธุรกิจผลิตภัณฑ์ชีวภาพ ธุรกิจทรัพยากรธรรมชาติและพัฒนาธุรกิจใหม่</t>
+  </si>
+  <si>
+    <t>ให้บริการงานด้านการทำเหมืองแร่อย่างครบวงจร โดยให้บริการทำเหมืองถ่านหินแบบบ่อเปิด (Open Pit Mining) ครอบคลุมงาน การวางแผนงานเหมืองและขนส่ง การปฎิบัติงานเปิดหน้าเหมือง การเป็นที่ปรึกษางานเหมือง และการบริการให้เช่าเครื่องจักรขนาดใหญ่และงานซ่อมบำรุง โดยปัจจุบันดำเนินโครงการเหมืองแม่เมาะโครงการ 8  และโครงการเหมืองหงสา ประเทศลาว</t>
+  </si>
+  <si>
+    <t>MEGA  เป็นบริษัทจัดจำหน่ายผลิตภัณฑ์ยา ผลิตภัณฑ์เพื่อสุขภาพและสินค้าอุปโภคบริโภค (Fast Moving Consumer Goods หรือ FMCG) ชั้นนำระดับสากล ณ ปัจจุบัน MEGA เป็นผู้จัดจำหน่ายชั้นนำในประเทศกำลังพัฒนา ได้แก่ประเทศเมียนมาร์ เวียดนาม และกัมพูชา ซึ่งประเทศดังกล่าวมีแนวโน้มการเติบโตอย่างรวดเร็ว นอกจากนี้ MEGA มีการพัฒนา ผลิต ทำการตลาด และขายผลิตภัณฑ์กลุ่มบำรุงสุขภาพ ผลิตภัณฑ์ยาตามใบสั่งแพทย์และผลิตภัณฑ์ยาจำหน่ายหน้าเคาน์เตอร์สุขภาพภายใต้เครื่องหมายการค้า Mega We CareTM  ของบริษัทผ่านเครือข่ายการจัดจำหน่ายของบริษัทและผู้จัดจำหน่ายภายนอกใน 35 ประเทศต่างๆ ทั่วโลก</t>
+  </si>
+  <si>
+    <t>บริษัทประกอบธุรกิจหลักเป็นหนึ่งในตัวแทนจำหน่าย (Reseller) ผลิตภัณฑ์ภายใต้ตราสินค้า Apple ทั้งคอมพิวเตอร์ ผลิตภัณฑ์ประเภท iOS และอุปกรณ์เสริมต่างๆ รวมทั้งเป็นตัวแทนจำหน่ายผลิตภัณฑ์ภายใต้ตราสินค้าอื่นๆ ที่สามารถนำมาใช้กับผลิตภัณฑ์ Apple เป็นหลัก เพื่อที่จะรองรับความต้องการของลูกค้าได้ครบวงจร นอกจากนี้ บริษัทยังได้ขยายธุรกิจการบริการให้แก่ลูกค้า โดยมีศูนย์บริการสำหรับสินค้าภายใต้ตราผลิตภัณฑ์ Apple ในนาม iCenter</t>
+  </si>
+  <si>
+    <t>ผลิตและจำหน่ายผ้าไม่ทอ (non woven) สินค้าที่ทำจากผ้าไม่ทอ เช่น ชิ้นส่วนสำหรับใช้ในรถยนต์ ที่กรองอากาศ หน้ากากอนามัย สินค้าของใช้ในครัวเรือน และวัตถุดิบจากสิ่งทอที่ใช้ในอุตสาหกรรม และรวมถึงรับจ้างทำของ</t>
+  </si>
+  <si>
+    <t>ดำเนินธุรกิจวิศวกรรมด้านการรับจ้างผลิต และการติดตั้งอุปกรณ์ต่างๆ ที่ใช้ในกระบวนการผลิตในโรงงานอุตสาหกรรมตามแบบและขนาดที่ลูกค้ากำหนด โดยบริษัทสามารถผลิตสินค้าและบริการรองรับการใช้งานของลูกค้าได้ในหลากหลายอุตสาหกรรม เช่น พลังงาน โรงกลั่นน้ำมัน โรงฟ้า ก๊าซธรรมชาติ ปิโตรเคมี และเหมืองแร่ เป็นต้น โดยแบ่งลักษณะผลิตภัณฑ์ได้เป็น 4 ประเภท ได้แก่ งานแปรรูปผลิตภัณฑ์เหล็ก (Fabrication), งานแปรรูปและประกอบกลุ่มชิ้นงานขนาดใหญ่ (Modularization), งานติดตั้งนอกสถานที่ (Site Erection) และงานหล่อชิ้นส่วนคอนกรีตสำเร็จรูป (Precast Concrete)</t>
+  </si>
+  <si>
+    <t>ธุรกิจของ ILINK และบริษัทย่อย แบ่งออกเป็น 3 ธุรกิจหลัก ดังนี้ (1) ธุรกิจจัดจำหน่ายสายสัญญาณ (Distribution) (2) ธุรกิจโทรคมนาคมและดาต้าเซ็นเตอร์ (Telecom) (3) ธุรกิจวิศวกรรมและโครงการพิเศษ (Engineering)</t>
+  </si>
+  <si>
+    <t>แบบรายงานการเปิดเผยข้อมูลเพิ่มเติม(แบบ 56-1)/ 2562</t>
+  </si>
+  <si>
+    <t>บริษัทฯ และบริษัทย่อย ได้มุ่งเน้นการจำหน่ายน้ำมันเชื้อเพลิงผ่านสถานีบริการน้ำมันภายใต้เครื่องหมายการค้าของบริษัทฯ และจำหน่ายสู่ภาคอุตสาหกรรมต่างๆ เช่น อุตสาหกรรมการบิน การผลิตไฟฟ้า การก่อสร้าง การขนส่งและบริการ ทั้งที่เป็นผู้ใช้โดยตรงและแก่ผู้ค้าน้ำมันรายอื่นที่ซื้อน้ำมันไปจำหน่ายแก่ผู้บริโภคอีกทอดหนึ่ง ซึ่งรวมการจำหน่ายให้ผู้ค้าน้ำมันในประเทศเพื่อนบ้านด้วย</t>
+  </si>
+  <si>
+    <t>เป็นบริษัทแม่ของกลุ่มธุรกิจทางการเงิน ซึ่งบริษัทในกลุ่มธนชาตแบ่งประเภทการประกอบธุรกิจออกเป็น 2 กลุ่ม 1) ธุรกิจทางการเงิน ซึ่งประกอบด้วย ธุรกิจธนาคารพาณิชย์ ธุรกิจบริหารสินทรัพย์ ธุรกิจหลักทรัพย์ ธุรกิจประกัน  ธุรกิจให้เช่าซื้อ และธุรกิจลีสซิ่ง  2) ธุรกิจสนับสนุน ซึ่งประกอบด้วย ธุรกิจโบรกเกอร์ ธุรกิจบริการ และธุรกิจการพัฒนาฝึกอบรม</t>
+  </si>
+  <si>
+    <t>บริษัท ซิงเกอร์ประเทศไทย จำกัด (มหาชน) เป็นผู้จำหน่ายผลิตภัณฑ์ภายใต้เครื่องหมายการค้า ?ซิงเกอร์? เช่น จักรเย็บผ้า เครื่องใช้ไฟฟ้า ภายในบ้านต่างๆ นอกจากนี้ยังจำหน่ายสินค้าเชิงพาณิชย์ เช่น เครื่องมือ และอุปกรณ์ทางการเกษตร ตู้เติมเงินโทรศัพท์มือถือออนไลน์ ตู้เติมน้ำมันแบบหยอดเหรียญ และเครื่องทำน้ำหวานเกล็ดหิมะ เพื่อสนองตอบต่อความต้องการของลูกค้าได้อย่างครอบคลุม และหลากหลายทั้งกลุ่มลูกค้าบ้าน และกลุ่มลูกค้าเชิงพาณิชย์ ผ่านร้านค้าปลีกซึ่งเป็นสาขาของบริษัทเอง และผ่านทางตัวแทนจำหน่ายต่างๆ มากกว่าร้อยละ 80 ของยอดขายเป็นการขายแบบเช่าซื้อ โดยบริษัทให้เช่าซื้อผ่านทาง บริษัท เอสจี แคปปิตอล จำกัด ซึ่ง บริษัท ซิงเกอร์ประเทศไทย จำกัด (มหาชน) ถือหุ้นร้อยละ 99.99</t>
+  </si>
+  <si>
+    <t>บริษัทได้ประกอบธุรกิจหลัก 3 กลุ่มธุรกิจคือ 1.กลุ่มผลิตภัณฑ์หนัง ผลิตและจำหน่ายผลิตภัณฑ์ 4 ประเภท ได้แก่ 1) ผลิตภัณฑ์หนังสัตว์ฟอก 2) ผลิตภัณฑ์ของเล่นสัตว์เลี้ยง 3) ผลิตภัณฑ์เฟอร์นิเจอร์หนัง 4) ผลิตภัณฑ์เบาะหนังและชิ้นส่วนหนังสำหรับรถยนต์ เช่น Toyota Honda Nissan Isuzu Mazda Mitsubishi และ Chevrolet 2กลุ่มพลังงาน โดยบริษัทได้ลงทุนซื้อหุ้นในบริษัท ชัยวัฒนา กรีน จำกัด ในสัดส่วน 100% โดยมีเป้าหมายเพื่อประกอบธุรกิจลงทุน (ถือหุ้น) บริษัท ในกลุ่มพลังงานทดแทน 3.กลุ่มออกแบบและจัดจำหน่ายยานพาหนะ ซึ่งประกอบกิจการออกแบบและจัดจำหน่ายเรือ และรถโดยสารขนาด เล็กที่ผลิตด้วยอลูมิเนียม</t>
+  </si>
+  <si>
+    <t>ธุรกิจผลิตและจัดจำหน่ายยางธรรมชาติแบบครบวงจร (Full Supply Chain) ในหลากหลายประเทศ เริ่มตั้งแต่ธุรกิจต้นน้ำการทำสวนยางพาราในประเทศไทย ธุรกิจกลางน้ำการผลิตและจัดจำหน่ายผลิตภัณฑ์ยางธรรมชาติ ทั้งยางแท่ง (TSR) ยางแผ่นรมควัน (RSS) และน้ำยางข้น (Concentrated Latex) รวมถึงธุรกิจปลายน้ำในการผลิตและจัดจำหน่ายถุงมือยาง และสินค้าสำเร็จรูป อาทิ ท่อไฮดรอลิกแรงดันสูง</t>
+  </si>
+  <si>
+    <t>เป็นศูนย์จำหน่ายสินค้าวัสดุก่อสร้าง วัสดุตกแต่ง เครื่องมือ อุปกรณ์ที่ใช้ในงานก่อสร้าง ต่อเติม ตกแต่ง บ้านและสวนแบบควบวงจร (one stop shopping center) โดยใช้ชื่อทางการค้าว่า โกลบอล เฮ้าส์ (Global House) โดยนำระบบ Drive-through มาใช้เพื่อเพิ่มความสะดวกในการรับสินค้าโครงสร้างของลูกค้า</t>
+  </si>
+  <si>
+    <t>โรงกลั่นน้ามันของบริษัทผลิตผลิตภัณฑ์ปิโตรเลียม ได้แก่ ก๊าซปิโตรเลียมเหลว น้ามันเบนซินไร้สารตะกั่วเกรดพิเศษและเกรดธรรมดา น้ามันดีเซลหมุนเร็ว น้ามันเชื้อเพลิงอากาศยาน และน้ามันเตา รวมทั้งผลิตภัณฑ์ปิโตรเคมีซึ่งใช้เป็นผลิตภัณฑ์ตั้งต้นในอุตสาหกรรมปิโตรเคมี ได้แก่ โพรพิลีนเกรดโพลิเมอร์ ก๊าซปิโตรเลียมเหลว แนฟทาเกรดปิโตรเคมี ก๊าซผสม C4 และรีฟอร์เมท</t>
+  </si>
+  <si>
+    <t>กลุ่มบริษัทดำเนินธุรกิจให้บริการโลจิสติกส์ระหว่างประเทศทั้งทางทะเลและทางอากาศแบบครบวงจร (International Logistics Services and Solutions Provider) ทั้งการนำเข้าและส่งออก และการให้บริการด้านพิธีการศุลกากร และการขนส่งในประเทศ โดยสามารถให้บริการขนส่งสินค้าแบบประตูสู่ประตู (Door to Door) คือการให้บริการรับจัดการขนส่งตั้งแต่หน้าประตูโรงงานลูกค้าต้นทางเพื่อส่งมอบไปยังหน้าประตูโรงงานลูกค้าปลายทาง และแบบ Exwork คือการให้บริการรับจัดการขนส่งที่ผู้นำเข้ารับผิดชอบภาระค่าขนส่งตั้งแต่หน้าประตูโรงงานผู้ส่งออกไปจนถึงผู้รับปลายทาง</t>
+  </si>
+  <si>
+    <t>ผู้ผลิตผลิตภัณฑ์อีเล็คโทรนิคส์ในรูปแบบของ Electronics Manufacturing Services (EMS) โดยมีกลุ่มลูกค้าหลัก 2 ประเภทคือ อุปกรณ์ประกอบคอมพิวเตอร์และอุปกรณ์โทรคมนาคม</t>
+  </si>
+  <si>
+    <t>1. ลงทุนในสิทธิการเช่าที่ดินพร้อมอาคารคลังสินค้าและ/หรือโรงงาน 3 โครงการ คือ โครงการ ริช แอสเซ็ท โครงการเอสที บางบ่อ และโครงการเอสที บางปะอิน 2. ลงทุนในสิทธิการเช่าช่วงที่ดิน สิทธิการเช่าอาคารสำนักงานและคอมมูนิตี้มอลล์ โครงการซัมเมอร์ฮับและโครงการซัมเมอร์ฮิลล์ 3. ลงทุนในกรรมสิทธิ์ในอสังหาริมทรัพย์และสังหาริมทรัพย์ของศูนย์รับฝากข้อมูล (Data Center) โครงการ INTERLINK DATA CENTER</t>
+  </si>
+  <si>
+    <t>(1) กลุ่มธุรกิจบริการด้านการแพทย์ (2) ธุรกิจให้บริการตรวจวิเคราะห์และวินิจฉัยทางวิทยาศาสตร์ด้านเกษตร อาหาร ยา ปัจจัยการผลิตทางการเกษตร และสิ่งแวดล้อมอย่างครบวงจร (3) ธุรกิจสนับสนุนการให้บริการทางการแพทย์ การตลาด การขาย การบริหารสถานพยาบาลเฉพาะกิจนอกสถานที่(4) ธุรกิจสนับสนุนการให้บริการห้องปฏิบัติการทางการแพทย์</t>
+  </si>
+  <si>
+    <t>เป็นสายการเดินเรือที่ประกอบธุรกิจขนส่งตู้คอนเทนเนอร์ทางทะเลที่มีฐานประกอบกิจการในประเทศไทย ดำเนิน 3 สายธุรกิจ ได้แก่ 1. Shipper Owned Container 2. Carrier Owned Container และ 3. การให้บริการที่สร้างมูลค่าเพิ่มในด้านโลจิสติคส์ โดยมีเครือข่ายสำนักงานที่ครอบคลุมภูมิภาคเอเชียตะวันออกเฉียงเหนือ เอเชียตะวันออกเฉียงใต้ คาบสมุทรเอเชียใต้ และตะวันออกกลาง</t>
+  </si>
+  <si>
+    <t>เป็นผู้ออกแบบ ผลิต และจัดจำหน่าย อุปกรณ์ไฟฟ้าส่องสว่าง อุปกรณ์ควบคุมที่เกี่ยวข้อง รวมทั้งหลอดไฟ และโคมไฟ ให้แก่ลูกค้าและเป็นผู้ผลิตไฟฟ้าจากพลังงานทดแทน</t>
+  </si>
+  <si>
+    <t>ธุรกิจลงทุนโดยการถือหุ้นในบริษัทอื่น โดยลงทุนในธุรกิจหลัก 5 กลุ่มได้แก่ กลุ่มธุรกิจขนส่งทางเรือ กลุ่มธุรกิจบริการนอกชายฝั่ง กลุ่มธุรกิจเคมีภัณฑ์เพื่อการเกษตร กลุ่มธุรกิจอาหารและเครื่องดื่ม และกลุ่มการลงทุนอื่น</t>
+  </si>
+  <si>
+    <t>บริษัทหลักทรัพย์ เคจีไอ (ประเทศไทย) จำกัด (มหาชน) (?บริษัท?) เป็นบริษัทมหาชนจำกัดที่จัดตั้งขึ้นภายใต้พระราชบัญญัติบริษัทมหาชนจำกัดและประกอบกิจการในประเทศไทย โดยประกอบธุรกิจหลักทรัพย์ และได้รับอนุญาตและความเห็นชอบจากสำนักงานคณะกรรมการกำกับหลักทรัพย์และตลาดหลักทรัพย์ (?สำนักงาน ก.ล.ต.?) ให้ประกอบธุรกิจดังต่อไปนี้(ก) นายหน้าซื้อขายหลักทรัพย์ 	(ข) ค้าหลักทรัพย์ 	(ค) ที่ปรึกษาการลงทุน (ง) การจัดจำหน่ายหลักทรัพย์(จ) การยืมและให้ยืมหลักทรัพย์ (ฉ) นายทะเบียนหลักทรัพย์(ช) ตัวแทนซื้อขายสัญญาซื้อขายล่วงหน้า 	(ซ) ที่ปรึกษาทางการเงิน  	(ฌ) ธุรกรรมด้านอนุพันธ์นอกตลาดหลักทรัพย์แห่งประเทศไทย (ญ) ตัวแทนสนับสนุนการขายหรือรับซื้อคืนหน่วยลงทุนของกองทุนรวม  ตามขอบเขตที่ สำนักงาน ก.ล.ต. กำหนด</t>
+  </si>
+  <si>
+    <t>ประกอบกิจการสาธารณูปโภคในการผลิตและจ่ายน้ำประปา</t>
+  </si>
+  <si>
+    <t>ประกอบธุรกิจโดยการถือหุ้นในบริษัทอื่น (Holding Company) ที่ประกอบธุรกิจหลักด้านการผลิตและจำหน่ายไฟฟ้าและธุรกิจที่เกี่ยวข้อง โดยปัจจุบันมีรายได้หลักมาจากการลงทุนในโรงไฟฟ้าที่ผลิตไฟฟ้าจากพลังงานที่ใช้แล้วหมดไป (Conventional power generation) และได้มีการขยายการลงทุนไปยังโรงไฟฟ้าที่ผลิตไฟฟ้าจากพลังงานหมุนเวียน (Renewable power generation) โดยลงทุนในโรงไฟฟ้าหลากหลายรูปแบบและในหลายประเทศ</t>
+  </si>
+  <si>
+    <t>ธุรกิจโรงพยาบาลเอกชนในเขตตะวันออกของกรุงเทพมหานคร จังหวัดสมุทรปราการและอำเภอหาดใหญ่ จังหวัดสงขลา ได้แก่ โรงพยาบาลศิครินทร์  โรงพยาบาลศิครินทร์ สมุทรปราการ และโรงพยาบาลศิครินทร์ หาดใหญ่</t>
+  </si>
+  <si>
+    <t>บริษัท ประกอบธุรกิจให้บริการสินเชื่อเช่าซื้อรถยนต์มือสอง และสินเชื่อให้เงินกู้แก่ผู้ประกอบการซื้อรถยนต์ (Car Loan) บริการรับต่อกรมธรรม์ประกันภัย และ พ.ร.บ.ผู้ประสบภัยทางรถยนต์ เปิดดำเนินกิจการมาตั้งแต่ปี 2527 และได้เป็นบริษัทจดทะเบียนในตลาดหลักทรัพย์ เมื่อ 1 มีนาคม 2547 	บริษัทมีการรับต่อทะเบียนรถยนต์ กรมธรรม์ประกันภัย พ.ร.บ.คุ้มครองผู้ประสบภัยทางรถยนต์ และกรมธรรม์ประกันชีวิต ซึ่งเป็นการอำนวยความสะดวกให้แก่ลูกค้า อีกทั้งเป็นการเสริมรายได้ให้กับบริษัทอีกทางหนึ่ง  ตลอดจนเป็นการป้องกันความเสี่ยงที่อาจจะเกิดขึ้นกับรถยนต์และชีวิตของผู้เช่าซื้อ ซึ่งเป็นหลักประกันในการให้สินเชื่อของบริษัท</t>
+  </si>
+  <si>
     <t>ผลิตและจำหน่ายถ่านหินทั้งในประเทศและต่างประเทศ แบ่งเป็น 1. ธุรกิจถ่านหินในประเทศ : นำเข้าถ่านหินจากเหมืองร่วมทุนและจากแหล่งอื่นในประเทศอินโดนีเซียมาจำหน่าย 2. ธุรกิจถ่านหินในต่างประเทศ : เข้าไปร่วมลงทุนทำเหมืองถ่านหินในประเทศอินโดนีเซีย โดยนำเข้าถ่านหินจากเหมืองร่วมทุนมาจำหน่ายให้กับลูกค้าในประเทศและส่งไปจำหน่ายยังประเทศอื่น ในแถบภูมิภาคเอเชีย</t>
   </si>
   <si>
+    <t>ธุรกิจสายควบคุม (Control Cable) สำหรับรถยนต์ และรถจักรยานยนต์ และชุดควบคุมรางกระจกหน้าต่างรถยนต์ (Window Regulator) เพื่อจำหน่ายให้แก่ผู้ผลิตรถยนต์ และรถจักรยานยนต์ชั้นนำ ตลอดจนศูนย์อะไหล่และผู้ค้ารายย่อยต่างๆ ทั้งภายในและต่างประเทศ</t>
+  </si>
+  <si>
+    <t>?บริษัทพลังงานแบบครบวงจร? โดยสร้างการเติบโตครอบคลุม 3 กลุ่มธุรกิจหลัก ได้แก่ กลุ่มธุรกิจแหล่งพลังงาน (ถ่านหินและก๊าซธรรมชาติ รวมถึงงานที่เกี่ยวข้อง อาทิ การตลาด การค้า โลจิสติกส์ และการจัดหาเชื้อเพลิง และสายส่ง) กลุ่มธุรกิจผลิตพลังงาน (โรงไฟฟ้าจากพลังงานเชื้อเพลิงทั่วไป และจากพลังงานหมุนเวียน) และกลุ่มธุรกิจเทคโนโลยีพลังงาน (ระบบผลิตไฟฟ้าจากพลังงานแสงอาทิตย์แบบครบวงจร ระบบจัดเก็บพลังงาน และระบบการจัดการเทคโนโลยีพลังงาน ซึ่งการผสานธุรกิจด้านพลังงานทั้งในรูปแบบดั้งเดิมและรูปแบบใหม่หรือพลังงานหมุนเวียน ไว้ในโครงสร้างขององค์กรอย่างครบถ้วนนี้ ทำให้บ้านปูฯ สามารถผนึกกำลังระหว่างกันในกลุ่มธุรกิจหลักเพื่อบริหารจัดการทรัพยากรได้อย่างมีประสิทธิภาพ สร้างความสมดุลและขยายการเติบโตในกลุ่มธุรกิจพลังงานของบ้านปูฯ ที่ตอบโจทย์ผู้บริโภค ชุมชน สังคม และสิ่งแวดล้อม</t>
+  </si>
+  <si>
+    <t>ดำเนินธุรกิจประกันวินาศภัย แบ่งได้ดังนี้ 1. การประกันภัยรถยนต์ 2. การประกันอัคคีภัย 3. การประกันภัยทางทะเลและขนส่ง 4. การประกันภัยเบ็ดเตล็ด</t>
+  </si>
+  <si>
+    <t>บริษัท โรงพยาบาลจุฬารัตน์ จำกัด (มหาชน) (?บริษัทฯ?) ประกอบกิจการโรงพยาบาลเอกชน เริ่มก่อตั้งในปี 2529 จนถึงปัจจุบัน มีทุนจดทะเบียนรวม 1,100 ล้านบาท ประกอบด้วยบริษัทย่อยจำนวน 11 บริษัท มีสาขาของโรงพยาบาลสถานพยาบาลและคลินิกในกลุ่มรวมทั้งหมด 14 แห่ง ครอบคลุมพื้นที่ให้บริการบริเวณรอบสนามบินสุวรรณภูมิ ตั้งแต่เขตประเวศ เขตลาดกระบัง จังหวัดกรุงเทพมหานครฝั่งตะวันออก และถนนเทพารักษ์ ถนนกิ่งแก้ว อำเภอบางพลี จังหวัดสมุทรปราการครอบคลุมไปถึงจังหวัดในภาคตะวันออกได้แก่บริเวณ ถนนบางนาตราด อำเภอบางปะกง และนิคมอุตสาหกรรมเกตเวย์ซิตี้  จังหวัดฉะเชิงเทรา-พนนสารครม อำเภอเมือง จังหวัดฉะเชิงเทรา ถนน 304  อำเภอศรีมหาโพธิ  จังหวัดปราจีนบุรี  อำเภอเมือง จังหวัดชลบุรี อำเภออรัญประเทศ จังหวัดสระแก้ว และอำเภอเมือง จังหวัดระยอง โดยมีจำนวนเตียงรองรับผู้ป่วยรวม 793 เตียง</t>
+  </si>
+  <si>
+    <t>ผลิตและจําหน่ายผลิตภัณฑ์แป้งมันสําปะหลังและที่เกี่ยวข้อง และอาหารจากแป้ง ประเภทวุ้นเส้น ก๋วยเตี๋ยว และสาคู</t>
+  </si>
+  <si>
+    <t>ธุรกิจหลักของบริษัท ประกอบด้วย ธุรกิจผลิตชิ้นส่วนยานยนต์ ธุรกิจตัวแทนจำหน่ายรถยนต์และศูนย์บริการหลังการขาย  และธุรกิจให้บริการด้านเทคโนโลยี การเชื่อมต่อ และ IoT (Internet of Things)</t>
+  </si>
+  <si>
+    <t>1.	ธุรกิจจัดจำหน่ายน้ำมันเชื้อเพลิงและน้ำมันหล่อลื่น ให้กับลูกค้าทางทะเล ได้แก่ เรือเดินทะเลทั้งในประเทศและต่างประเทศ และลูกค้าทางบก ได้แก่ โรงงานอุตสาหกรรม และกลุ่มธุรกิจต่างๆ เช่น ธุรกิจรถขนส่งทางบก ธุรกิจให้บริการรถโดยสาร เป็นต้น 2.	ธุรกิจให้บริการในการจัดหาอาหาร วัตถุดิบ และให้บริการอื่นๆ ให้แก่เรือเดินทะเล และพนักงานประจำแหล่งขุดเจาะน้ำมันและก๊าซทั้งในทะเลและบนบก (Supply Management)</t>
+  </si>
+  <si>
+    <t>รับจ้างผลิตชิ้นส่วนพลาสติกโดยกระบวนการขึ้นรูปพลาสติกและฉีดพลาสติก โดยมีบริษัทย่อยดำเนินธุรกิจพิมพ์ฉลากสินค้าคุณภาพสูงและธุรกิจผลิตและจำหน่ายสินค้าพลาสติกประเภทของใช้ในครัวเรือน</t>
+  </si>
+  <si>
+    <t>ประกอบธุรกิจเพื่อการลงทุน</t>
+  </si>
+  <si>
+    <t>ประกอบธุรกิจโดยการถือหุ้นในบริษัทอื่น (Holding Company) ที่ประกอบธุรกิจหลักในการให้บริการนายหน้าประกันภัย ดังต่อไปนี้1. กลุ่มธุรกิจนายหน้าประกัน แบ่งเป็นธุรกิจนายหน้าประกันวินาศภัย ได้แก่ บริษัท ทีคิวเอ็ม อินชัวร์รันส์ โบรคเกอร์ จำกัด, บริษัท ที เจ เอ็น อินชัวร์รันส์โบรกเกอร์ จำกัด และบริษัท ทรู เอกซ์ตร้า โบรกเกอร์ จำกัด, ธุรกิจนายหน้าประกันชีวิต ได้แก่ บริษัท ทีคิวเอ็ม ไลฟ์ อินชัวร์รันส์ โบรคเกอร์ จำกัด และบริษัท ทรู ไลฟ์ โบรกเกอร์ จำกัด, ธุรกิจนายหน้าประกันภัยต่อ ได้แก่ บริษัท ที คิว อาร์ จำกัด (มหาชน), บริษัทย่อยที่สนับสนุนธุรกิจหลัก ได้แก่ บริษัท ทีโอ 2020 จำกัด (ลงทุนในต่างประเทศ), บริษัท แคสแมท จำกัด (บริการด้านเทคโนโลยีสารสนเทศและซอฟต์แวร์), บริษัท ทีคิวซี จำกัด (บริหารจัดการสินไหมประกันสุขภาพ/อุบัติเหตุ)2. กลุ่มธุรกิจการเงิน ประกอบด้วย ธุรกิจสินเชื่อส่วนบุคคล ได้แก่ บริษัท อีซี่ เลนดิ้ง จำกัด, ธุรกิจสินเชื่อแบบมีหลักประกัน ได้แก่ บริษัท แคชนาว พลัส จำกัด 3. กลุ่มธุรกิจเทคโนโลยีแพลตฟอร์ม ได้แก่ บริษัท ชัวร์ครับ.คอม จำกัด, บริษัท ทีคิวดี จำกัด และบริษัท บิลค์ วัน กรุ๊ป จำกัด</t>
+  </si>
+  <si>
+    <t>1. กลุ่มธุรกิจพลังงานทดแทนโรงไฟฟ้าพลังงานแสงอาทิตย์ โรงไฟฟ้าพลังงานลม และให้บริการเดินเครื่องและบำรุงรักษาโรงไฟฟ้า2. กลุ่มธุรกิจวิศวกรรม และTurnkey แบบครบวงจรการก่อสร้างโรงไฟฟ้าพลังงานทดแทน สถานีไฟฟ้า ระบบสายส่ง ระบบไฟฟ้าลงดิน เคเบิ้ลใต้น้ำ ระบบไมโครกริด และระบบกักเก็บพลังงาน3. กลุ่มธุรกิจอุปกรณ์ไฟฟ้าแรงสูงผลิต จัดหา และจำหน่ายอุปกรณ์ระบบไฟฟ้า ผลิตภัณฑ์ประหยัดพลังงาน และพลังงานทางเลือก4. กลุ่มธุรกิจ Ecosystem Business Platform &amp; Innovationระบบนิเวศทางธุรกิจและนวัตกรรมที่ส่งเสริมการทำธุรกิจของบริษัทร่วมกับพันธมิตร5. กลุ่มธุรกิจกัญชงและกัญชาแบบครบวงจร</t>
+  </si>
+  <si>
+    <t>เป็นบริษัทโฮลดิ้งที่ประกอบธุรกิจโดยมีรายได้จากการถือหุ้นในบริษัทอื่นเป็นหลัก โดยเน้นการลงทุนในธุรกิจที่สามารถแบ่งเป็น 3 ประเภทธุรกิจหลัก ดังนี้ (1) ธุรกิจการพัฒนาอสังหาริมทรัพย์และการลงทุน (2) ธุรกิจการลงทุนโดยตรง (3) ธุรกิจด้านการเงิน</t>
+  </si>
+  <si>
+    <t>บริษัทหลักทรัพย์</t>
+  </si>
+  <si>
+    <t>บริษัทฯ ประกอบธุรกิจเป็นผู้ให้บริการโทรคมนาคมแบบครบวงจร โดยให้บริการเชื่อมต่อผ่านโครงข่ายใยแก้วนำแสง บริการอินเทอร์เน็ต บริการระบบคลาวด์ บริการศูนย์ข้อมูล และบริหารจัดการโซลูชั่นสารสนเทศ</t>
+  </si>
+  <si>
+    <t>ออกแบบวิจัยและพัฒนาผลิตภัณฑ์ สร้างแม่พิมพ์และอุปกรณ์จับยึดสำหรับการผลิต ผลิตชิ้นส่วนโลหะและพลาสติก และผลิตเบาะรถยนต์ รับจ้างพ่นสี รับจ้างประกอบและดัดแปลงรถยนต์ต่าง ๆ</t>
+  </si>
+  <si>
+    <t>ธุรกิจเกี่ยวกับยางพาราครบวงจร ครอบคลุมตั้งแต่ ธุรกิจปลูกสวนยางพาราในประเทศไทย ผลิตและจำหน่ายวัตถุดิบจากยางพารา ได้แก่ น้ำยางข้น ยางแท่ง ธุรกิจผลิตและจำหน่ายเส้นด้ายยางยืด และที่นอนยางพารา นอกจากนี้บริษัทยังประกอบธุรกิจนายหน้าในตลาดสินค้าเกษตรล่วงหน้าแห่งประเทศไทย</t>
+  </si>
+  <si>
+    <t>กลุ่มบริษัท เนอวานา ไดอิ มีการประกอบธุรกิจหลักแบ่งออกเป็น 3 กลุ่ม ได้แก่ (1) ธุรกิจพัฒนาอสังหาริมทรัพย์ ภายใต้กลุ่มบริษัท ?NIRVANA? พัฒนาอสังหาริมทรัพย์ประเภทบ้านจัดสรรที่ดินเพื่อขาย ประกอบด้วยบ้านเดี่ยว บ้านแฝด โฮมออฟฟิศ ทาวน์เฮ้าส์ คอนโดมิเนียม โดยจะเน้นเรื่องทำเลที่มีศักยภาพในการพัฒนา สามารถเดินทางได้อย่างสะดวก เหมาะกับการอยู่อาศัย ได้แก่ บ้านเดี่ยว 3 ชั้นในเมือง ภายใต้แบรนด์ ?BEYOND?  บ้านเดี่ยว 2 ชั้น ภายใต้แบรนด์ ?ICON? โฮมออฟฟิศ ภายในใต้แบรนด์ ?@WORK? ทาวน์เฮ้าส์ ภายใต้แบรนด์ ?DEFINE? และคอนโดมิเนียม ภายใต้แบรนด์ ?BANYANTREE RESIDENCE RIVERSIDE BANGKOK? 2) ธุรกิจรับเหมาก่อสร้าง และ 3) ธุรกิจขายสินค้าวัสดุก่อสร้าง ได้แก่ รั้วสำเร็จรูป และตัวแทนจำหน่ายผลิตภัณฑ์ประตูหน้าต่างอลูมิเนียมสำเร็จรูป จากโรงงานผู้ผลิตสัญชาติญี่ปุ่น</t>
+  </si>
+  <si>
+    <t>ประกอบด้วยกิจการที่ ปตท. ดำเนินการเอง ได้แก่ ธุรกิจก๊าซธรรมชาติ ธุรกิจระบบท่อส่งก๊าซธรรมชาติ ธุรกิจการค้าระหว่างประเทศธุรกิจใหม่และโครงสร้างพื้นฐาน และธุรกิจที่ลงทุนผ่านบริษัทย่อยและ/หรือกิจการที่ควบคุมร่วมกันและบริษัทร่วม (กลุ่มบริษัท) ได้แก่ ธุรกิจสำรวจและผลิตปิโตรเลียม ธุรกิจก๊าซธรรมชาติเหลว ธุรกิจปิโตรเคมีและการกลั่น ธุรกิจน้ำมันและค้าปลีก ธุรกิจไฟฟ้าและสาธารณูปการ ธุรกิจถ่านหิน ธุรกิจให้บริการ</t>
+  </si>
+  <si>
+    <t>ประกอบธุรกิจผลิตและจำหน่ายสินค้าเคมีภัณฑ์ประเภทปูนขาว แคลเซียมคาร์บอเนต และจำหน่ายสินค้า/บริการอื่น รวมทั้งให้บริการจำหน่าย และติดตั้งเครื่องจักรและอุปกรณ์การผลิตปูนขาว</t>
+  </si>
+  <si>
+    <t>บริษัทประกอบธุรกิจหลัก 3 กลุ่ม ดังนี้ 1)ธุรกิจสื่อและคอนเทนต์ 2)ธุรกิจการจัดงานนิทรรศการ งานแสดงสินค้า และกิจกรรมทางการตลาดครบวงจร 3)ธุรกิจบริการการตลาดดิจิทัล</t>
+  </si>
+  <si>
+    <t>พัฒนาอสังหาริมทรัพย์เพื่อการค้า ได้แก่ จัดสรรที่ดินและปลูกบ้านสำเร็จรูปและคอนโดมิเนียม งานก่อสร้าง การบริการและเช่าภายในสโมสรหมู่บ้าน เป็นต้น</t>
+  </si>
+  <si>
+    <t>ประกอบธุรกิจให้บริการสินเชื่อเช่าซื้อรถยนต์ สินเชื่อที่มีทะเบียนรถยนต์เป็นประกัน</t>
+  </si>
+  <si>
+    <t>ประกอบธุรกิจด้านการลงทุนโดยการถือหุ้นในบริษัทต่างๆ ทั้งในประเทศและต่างประเทศ ในผลิตภัณฑ์ปิโตรเคมีแบบครบวงจร ซึ่งผลิตและจำหน่าย Ethylene Oxide และ Ethylene Glycol (?EO&amp;EG?) Purified Terephthalic Acid (?PTA?) Polyethylene Terephthalate (?PET?) เส้นใยและเส้นด้าย โพลีเอสเตอร์ (Polyester Fiber and Yarn) และเส้นใยจากขนสัตว์ (Wool)</t>
+  </si>
+  <si>
     <t>ผลิตและจำหน่ายน้ำตาลทราย และธุรกิจที่เกี่ยวกับผลิตภัณฑ์พลอยได้ที่ได้จากการผลิตน้ำตาลทราย ได้แก่ การขายกากน้ำตาล การขายไฟฟ้า</t>
   </si>
   <si>
+    <t>ผู้ให้บริการ จัดหา แปรรูป และจำหน่ายสเตนเลสรีดเย็นชนิดม้วนและแผ่น ผลิตและจำหน่ายท่อสเตนเลส ได้แก่ ท่อสเตนเลสสำหรับงานตกแต่ง ท่อสเตนเลสสำหรับอุตสาหกรรมยานยนต์ แปรรูปและจำหน่ายเหล็กชุบสังกะสี และเหล็กเคลือบสังกะสีชนิดม้วนและแผ่น ให้บริการด้านการตัด เจาะ และขัดผิวสเตนเลส ตามความต้องการของลูกค้า</t>
+  </si>
+  <si>
+    <t>ผลิตและส่งออกชิ้นส่วนและส่วนประกอบเครื่องใช้ไฟฟ้าอิเล็กทรอนิกส์ และชิ้นส่วนยานยนต์</t>
+  </si>
+  <si>
+    <t>ธุรกิจพัฒนาอสังหาริมทรัพย์ แบ่งเป็น 1. ธุรกิจเพื่อขาย โดยพัฒนาโครงการที่อยู่อาศัยแนวราบและแนวสูง 2. ธุรกิจเพื่อให้เช่าอาคารสำนักงาน และอาคารพาณิชย์ ซึ่งเป็นโครงการที่ขายสิทธิการเช่า และธุรกิจบริการอสังหาริมทรัพย์ โดยแบ่งเป็นธุรกิจบริหารงานขายโครงการ ธุรกิจนายหน้า และบริการด้านการบริหารและจัดการโครงการอสังหาริมทรัพย์</t>
+  </si>
+  <si>
+    <t>บริษัทและบริษัทย่อยผลิตชิ้นส่วนอุปกรณ์สำหรับเครื่องปรับอากาศที่ใช้สำหรับยานพาหนะ และเครื่องทำความเย็น รับจ้างผลิตและประกอบเครื่องปรับอากาศสำหรับที่อยู่อาศัย ทำความเย็น ซ่อมและผลิตแม่พิมพ์</t>
+  </si>
+  <si>
+    <t>ผลิตและจำหน่ายยางนอกและยางในสำหรับรถจักรยาน รถจักรยานยนต์ และรถขนส่งขนาดเล็ก</t>
+  </si>
+  <si>
+    <t>นำเข้า ผลิต และจัดจำหน่าย วัตถุดิบ สารปรุงแต่ง และวัตถุเจือปนในอาหารคนและอาหารสัตว์</t>
+  </si>
+  <si>
+    <t>ถือหุ้นในบริษัทอื่น (Holding Company)</t>
+  </si>
+  <si>
     <t>ดําเนินธุรกิจนำเข้าและจัดจำหน่ายสินค้าอุตสาหกรรม วัตถุดิบ เครื่องจักรและอุปกรณ์สำหรับโรงงานอุตสาหกรรม</t>
   </si>
   <si>
-    <t>บริษัทประกอบกิจการสถานพยาบาลประเภทที่รับผู้ป่วยไว้ค้างคืน ในลักษณะโรงพยาบาลทั่วไป (General Hospital) ภายใต้ชื่อ "โรงพยาบาลเอกชัย"</t>
-  </si>
-  <si>
-    <t>ตัวแทนจำหน่ายเครื่องมือแพทย์และอุปกรณ์ทางการแพทย์ โดยนำเข้าจากผู้ผลิตต่างประเทศ เพื่อจัดจำหน่ายให้แก่สถานพยาบาลในประเทศและบุคคลทั่วไป</t>
-  </si>
-  <si>
-    <t>ออกแบบวิจัยและพัฒนาผลิตภัณฑ์ สร้างแม่พิมพ์และอุปกรณ์จับยึดสำหรับการผลิต ผลิตชิ้นส่วนโลหะและพลาสติก และผลิตเบาะรถยนต์ รับจ้างพ่นสี รับจ้างประกอบและดัดแปลงรถยนต์ต่าง ๆ</t>
-  </si>
-  <si>
-    <t>ธุรกิจผลิตและจัดจำหน่ายยางธรรมชาติแบบครบวงจร (Full Supply Chain) ในหลากหลายประเทศ เริ่มตั้งแต่ธุรกิจต้นน้ำการทำสวนยางพาราในประเทศไทย ธุรกิจกลางน้ำการผลิตและจัดจำหน่ายผลิตภัณฑ์ยางธรรมชาติ ทั้งยางแท่ง (TSR) ยางแผ่นรมควัน (RSS) และน้ำยางข้น (Concentrated Latex) รวมถึงธุรกิจปลายน้ำในการผลิตและจัดจำหน่ายถุงมือยาง และสินค้าสำเร็จรูป อาทิ ท่อไฮดรอลิกแรงดันสูง</t>
-  </si>
-  <si>
-    <t>ออกแบบ ประกอบ ติดตั้ง และขึ้นรูปผลิตภัณฑ์โลหะตามสัญญาที่ทำกับลูกค้า เช่น ภาชนะทนแรงดัน, ชิ้นส่วนเครื่องจักรกล, ถังที่ไม่ใช้แรงดัน, โครงสร้างเหล็ก และ การติดตั้งเครื่องจักรและอุปกรณ์</t>
-  </si>
-  <si>
-    <t>กลุ่มโรงพยาบาลวิชัยเวชฯ ประกอบธุรกิจโรงพยาบาลทั่วไป (General Hospital) ระดับทุติยภูมิ (Secondary) และมีโรงพยาบาลในกลุ่ม 4 โรงพยาบาล ได้แก่ 1) โรงพยาบาลวิชัยเวช อินเตอร์เนชั่นแนล อ้อมน้อย 2) โรงพยาบาลวิชัยเวช อินเตอร์เนชั่นแนล หนองแขม 3) โรงพยาบาลวิชัยเวช อินเตอร์เนชั่นแนล สมุทรสาคร และ 4) โรงพยาบาลวิชัยเวช แยกไฟฉาย นอกจากนี้ บริษัทฯ ยังมีบริษัทย่อยอีกแห่งหนึ่งคือ บริษัท โรงเรียนศรีวิชัยอาชีวศึกษา จำกัด ซึ่งดำเนินธุรกิจภายใต้ชื่อ โรงเรียนศรีวิชัยอาชีวศึกษา เพื่อผลิตผู้ดูแลผู้สูงอายุและเด็กเล็ก กลุ่มลูกค้าหลักของกลุ่มโรงพยาบาลวิชัยเวชฯ ประกอบด้วย 2 กลุ่มหลัก คือ (1) กลุ่มลูกค้าทั่วไป (Non-Capitation) ได้แก่ ลูกค้าบุคคลทั่วไป ลูกค้าประกันชีวิต ลูกค้าประเภทคู่สัญญา ลูกค้าผู้ประสบภัยจากรถ ลูกค้าโครงการกองทุนเงินทดแทน (2) กลุ่มลูกค้าโครงการภาครัฐ (Capitation) ได้แก่ ลูกค้าโครงการกองทุนประกันสังคม</t>
-  </si>
-  <si>
-    <t>บริษัทประกอบธุรกิจหลักเกี่ยวกับการผลิตไก่และจำหน่ายไก่สด แช่เย็นและแช่แข็งและผลิตภัณฑ์แปรรูปจากไก่ ผลิตและจำหน่ายสุกร และผลิตและจำหน่ายอาหารสัตว์</t>
-  </si>
-  <si>
-    <t>?บริษัทพลังงานแบบครบวงจร? โดยสร้างการเติบโตครอบคลุม 3 กลุ่มธุรกิจหลัก ได้แก่ กลุ่มธุรกิจแหล่งพลังงาน (ถ่านหินและก๊าซธรรมชาติ รวมถึงงานที่เกี่ยวข้อง อาทิ การตลาด การค้า โลจิสติกส์ และการจัดหาเชื้อเพลิง และสายส่ง) กลุ่มธุรกิจผลิตพลังงาน (โรงไฟฟ้าจากพลังงานเชื้อเพลิงทั่วไป และจากพลังงานหมุนเวียน) และกลุ่มธุรกิจเทคโนโลยีพลังงาน (ระบบผลิตไฟฟ้าจากพลังงานแสงอาทิตย์แบบครบวงจร ระบบจัดเก็บพลังงาน และระบบการจัดการเทคโนโลยีพลังงาน ซึ่งการผสานธุรกิจด้านพลังงานทั้งในรูปแบบดั้งเดิมและรูปแบบใหม่หรือพลังงานหมุนเวียน ไว้ในโครงสร้างขององค์กรอย่างครบถ้วนนี้ ทำให้บ้านปูฯ สามารถผนึกกำลังระหว่างกันในกลุ่มธุรกิจหลักเพื่อบริหารจัดการทรัพยากรได้อย่างมีประสิทธิภาพ สร้างความสมดุลและขยายการเติบโตในกลุ่มธุรกิจพลังงานของบ้านปูฯ ที่ตอบโจทย์ผู้บริโภค ชุมชน สังคม และสิ่งแวดล้อม</t>
-  </si>
-  <si>
-    <t>ดำเนินธุรกิจวิศวกรรมด้านการรับจ้างผลิต และการติดตั้งอุปกรณ์ต่างๆ ที่ใช้ในกระบวนการผลิตในโรงงานอุตสาหกรรมตามแบบและขนาดที่ลูกค้ากำหนด โดยบริษัทสามารถผลิตสินค้าและบริการรองรับการใช้งานของลูกค้าได้ในหลากหลายอุตสาหกรรม เช่น พลังงาน โรงกลั่นน้ำมัน โรงฟ้า ก๊าซธรรมชาติ ปิโตรเคมี และเหมืองแร่ เป็นต้น โดยแบ่งลักษณะผลิตภัณฑ์ได้เป็น 4 ประเภท ได้แก่ งานแปรรูปผลิตภัณฑ์เหล็ก (Fabrication), งานแปรรูปและประกอบกลุ่มชิ้นงานขนาดใหญ่ (Modularization), งานติดตั้งนอกสถานที่ (Site Erection) และงานหล่อชิ้นส่วนคอนกรีตสำเร็จรูป (Precast Concrete)</t>
-  </si>
-  <si>
-    <t>ผลิตและจำหน่ายน้ำแร่ธรรมชาติพร้อมดื่ม ภายใต้เครื่องหมายการค้าหลัก ออรา</t>
-  </si>
-  <si>
-    <t>ให้บริการสินเชื่อทะเบียนรถและสินเชื่อส่วนบุคคล</t>
-  </si>
-  <si>
-    <t>บริษัทได้ประกอบธุรกิจหลัก 3 กลุ่มธุรกิจคือ 1.กลุ่มผลิตภัณฑ์หนัง ผลิตและจำหน่ายผลิตภัณฑ์ 4 ประเภท ได้แก่ 1) ผลิตภัณฑ์หนังสัตว์ฟอก 2) ผลิตภัณฑ์ของเล่นสัตว์เลี้ยง 3) ผลิตภัณฑ์เฟอร์นิเจอร์หนัง 4) ผลิตภัณฑ์เบาะหนังและชิ้นส่วนหนังสำหรับรถยนต์ เช่น Toyota Honda Nissan Isuzu Mazda Mitsubishi และ Chevrolet 2กลุ่มพลังงาน โดยบริษัทได้ลงทุนซื้อหุ้นในบริษัท ชัยวัฒนา กรีน จำกัด ในสัดส่วน 100% โดยมีเป้าหมายเพื่อประกอบธุรกิจลงทุน (ถือหุ้น) บริษัท ในกลุ่มพลังงานทดแทน 3.กลุ่มออกแบบและจัดจำหน่ายยานพาหนะ ซึ่งประกอบกิจการออกแบบและจัดจำหน่ายเรือ และรถโดยสารขนาด เล็กที่ผลิตด้วยอลูมิเนียม</t>
-  </si>
-  <si>
-    <t>ดำเนินธุรกิจในฐานะเป็นผู้ผลิตและจำหน่ายผลิตภัณฑ์น้ำมันปาล์มประเภทต่างๆ อาทิ น้ำมันปาล์มดิบ น้ำมันเมล็ดในปาล์ม น้ำมันปาล์มบริสุทธิ์ น้ำมันเมล็ดในปาล์มบริสุทธิ์ น้ำมันปาล์มโอเลอิน เพื่อการนำไปใช้ในอุตสาหกรรมต่อเนื่องต่างๆ มากมาย และ น้ำมันปาล์มโอเลอินผ่านกรรมวิธีบรรจุขวด ปี๊บ และถุง ตรา "ลีลา" ที่ได้คุณภาพและมาตรฐานสากล สำหรับใช้ในตลาดผู้บริโภคทั่วไป รวมทั้งยังมีผลิตภัณฑ์ผลพลอยได้อื่นๆ อาทิ ไขปาล์มบริสุทธิ์ กรดไขมันปาล์ม และกากเมล็ดในปาล์ม สำหรับใช้ในอุตสาหกรรมอาหารสัตว์อีกด้วย</t>
+    <t>บริษัท อมตะ วีเอ็น จำกัด (มหาชน) ประกอบธุรกิจการลงทุนในบริษัทอื่น (Holding Company) โดยถือหุ้นใน Amata City Bien Hoa Joint Stock Company (บริษัทแกน) ร้อยละ 89.99  ซึ่งประกอบธุรกิจพัฒนานิคมอุตสาหกรรม Amata City Bien Hoa ประเทศเวียดนาม โดยมีรายได้จาก 1) การขายที่ดินในเขตนิคมอุตสาหกรรม เขตพาณิชยกรรมและที่อยู่อาศัย 2) การให้บริการเช่าโรงงานสำเร็จรูป อาคารสำนักงาน 3) การบริการสาธารณูปโภค</t>
+  </si>
+  <si>
+    <t>พัฒนาอสังหาริมทรัพย์ประเภทบ้านจัดสรรเพื่อจำหน่าย ในกรุงเทพมหานคร ภูเก็ตและสมุทรปราการ</t>
+  </si>
+  <si>
+    <t>บริษัทดำเนินธุรกิจลงทุนในบริษัทอื่น (Holding Company) โดยลงทุนในบริษัทย่อยที่ถือหุ้นร้อยละ 99.99 ซึ่งดำเนินธุรกิจจำนวน 6 บริษัท โดยมีธุรกิจหลักเป็นธุรกิจผลิตและจำหน่ายน้ำตาลทราย และอุตสาหกรรมต่อเนื่อง ได้แก่ 1) ธุรกิจผลิตและจำหน่ายน้ำตาลทราย โดยมีบริษัท โรงงานน้ำตาลบุรีรัมย์ จำกัด เป็นบริษัทแกน 2) ธุรกิจผลิตและจำหน่ายไฟฟ้าจากพลังงานชีวมวล โดยบริษัท บุรีรัมย์พลังงาน จำกัด, บริษัท บุรีรัมย์เพาเวอร์ จำกัด และ บริษัท บุรีรัมย์เพาเวอร์พลัส จำกัด 3) ธุรกิจผลิตและจำหน่ายปุ๋ยอินทรีย์ โดยบริษัท ปุ๋ยตรากุญแจ จำกัด 4) ธุรกิจผลิตบรรจุภัณฑ์ เครื่องใช้ และอุปกรณ์ต่าง ๆ จากชานอ้อย และเยื่อพืชธรรมชาติชนิดอื่น โดย บริษัท ชูการ์เคน อีโคแวร์ จำกัด เเละ 5)ธุรกิจการบริหารจัดการโลจิสติกส์และบริการขนส่ง โดยบริษัท บีอาร์อาร์ โลจิสติกส์ แมเนจเมนท์ จำกัด</t>
+  </si>
+  <si>
+    <t>ให้บริการโลจิสติกส์อย่างครบวงจร ที่ครอบคลุมการให้บริการด้านการขนส่งสินค้าทั้งภายในประเทศและระหว่างประเทศ ทางอากาศ ทางทะเลและทางบก การให้บริการด้านพิธีการศุลกากร และการบริหารจัดการห่วงโซ่อุปทานตั้งแต่ต้นน้ำถึงปลายน้ำ (Supply Chain Management) ซึ่งครอบคลุมการให้บริการทั้งกลุ่มสินค้าทั่วไปและสินค้าที่ต้องการความชำนาญเฉพาะด้าน เช่น การให้บริการโลจิสติกส์สำหรับกลุ่มสินค้าเคมีและสินค้าอันตราย เป็นต้น</t>
+  </si>
+  <si>
+    <t>ผู้ผลิตและส่งออกกุ้งแช่แข็ง</t>
+  </si>
+  <si>
+    <t>พัฒนา ออกแบบ ผลิต ประกอบวงจรอิเล็กทรอนิกส์ (PCBA)  และผลิตภัณฑ์อิเล็กทรอนิกส์สำเร็จรูป รวมทั้งให้บริการจัดหาวัตถุดิบและจัดส่ง โดยให้บริการกับลูกค้าที่ผลิตผลิตภัณฑ์หลากหลายประเภท เช่น อุตสาหกรรมการแพทย์ สินค้าอุตสาหกรรมและพาณิชยกรรม อุปกรณ์เครือข่ายการสื่อสารไร้สายต่างๆ  อุตสาหกรรมยานยนต์ อุตสาหกรรมโทรคมนาคม และ สินค้าอุปโภคและบริโภค</t>
+  </si>
+  <si>
+    <t>บริษัทประกอบธุรกิจการถือหุ้นในบริษัทอื่น (Holding Company) ของกลุ่มธุรกิจทางการเงินทิสโก้ โดยมีธนาคารทิสโก้เป็นหลัก ซึ่งได้รับอนุมัติให้เป็นธนาคารพาณิชย์เต็มรูปแบบ ปัจจุบันให้บริการทางด้านการเงินอันประกอบด้วย บริการสินเชื่อลูกค้ารายย่อยและสินเชื่อธุรกิจขนาดกลางและขนาดย่อม บริการสินเชื่อพาณิชย์ธนกิจ บริการเงินฝากรายย่อย บริการลูกค้าธนบดีธนกิจ บริการตัวแทนขายประกันผ่านธนาคาร บริการจัดการการเงิน และบริการคัสโตเดียน</t>
+  </si>
+  <si>
+    <t>ผลิตและจำหน่ายผลิตภัณฑ์พลาสติกบรรจุภัณฑ์ในลักษณะผลิตตามคำสั่ง (Made to Order) ของลูกค้าเพื่อการส่งออกไปจำหน่ายในต่างประเทศ</t>
+  </si>
+  <si>
+    <t>บริษัทประกอบธุรกิจผลิตและจำหน่ายขนมขบเคี้ยวประเภทสาหร่ายทั้งในและต่างประเทศภายใต้ตราสินค้า "เถ้าแก่น้อย"  รวมถึงขนมขบเคี้ยวและผลิตภัณฑ์อาหารเพื่อสุขภาพ</t>
+  </si>
+  <si>
+    <t>ธุรกิจจัดหาและจำหน่ายสินค้าอุตสาหกรรมและให้บริการต่างๆ ที่เกี่ยวข้องแก่โรงงานอุตสาหกรรมซึ่งแบ่งเป็น 5 กลุ่มผลิตภัณฑ์ได้แก่ กลุ่มผลิตภัณฑ์และเทคโนโลยีระบบปั๊ม (Pumping System Technology Division) กลุ่มผลิตภัณฑ์การจัดการ กระบวนการผลิตและระบบท่อ (Process and Piping Solution Division) กลุ่มผลิตภัณฑ์วัสดุนวัตกรรม (Innovative Material Division) กลุ่มผลิตภัณฑ์ธุรกิจงานบริการ (Service Business) และกลุ่มผลิตภัณฑ์อุปกรณ์การแพทย์และเภสัชภัณฑ์ (Medical supplies)</t>
+  </si>
+  <si>
+    <t>บริษัทเป็นผู้ประกอบการอุตสาหกรรมบรรจุภัณฑ์พลาสติกและบรรจุภัณฑ์ประเภทอื่นๆ ประกอบด้วย 1) กลุ่มสินค้าที่ใช้แล้วหมดไป ได้แก่ ถุงพลาสติกประเภทต่างๆ เช่น ถุงพลาสติกหูหิ้ว ถุงพลาสติกประเภทใช้ซ้ำ ถุงพลาสติกสำหรับบรรจุอาหารและถุงขยะ 2) กลุ่มบรรจุภัณฑ์ชนิดอ่อน ได้แก่ บรรจุภัณฑ์พลาสติกชนิดอ่อนสำหรับสินค้าบริโภคและอุปโภค (Flexible Packaging) และฟิล์มประเภทต่างๆ เช่น ฟิล์มลามิเนต ฟิล์มแบริเออร์ ฟิล์มหุ้ม และฟิล์มหด เป็นต้น 3) กลุ่มบรรจุภัณฑ์กระดาษ ได้แก่ แก้วกระดาษ ถ้วยกระดาษทั้งแบบเคลือบพลาสติกหรือเคลือบด้วยพลาสติกชีวภาพ (สามารถย่อยสลายได้ตามธรรมชาติ)  และถุงกระดาษ 4) กลุ่มธุรกิจซื้อมาขายไป ได้แก่ ถุงปอสาน ถุงพลาสติกสาน เป็นต้น</t>
+  </si>
+  <si>
+    <t>บริษัทดำเนินธุรกิจให้บริการรับเหมาติดตั้งงานระบบไฟฟ้า ระบบสื่อสาร ระบบสุขาภิบาลและระบบป้องกันอัคคีภัย และระบบปรับอากาศ โดยเริ่มตั้งแต่จัดหาวัสดุอุปกรณ์ ให้คำปรึกษา ออกแบบ วางระบบ และติดตั้งอุปกรณ์ภายในอาคาร</t>
+  </si>
+  <si>
+    <t>ดำเนินธุรกิจ 3 สาย ดังนี้  1. สายธุรกิจโครงสร้างเครือข่ายการสื่อสารโทรคมนาคม 2. สายธุรกิจเทคโนโลยีประยุกต์ด้าน ICT และ 3. สายธุรกิจแอปพลิเคชันสนับสนุนด้านการประกอบธุรกิจ</t>
+  </si>
+  <si>
+    <t>ผลิตและจำหน่ายคาร์บอนแบล็คทั้งในประเทศและต่างประเทศ ซึ่งเป็นวัตถุดิบสำคัญที่ใช้ในอุตสาหกรรมต่างๆ หลายชนิด เช่น สี หมึกพิมพ์ แบตเตอร์รี่ ตัวนำไฟฟ้า และผลิตภัณฑ์ยางต่างๆ</t>
+  </si>
+  <si>
+    <t>3 ธุรกิจ คือ  1) ธุรกิจโรงพิมพ์และบรรจุภัณฑ์  2) ธุรกิจมีเดีย แอนด์ อีเว้นต์    3) ธุรกิจสำนักพิมพ์</t>
+  </si>
+  <si>
+    <t>บริษัทประกอบธุรกิจผลิตและจำหน่ายชิ้นส่วนยานยนต์ มีบริษัทย่อยที่บริษัทถือหุ้นในสัดส่วนร้อยละ 100 จำนวน 5 บริษัท บริษัทในประเทศเยอรมนีและฮังการี</t>
+  </si>
+  <si>
+    <t>เป็นผู้ดำเนินการโรงพยาบาลเอกชน  มีห้องตรวจโรคให้บริการรักษาโรคทั่วไป โดยคณะแพทย์ผู้เชี่ยวชาญเฉพาะโรคทุกสาขาพร้อมอุปกรณ์การรักษาและวินิจฉัยโรค</t>
+  </si>
+  <si>
+    <t>ประกอบธุรกิจด้านการลงทุนโดยการถือหุ้นและเข้าไปบริหารงานในบริษัทต่างๆ (Holding Company)</t>
+  </si>
+  <si>
+    <t>กลุ่มบริษัททาคูนิ  ดำเนินธุรกิจค้าก๊าซปิโตรเลียมเหลว (Liquid Petroleum Gas:  LPG) และธุรกิจที่เกี่ยวเนื่องกับก๊าซปิโตรเลียมเหลว โดยแบ่งกลุ่มธุรกิจเป็น 7 กลุ่ม คือ  คือ   1. ธุรกิจจัดหา/จำหน่ายแก๊ส LPG บริษัทฯ เป็นผู้ค้าน้ำมันเชื้อเพลิงที่ได้รับอนุญาตตามมาตรา 7   2.ธุรกิจขนส่งทางบก  เป็นผู้ให้บริการขนส่งแก๊สLPG และแอมโมเนีย   3. ธุรกิจ ให้บริการก่อสร้างแก๊สและน้ำมัน ในลักษณะ Engineering Procurement Construction (EPC)4. ธุรกิจติดตั้งระบบแก๊สรถยนต์ เป็นผู้จำหน่ายอุปกรณ์ที่เกี่ยวข้องกับระบบก๊าซ และให้บริการติดตั้งระบบก๊าซ LPG และ NGV สำหรับยานยนต์  5. ธุรกิจบริการทดสอบและตรวจสอบด้านความปลอดภัยทางวิศวกรรม สำหรับระบบงานท่อก๊าซและอุปกรณ์นิรภัยสำหรับอุตสาหกรรมและสถานีบริการและตรวจสอบระบบก๊าซสำหรับยานยนต์ตามที่กฎหมายกำหนด  6. ธุรกิจพัฒนาอสังหาริมทรัพย์   7. ธุรกิจประกอบ และจัดจำหน่ายมอเตอร์ไซค์ไฟฟ้า</t>
+  </si>
+  <si>
+    <t>บริษัท ริช สปอร์ต จำกัด (มหาชน) เป็นผู้นำในการประกอบธุรกิจนำเข้า และจัดจำหน่ายสินค้าประเภทแฟชั่น และไลฟ์สไตล์ ภายใต้ตราสินค้าชั้นนำจากต่างประเทศ ทั้งในประเทศไทย และประเทศกัมพูชา</t>
+  </si>
+  <si>
+    <t>ปัจจุบัน บริษัทมีสถานะเป็นโฮลดิ้ง คอมพานี หรือประกอบธุรกิจลงทุนในธุรกิจอื่น โดยมีธุรกิจหลักของบริษัทแกนคือ จำหน่ายทั้งค้าปลีกและค้าส่งโทรศัพท์เคลื่อนที่ และสินค้าที่เกี่ยวข้องกับโทรศัพท์เคลื่อนที่ของผู้ผลิตโทรศัพท์เคลื่อนที่หลักทุกรายและผู้ให้บริการเครือข่าย และอุปกรณ์ที่เกี่ยวข้อง</t>
+  </si>
+  <si>
+    <t>ผลิตและจำหน่ายบรรจุภัณฑ์และการพิมพ์ประเภทกล่องกระดาษพิมพ์ออฟเซ็ท (Offset Printing) ตามแบบที่ลูกค้ากำหนด กล่องบรรจุสินค้าจำแนกได้เป็น 5 ประเภทใหญ่ คือ ของเด็กเล่น สินค้าอุปโภค เครื่องใช้ไฟฟ้า อุปกรณ์ในบ้านและครัวเรือน และอาหาร</t>
+  </si>
+  <si>
+    <t>ดำเนินธุรกิจหลักโดยการถือหุ้นในบริษัทอื่น (Holding Company) ที่ประกอบธุรกิจที่ผลิตและจำหน่ายไฟฟ้า โดยมีบริษัท ไฟฟ้าน้ำงึม 2 จำกัด ซึ่งประกอบธุรกิจโรงไฟฟ้าพลังน้ำเป็นบริษัทแกน</t>
   </si>
   <si>
     <t>โรงพยาบาลเอกชนแห่งแรกใน จ.ชลบุรี ให้บริการสุขภาพทั้ง 4 ด้านครบวงจร ได้แก่ บริการตรวจรักษาโรค ฟื้นฟูสมรรถภาพ ป้องกันโรค และส่งเสริมสุขภาพ</t>
   </si>
   <si>
-    <t>บริษัทหลักทรัพย์</t>
-  </si>
-  <si>
-    <t>ผู้ผลิตและจัดจำหน่ายเครื่องใช้บนโต๊ะอาหารเซรามิคระดับสากล</t>
-  </si>
-  <si>
-    <t>บริษัทประกอบธุรกิจโดยการถือหุ้นในบริษัทอื่น (Holding Company) โดยกลุ่มธุรกิจผลิตชิ้นส่วนยานยนต์และเครื่องจักรกลการเกษตรเป็นธุรกิจหลัก</t>
-  </si>
-  <si>
-    <t>บริษัทและบริษัทย่อยดำเนินธุรกิจดังนีิ้ 1. ธุรกิจให้บริการและจำหน่ายลิขสิทธิ์คอนเทนต์ในประเทศ 2. ธุรกิจให้บริการและจำหน่ายลิขสิทธิ์คอนเทนต์ไปยังต่างประเทศ 3. ธุรกิจให้บริการเวลาเพื่อโฆษณาและประชาสัมพันธ์สินค้า 4. ธุรกิจจำหน่ายผลิตภัณฑ์ 5. ธุรกิจการบริหารจัดการลิขสิทธิ์นางงามจักรวาล</t>
-  </si>
-  <si>
-    <t>พัฒนาอสังหาริมทรัพย์เพื่อการค้า ได้แก่ จัดสรรที่ดินและปลูกบ้านสำเร็จรูปและคอนโดมิเนียม งานก่อสร้าง การบริการและเช่าภายในสโมสรหมู่บ้าน เป็นต้น</t>
-  </si>
-  <si>
-    <t>ธุรกิจเดินเรือโดยเป็นเจ้าของเรือเอนกประสงค์ขนาดเล็กสำหรับขนส่งสินค้าแห้งเทกองแบบไม่ประจำเส้นทาง มีเส้นทางเดินเรือครอบคลุมทั่วโลกในภูมิภาคสำคัญ ประกอบด้วย สหรัฐอเมริกา แคนาดา ยุโรป ละตินอเมริกา-แอฟริกา อินเดียอนุทวีป-ตะวันออกกลาง และเอเชียตะวันออกเฉียงใต้และตะวันออกไกล  และสินค้าพื้นฐานที่กองเรือขนส่งคือ สินค้าทางการเกษตร เหล็ก ปุ๋ย สินแร่และเนื้อแร่ ไม้ซุง ถ่านหินและอื่นๆ</t>
+    <t>ธุรกิจธนาคารพาณิชย์เต็มรูปแบบ มีสาขาอยู่ทั่วภูมิภาคในประเทศไทย และเป็นส่วนหนึ่งของกลุ่มซีไอเอ็มบี สถาบันการเงินที่มีชื่อเสียงของประเทศมาเลเซีย</t>
+  </si>
+  <si>
+    <t>ITEL ประกอบธุรกิจ1.ให้บริการเช่าโครงข่ายใยแก้วนำแสง2.ให้บริการออกแบบ ก่อสร้าง และรับเหมางานโครงการสายใยแก้วนำแสงและโครงการสื่อสัญญาณโทรคมนาคม 3.ให้บริการเช่าพื้นที่ดาต้าเซ็นเตอร์</t>
+  </si>
+  <si>
+    <t>ผลิตชิ้นส่วนพลาสติกสำหรับเครื่องใช้ไฟฟ้าและอิเลคทรอนิคส์ โดยมีบริษัทย่อย ทาพาโก้ โมลด์ จำกัด ผลิตแม่พิมพ์ฉีดพลาสติก ซึ่งเป็นธุรกิจที่เกี่ยวเนื่องกัน นอกจากนี้ ได้มีการขยายการลงทุนไปในธุรกิจก่อสร้างและอสังหาริมทรัพย์ในประเทศสวีเดน นอกจากนี้ ยังได้ขยายธุรกิจไปยังธุรกิจค้าปลีกเครื่องสำอางและลงทุนในบริษัทอื่นผ่านบริษัทย่อยอีกด้วย</t>
+  </si>
+  <si>
+    <t>บริษัทดำเนินธุรกิจด้านการลงทุนในธุรกิจที่มีศักยภาพในการเติบโตสูง  โดยธุรกิจหลักในปัจจุบันประกอบด้วย ธุรกิจนายหน้าซื้อขายหลักทรัพย์ ธุรกิจการลงทุน ธุรกิจวาณิชธนกิจ ธุรกิจบริหารสินทรัพย์ และธุรกิจกิจการร่วมลงทุน</t>
+  </si>
+  <si>
+    <t>จัดจำหน่าย ออกแบบ และผลิตสินค้าประเภทเสื้อผ้าสำเร็จรูปสำหรับสตรีและบุรุษภายใต้แบรนด์สินค้ามากมาย เช่น GUY LAROCHE, C&amp;D, LOF.FI.CIEL, JOUSSE, GSP, UNIFORM SPECIALIZER, STEPHANIE, ADOLFO DOMINGUEZ,</t>
+  </si>
+  <si>
+    <t>ธุรกิจการลงทุน (Holding company) ในบริษัทที่ผลิตและจำหน่ายสินค้าเหล็กเส้น เหล็กลวด และเหล็กรูปพรรณขนาดเล็ก ซึ่งใช้ในอุตสาหกรรมก่อสร้าง</t>
+  </si>
+  <si>
+    <t>พัฒนาอสังหาริมทรัพย์โดยเน้นการพัฒนาโครงการที่อยู่อาศัยแนวราบและแนวสูง พร้อมทั้งการให้บริการบำรุงรักษาโครงการภายหลังการขาย</t>
+  </si>
+  <si>
+    <t>บริษัทดำเนินธุรกิจในรูปแบบกลุ่มโรงพยาบาล ซึ่งมีโรงพยาบาลในเครือทั้งหมด 15 แห่ง และโพลีคลินิก 1 แห่ง ตั้งอยู่ในกรุงเทพฯ ต่างจังหวัดและในสปป.ลาว เพื่อให้บริการทางการแพทย์ในระดับปฐมภูมิ-ตติยภูมิ ภายใต้ 4 กลุ่มโรงพยาบาล คือ 1.กลุ่มโรงพยาบาลเวิลด์เมดิคอล  2.กลุ่มโรงพยาบาลเกษมราษฎร์ อินเตอร์เนชั่นแนล 3.กลุ่มโรงพยาบาลเกษมราษฎร์ และ 4.กลุ่มโรงพยาบาลการุญเวช เพื่อให้บริการครอบคลุมผู้ป่วยทุกกลุ่มตั้งแต่ผู้ป่วยทั่วไป ชาวต่างชาติ และผู้ป่วยในโครงการประกันสังคม</t>
   </si>
   <si>
     <t>ผลิตท่อทองแดงไร้ตะเข็บ และท่อทองแดงที่มีเกลียวภายในท่อ ที่ใช้สำหรับเครื่องปรับอากาศและเครื่องทำความเย็น</t>
   </si>
   <si>
-    <t>ตัวแทนจำหน่ายวัตถุดิบที่เกี่ยวเนื่องกับพลาสติก และปิโตรเคมีรวมถึงสารเติมแต่งที่ใช้ในกระบวนการแปรรูปผลิตภัณฑ์พลาสติก  และปิโตรเคมีอื่นๆ นอกจากนี้ยังเป็นศูนย์รวมความรู้และเทคโนโลยีล่าสุดจากผู้ผลิตชั้นนำของโลกจึงทำให้สามารถให้คำปรึกษาทางวิชาการที่เป็นประโยชน์แก่ลูกค้าในด้านการผลิต</t>
-  </si>
-  <si>
-    <t>ประกอบธุรกิจผลิตและจำหน่ายถังเหล็ก ขนาด 200 ลิตร,ขวด PET และธุรกิจให้เช่าอาคารชุด</t>
-  </si>
-  <si>
-    <t>ผลิตและจำหน่ายสีอุตสาหกรรม ได้แก่ สีพ่นรถจักรยานยนต์ หมึกพิมพ์ บรรจุภัณฑ์  สีเคลือบบรรจุภัณฑ์  สีอุตสาหกรรมอื่นๆ และ การลงทุน</t>
-  </si>
-  <si>
-    <t>ลงทุนโดยการถือหุ้นในบริษัทอื่น</t>
+    <t>พัฒนาและลงทุนในอสังหาริมทรัพย์</t>
+  </si>
+  <si>
+    <t>ประกอบธุรกิจที่เกี่ยวข้องกับระบบบำบัดน้ำ (Water Treatment System) และธุรกิจบริการทางการแพทย์ที่ให้ความสำคัญต่อสุขอนามัยเป็นพิเศษ (Hygienic) ซึ่งเกี่ยวเนื่องกับธุรกิจบริการทางการแพทย์ด้านศูนย์ไตเทียม และคลินิกเวชกรรมเพื่อสุขภาพและความงาม</t>
   </si>
   <si>
     <t>บริษัทฯ และบริษัทย่อยดำเนินธุรกิจหลัก ดังต่อไปนี้ 1) บริษัท ไทยนิปปอนรับเบอร์อินดัสตรี้ จำกัด (มหาชน) ประกอบธุรกิจผลิตและจำหน่ายถุงยางอนามัย และเจลหล่อลื่น 2) บริษัท บ๊อก เอเชีย กรุ๊ป อินเตอร์เนชั่นแนล จำกัด ประกอบธุรกิจผลิตและจำหน่ายบรรจุภัณฑ์กระดาษ</t>
-  </si>
-  <si>
-    <t>ดำเนินกิจการปลูกปาล์มน้ำมัน และมีโรงงานสกัดน้ำมันปาล์มดิบและน้ำมันเมล็ดในปาล์มดิบ ซึ่งเป็นวัตถุดิบของอุตสาหกรรมต่อเนื่องอื่น เช่น น้ำมันปรุงอาหาร เนยเทียม ไอศครีม  สบู่  แชมพู ส่วนผสมอาหาร เคมีภัณฑ์ อาหารสัตว์ เป็นต้น และน้ำมันปาล์มยังเป็นส่วนประกอบสำคัญในการผลิตไบโอดีเซล ซึ่งเป็นพลังงานทางเลือก</t>
-  </si>
-  <si>
-    <t>ประกอบธุรกิจโรงกลั่นน้ำมันและการค้าน้ำมัน และธุรกิจการตลาด รวมถึงลงทุนในธุรกิจพลังงานไฟฟ้าสีเขียว ธุรกิจผลิตภัณฑ์ชีวภาพ ธุรกิจทรัพยากรธรรมชาติและพัฒนาธุรกิจใหม่</t>
-  </si>
-  <si>
-    <t>ผลิตและจำหน่ายปูนซีเมนต์ คอนกรีตผสมเสร็จ และเม็ดพลาสติค LDPE/EVA โดยร่วมทุนในธุรกิจแอมโมเนียมไนเตรทและกรดไนตริก และมีการลงทุนที่เกี่ยวเนื่องกับธุรกิจเหล็กและธุรกิจประกันชีวิต เป็นต้น</t>
-  </si>
-  <si>
-    <t>ผู้ให้บริการ จัดหา แปรรูป และจำหน่ายสเตนเลสรีดเย็นชนิดม้วนและแผ่น ผลิตและจำหน่ายท่อสเตนเลส ได้แก่ ท่อสเตนเลสสำหรับงานตกแต่ง ท่อสเตนเลสสำหรับอุตสาหกรรมยานยนต์ แปรรูปและจำหน่ายเหล็กชุบสังกะสี และเหล็กเคลือบสังกะสีชนิดม้วนและแผ่น ให้บริการด้านการตัด เจาะ และขัดผิวสเตนเลส ตามความต้องการของลูกค้า</t>
-  </si>
-  <si>
-    <t>ผลิตและจำหน่ายยางนอกและยางในสำหรับรถจักรยาน รถจักรยานยนต์ และรถขนส่งขนาดเล็ก</t>
-  </si>
-  <si>
-    <t>ประกอบธุรกิจเพื่อการลงทุน</t>
-  </si>
-  <si>
-    <t>ดำเนินธุรกิจให้เช่าอาคารสำนักงานและลงทุนในธุรกิจเทคโนโลยีสารสนเทศ โดยมีบริษัทย่อย 1 แห่ง คือ บริษัท ดาต้าโปร คอมพิวเตอร์ ซิสเต็มส์ จำกัด ซึ่งดำเนินธุรกิจเป็นผู้ให้บริการเทคโนโลยีสารสนเทศแบบครบวงจร (Total Enterprise Solution and Service Provider) มีผลิตภัณฑ์ที่บริษัทย่อยพัฒนาขึ้นเองและผลิตภัณฑ์ที่ได้รับการแต่งตั้งให้เป็นผู้แทนจำหน่ายจากบริษัทชั้นนำของโลก รวมถึงการให้บริการทางด้านเทคโนโลยีสารสนเทศด้านต่างๆ</t>
-  </si>
-  <si>
-    <t>บริษัท โรงพยาบาลจุฬารัตน์ จำกัด (มหาชน) (?บริษัทฯ?) ประกอบกิจการโรงพยาบาลเอกชน เริ่มก่อตั้งในปี 2529 จนถึงปัจจุบัน มีทุนจดทะเบียนรวม 1,100 ล้านบาท ประกอบด้วยบริษัทย่อยจำนวน 11 บริษัท มีสาขาของโรงพยาบาลสถานพยาบาลและคลินิกในกลุ่มรวมทั้งหมด 14 แห่ง ครอบคลุมพื้นที่ให้บริการบริเวณรอบสนามบินสุวรรณภูมิ ตั้งแต่เขตประเวศ เขตลาดกระบัง จังหวัดกรุงเทพมหานครฝั่งตะวันออก และถนนเทพารักษ์ ถนนกิ่งแก้ว อำเภอบางพลี จังหวัดสมุทรปราการครอบคลุมไปถึงจังหวัดในภาคตะวันออกได้แก่บริเวณ ถนนบางนาตราด อำเภอบางปะกง และนิคมอุตสาหกรรมเกตเวย์ซิตี้  จังหวัดฉะเชิงเทรา-พนนสารครม อำเภอเมือง จังหวัดฉะเชิงเทรา ถนน 304  อำเภอศรีมหาโพธิ  จังหวัดปราจีนบุรี  อำเภอเมือง จังหวัดชลบุรี อำเภออรัญประเทศ จังหวัดสระแก้ว และอำเภอเมือง จังหวัดระยอง โดยมีจำนวนเตียงรองรับผู้ป่วยรวม 793 เตียง</t>
-  </si>
-  <si>
-    <t>บริษัทฯ มุ่งเน้นการประกอบธุรกิจพลังงาน โดยเฉพาะธุรกิจที่เกี่ยวเนื่องกับก๊าซธรรมชาติแบบครบวงจร ได้แก่ ธุรกิจสถานีบริการก๊าซธรรมชาติหลักโดยเอกชน ธุรกิจขนส่งก๊าซ NGV ธุรกิจสถานีบริการก๊าซธรรมชาติสำหรับยานยนต์ ธุรกิจออกแบบ ผลิต รับเหมา ติดตั้งและซ่อมบำรุงอุปกรณ์ก๊าซ NGV ธุรกิจติดตั้งระบบก๊าซในรถยนต์ ธุรกิจจำหน่ายรถยนต์  ธุรกิจพลังงานหมุนเวียน และธุรกิจอื่นๆ เช่น ธุรกิจการขายก๊าซคาร์บอนไดออกไซด์ ธุรกิจร้านสะดวกซื้อ ธุรกิจการขายกระจก แบตเตอรี่ และวัสดุอื่นๆ</t>
-  </si>
-  <si>
-    <t>ธุรกิจหลัก คือ สวนปาล์ม สกัดน้ำมันปาล์มดิบ และน้ำมันเมล็ดในปาล์มดิบ เพื่อจำหน่ายให้แก่โรงกลั่นน้ำมันปาล์มทั้งในและต่างประเทศ โดยมีผลิตภัณฑ์พลอยได้ คือ เมล็ดในปาล์ม กากเมล็ดในปาล์มและกะลาปาล์ม นอกจากนี้ยังผลิตเมล็ดพันธุ์และต้นกล้าพันธุ์ปาล์มน้ำมันลูกผสมจำหน่ายให้แก่เกษตรกรทั้งในและต่างประเทศ และโรงผลิตกระแสไฟฟ้าจากก๊าซชีวภาพ เพื่อจำหน่ายให้กับการไฟฟ้าส่วนภูมิภาค</t>
-  </si>
-  <si>
-    <t>1) บริษัทให้บริการขนส่งสินค้าเหลวทางเรือระหว่างประเทศ ได้แก่ ผลิตภัณฑ์น้ำมันปาล์มและน้ำมันพืชชนิดต่างๆ ไปยังประเทศในภูมิภาคเอเชียตะวันออกเฉียงใต้ และภูมิภาคเอเชียตะวันออก2) บริษัทย่อยให้บริการขนส่งสินค้าเหลวทางรถในประเทศ ได้แก่ น้ำมันเชื้อเพลิงและไบโอดีเซล B100</t>
-  </si>
-  <si>
-    <t>ประกอบกิจการสถานพยาบาลประเภทรับผู้ป่วยไว้ค้างคืนภายใต้ชื่อ "โรงพยาบาลราชพฤกษ์" โดยให้บริการครอบคลุมจังหวัดขอนแก่น และจังหวัดใกล้เคียง รวมทั้งประเทศเพื่อนบ้านในภูมิภาคอินโดจีน</t>
-  </si>
-  <si>
-    <t>ธุรกิจของบริษัทแบ่งออกเป็น 3 รูปแบบหลัก ดังนี้1. การบริหารจัดการพื้นที่เช่าภายในศูนย์การค้าในส่วนโทรศัพท์เคลื่อนที่และสินค้าเทคโนโลยี ภายใต้ชื่อ "IT Junction" 2. การพัฒนาและบริหารพื้นที่ในรูปแบบตลาดชุมชน ภายใต้ชื่อ "J Market" 3. การพัฒนาและบริหารพื้นที่ในรูปแบบศูนย์การค้าชุมชน ภายใต้ชื่อ "The Jas"</t>
-  </si>
-  <si>
-    <t>ประกอบธุรกิจหลักโดยการถือหุ้นในบริษัทอื่น (Holding Company) ที่ประกอบธุรกิจผลิตและจำหน่ายไฟฟ้าจากพลังงานหมุนเวียน โดยมีบริษัท ช้างแรก ไบโอเพาเวอร์ จำกัด ซึ่งประกอบธุรกิจผลิตและจำหน่ายไฟฟ้าจากชีวมวล เป็นบริษัทแกน</t>
-  </si>
-  <si>
-    <t>ผลิตชิ้นส่วนพลาสติกสำหรับเครื่องใช้ไฟฟ้าและอิเลคทรอนิคส์ โดยมีบริษัทย่อย ทาพาโก้ โมลด์ จำกัด ผลิตแม่พิมพ์ฉีดพลาสติก ซึ่งเป็นธุรกิจที่เกี่ยวเนื่องกัน นอกจากนี้ ได้มีการขยายการลงทุนไปในธุรกิจก่อสร้างและอสังหาริมทรัพย์ในประเทศสวีเดน นอกจากนี้ ยังได้ขยายธุรกิจไปยังธุรกิจค้าปลีกเครื่องสำอางและลงทุนในบริษัทอื่นผ่านบริษัทย่อยอีกด้วย</t>
-  </si>
-  <si>
-    <t>ผลิตและจัดจำหน่ายถุงมือยางที่ใช้ในทางการแพทย์และอุตสาหกรรมอื่น โดยมีผลิตภัณฑ์หลัก ได้แก่ ถุงมือยางธรรมชาติชนิดมีแป้ง ถุงมือยางธรรมชาติชนิดไม่มีแป้ง และถุงมือยางไนไตรล์</t>
-  </si>
-  <si>
-    <t>ธุรกิจการลงทุน (Holding company) ในบริษัทที่ผลิตและจำหน่ายสินค้าเหล็กเส้น เหล็กลวด และเหล็กรูปพรรณขนาดเล็ก ซึ่งใช้ในอุตสาหกรรมก่อสร้าง</t>
-  </si>
-  <si>
-    <t>ประกอบธุรกิจด้านการลงทุนโดยการถือหุ้นในบริษัทต่างๆ ทั้งในประเทศและต่างประเทศ ในผลิตภัณฑ์ปิโตรเคมีแบบครบวงจร ซึ่งผลิตและจำหน่าย Ethylene Oxide และ Ethylene Glycol (?EO&amp;EG?) Purified Terephthalic Acid (?PTA?) Polyethylene Terephthalate (?PET?) เส้นใยและเส้นด้าย โพลีเอสเตอร์ (Polyester Fiber and Yarn) และเส้นใยจากขนสัตว์ (Wool)</t>
-  </si>
-  <si>
-    <t>ประกอบธุรกิจเป็นผู้จัดจำหน่ายถ่านหินสะอาด เพื่อจำหน่ายทั้งในประเทศ และต่างประเทศให้กับกลุ่มโรงงานอุตสาหกรรมต่าง ๆ และประกอบธุรกิจโลจิสติกส์  ทั้งทางบกโดยรถบรรทุกและทางน้ำโดยเรือลำเลียง</t>
-  </si>
-  <si>
-    <t>บริษัทหลักทรัพย์ เคจีไอ (ประเทศไทย) จำกัด (มหาชน) (?บริษัท?) เป็นบริษัทมหาชนจำกัดที่จัดตั้งขึ้นภายใต้พระราชบัญญัติบริษัทมหาชนจำกัดและประกอบกิจการในประเทศไทย โดยประกอบธุรกิจหลักทรัพย์ และได้รับอนุญาตและความเห็นชอบจากสำนักงานคณะกรรมการกำกับหลักทรัพย์และตลาดหลักทรัพย์ (?สำนักงาน ก.ล.ต.?) ให้ประกอบธุรกิจดังต่อไปนี้(ก) นายหน้าซื้อขายหลักทรัพย์ 	(ข) ค้าหลักทรัพย์ 	(ค) ที่ปรึกษาการลงทุน (ง) การจัดจำหน่ายหลักทรัพย์(จ) การยืมและให้ยืมหลักทรัพย์ (ฉ) นายทะเบียนหลักทรัพย์(ช) ตัวแทนซื้อขายสัญญาซื้อขายล่วงหน้า 	(ซ) ที่ปรึกษาทางการเงิน  	(ฌ) ธุรกรรมด้านอนุพันธ์นอกตลาดหลักทรัพย์แห่งประเทศไทย (ญ) ตัวแทนสนับสนุนการขายหรือรับซื้อคืนหน่วยลงทุนของกองทุนรวม  ตามขอบเขตที่ สำนักงาน ก.ล.ต. กำหนด</t>
-  </si>
-  <si>
-    <t>บริษัทประกอบธุรกิจการถือหุ้นในบริษัทอื่น (Holding Company) ของกลุ่มธุรกิจทางการเงินทิสโก้ โดยมีธนาคารทิสโก้เป็นหลัก ซึ่งได้รับอนุมัติให้เป็นธนาคารพาณิชย์เต็มรูปแบบ ปัจจุบันให้บริการทางด้านการเงินอันประกอบด้วย บริการสินเชื่อลูกค้ารายย่อยและสินเชื่อธุรกิจขนาดกลางและขนาดย่อม บริการสินเชื่อพาณิชย์ธนกิจ บริการเงินฝากรายย่อย บริการลูกค้าธนบดีธนกิจ บริการตัวแทนขายประกันผ่านธนาคาร บริการจัดการการเงิน และบริการคัสโตเดียน</t>
-  </si>
-  <si>
-    <t>1.	ธุรกิจจัดจำหน่ายน้ำมันเชื้อเพลิงและน้ำมันหล่อลื่น ให้กับลูกค้าทางทะเล ได้แก่ เรือเดินทะเลทั้งในประเทศและต่างประเทศ และลูกค้าทางบก ได้แก่ โรงงานอุตสาหกรรม และกลุ่มธุรกิจต่างๆ เช่น ธุรกิจรถขนส่งทางบก ธุรกิจให้บริการรถโดยสาร เป็นต้น 2.	ธุรกิจให้บริการในการจัดหาอาหาร วัตถุดิบ และให้บริการอื่นๆ ให้แก่เรือเดินทะเล และพนักงานประจำแหล่งขุดเจาะน้ำมันและก๊าซทั้งในทะเลและบนบก (Supply Management)</t>
-  </si>
-  <si>
-    <t>บริษัทดำเนินธุรกิจด้านการลงทุนในธุรกิจที่มีศักยภาพในการเติบโตสูง  โดยธุรกิจหลักในปัจจุบันประกอบด้วย ธุรกิจนายหน้าซื้อขายหลักทรัพย์ ธุรกิจการลงทุน ธุรกิจวาณิชธนกิจ ธุรกิจบริหารสินทรัพย์ และธุรกิจกิจการร่วมลงทุน</t>
-  </si>
-  <si>
-    <t>บริษัทดำเนินธุรกิจโดยการผลิตและจำหน่ายท่อสเตนเลส ภายใต้เครื่องหมายการค้า TGPRO เพื่อใช้ในอุตสาหกรรมการผลิตทั่วไป เช่น อุตสาหกรรมน้ำตาล อาหาร ยาและเคมีภัณฑ์ โดยจะใช้ในส่วนของหม้อต้มน้ำ (BOILER), เครื่องแลกเปลี่ยนความร้อน (HEAT EXCHANGER) และเครื่องระเหย (EVAPORATOR) และใช้ในอุตสาหกรรมก่อสร้างในส่วนของการตบแต่งอาคารและเฟอร์นิเจอร์</t>
-  </si>
-  <si>
-    <t>ธุรกิจลงทุนโดยการถือหุ้นในบริษัทอื่น โดยลงทุนในธุรกิจหลัก 5 กลุ่มได้แก่ กลุ่มธุรกิจขนส่งทางเรือ กลุ่มธุรกิจบริการนอกชายฝั่ง กลุ่มธุรกิจเคมีภัณฑ์เพื่อการเกษตร กลุ่มธุรกิจอาหารและเครื่องดื่ม และกลุ่มการลงทุนอื่น</t>
-  </si>
-  <si>
-    <t>1. ลงทุนในสิทธิการเช่าที่ดินพร้อมอาคารคลังสินค้าและ/หรือโรงงาน 3 โครงการ คือ โครงการ ริช แอสเซ็ท โครงการเอสที บางบ่อ และโครงการเอสที บางปะอิน 2. ลงทุนในสิทธิการเช่าช่วงที่ดิน สิทธิการเช่าอาคารสำนักงานและคอมมูนิตี้มอลล์ โครงการซัมเมอร์ฮับและโครงการซัมเมอร์ฮิลล์ 3. ลงทุนในกรรมสิทธิ์ในอสังหาริมทรัพย์และสังหาริมทรัพย์ของศูนย์รับฝากข้อมูล (Data Center) โครงการ INTERLINK DATA CENTER</t>
-  </si>
-  <si>
-    <t>ประกอบธุรกิจด้านการลงทุนโดยการถือหุ้นและเข้าไปบริหารงานในบริษัทต่างๆ (Holding Company)</t>
-  </si>
-  <si>
-    <t>ไทยออยล์เป็นผู้ประกอบธุรกิจการกลั่นและจำหน่ายผลิตภัณฑ์ปิโตรเลียมสำเร็จรูปที่ใหญ่ที่สุดในประเทศไทย และเป็นโรงกลั่นที่มีประสิทธิภาพอยู่ในระดับชั้นนำแห่งหนึ่งในภูมิภาคเอเชียแปซิฟิก ซึ่งก่อตั้งขึ้นในปี 2504 โดยมีธุรกิจหลักคือ โรงกลั่นนํ้ามัน ปัจจุบันมีกำลังการกลั่น 275,000 บาร์เรลต่อวันนอกจากนี้ ไทยออยล์ยังมีธุรกิจที่เกี่ยวข้องหลากหลาย เช่น ธุรกิจน้ำมันหล่อลื่นพื้นฐาน ธุรกิจปิโตรเคมีสายอะโรเมติกส์และสายโอเลฟิน ธุรกิจไฟฟ้า ธุรกิจสารทำละลายและเคมีภัณฑ์ ธุรกิจบริการขนส่งผลิตภัณฑ์ปิโตรเลียมสำเร็จรูปทางท่อ ธุรกิจพลังงานทดแทน ธุรกิจผลิตสารตั้งต้นสำหรับการผลิตผลิตภัณฑ์สารทำความสะอาด ธุรกิจให้บริการด้านการสรรหาและคัดเลือกบุคลากรสำหรับกลุ่มไทยออยล์ รวมถึงมีศูนย์บริหารการเงิน เพื่อช่วยเพิ่มขีดความสามารถในการบริหารจัดการทางการเงินของกลุ่มไทยออยล์</t>
-  </si>
-  <si>
-    <t>บริษัทฯ เป็นผู้ประกอบกิจการโรงกลั่นปิโตรเลียม และจำหน่ายผลิตภัณฑ์ปิโตรเลียมแบบครบวงจร (integrated) อีกทั้งบริษัทฯ ทำการผลิตและจำหน่ายผลิตภัณฑ์อะโรเมติกส์และเคมีภัณฑ์อื่นๆ ซึ่งบริษัทฯ และบริษัทในเครือที่เกี่ยวข้องได้ประกอบธุรกิจในประเทศไทยมากว่า 120  ปี บริษัทฯ ขายผลิตภัณฑ์ปิโตรเลียมแก่ลูกค้ารายย่อยผ่านทางเครือข่ายที่กว้างขวางของสถานีบริการน้ำมันค้าปลีกภายใต้ชื่อการค้าเอสโซ่ รวมทั้งขายโดยตรงให้แก่ลูกค้าในภาคอุตสาหกรรม ค้าส่ง การบินและการเดินเรือ นอกจากนี้ บริษัทฯ ยังขายผลิตภัณฑ์อะโรเมติกส์และเคมีภัณฑ์อื่นๆ ที่บริษัทฯ ผลิตให้แก่ลูกค้าในภาคอุตสาหกรรมภายในประเทศ และเพี่อจำหน่ายไปยังต่างประเทศ</t>
-  </si>
-  <si>
-    <t>ผลิตและจำหน่ายและจัดหา/ผลิตหนังสือพิมพ์ สิ่งพิมพ์ และให้บริการโฆษณาและข้อมูลข่าวสาร ผ่านสื่อประเภทต่างๆ ได้แก่ โทรทัศน์ และสื่อรูปแบบใหม่</t>
-  </si>
-  <si>
-    <t>ถือหุ้นในบริษัทอื่น (Holding Company)</t>
-  </si>
-  <si>
-    <t>รับประกันวินาศภัยทุกประเภท คือ อัคคีภัย ภัยทางทะเลและขนส่ง รถยนต์และอุบัติเหตุเบ็ดเตล็ด</t>
-  </si>
-  <si>
-    <t>ธุรกิจประกันวินาศภัย</t>
-  </si>
-  <si>
-    <t>พัฒนาอสังหาริมทรัพย์โดยเน้นการพัฒนาโครงการที่อยู่อาศัยแนวราบและแนวสูง พร้อมทั้งการให้บริการบำรุงรักษาโครงการภายหลังการขาย</t>
-  </si>
-  <si>
-    <t>ดำเนินธุรกิจหลักโดยการถือหุ้นในบริษัทอื่น (Holding Company) ที่ประกอบธุรกิจที่ผลิตและจำหน่ายไฟฟ้า โดยมีบริษัท ไฟฟ้าน้ำงึม 2 จำกัด ซึ่งประกอบธุรกิจโรงไฟฟ้าพลังน้ำเป็นบริษัทแกน</t>
-  </si>
-  <si>
-    <t>3 ธุรกิจหลัก คือ 1) ลงทุนในบริษัทร่วมและบริษัทย่อย ซึ่งประกอบธุรกิจโฆษณา 2) ให้บริการเกี่ยวกับการให้คำแนะนำปรึกษา วางแผน จัดซื้อและจัดทำรายงานทางด้านสื่อโฆษณา 3) ให้บริการทางด้านงานบริหาร งานบัญชีและการเงิน งานบริหารงานบุคคล และอื่น ๆ ให้แก่ บริษัทร่วมบริษัทย่อย บริษัทที่เกี่ยวข้อง และบริษัทอื่น</t>
-  </si>
-  <si>
-    <t>ผลิตและจำหน่ายบรรจุภัณฑ์และการพิมพ์ประเภทกล่องกระดาษพิมพ์ออฟเซ็ท (Offset Printing) ตามแบบที่ลูกค้ากำหนด กล่องบรรจุสินค้าจำแนกได้เป็น 5 ประเภทใหญ่ คือ ของเด็กเล่น สินค้าอุปโภค เครื่องใช้ไฟฟ้า อุปกรณ์ในบ้านและครัวเรือน และอาหาร</t>
-  </si>
-  <si>
-    <t>1. กลุ่มธุรกิจพลังงานทดแทนโรงไฟฟ้าพลังงานแสงอาทิตย์ โรงไฟฟ้าพลังงานลม และให้บริการเดินเครื่องและบำรุงรักษาโรงไฟฟ้า2. กลุ่มธุรกิจวิศวกรรม และTurnkey แบบครบวงจรการก่อสร้างโรงไฟฟ้าพลังงานทดแทน สถานีไฟฟ้า ระบบสายส่ง ระบบไฟฟ้าลงดิน เคเบิ้ลใต้น้ำ ระบบไมโครกริด และระบบกักเก็บพลังงาน3. กลุ่มธุรกิจอุปกรณ์ไฟฟ้าแรงสูงผลิต จัดหา และจำหน่ายอุปกรณ์ระบบไฟฟ้า ผลิตภัณฑ์ประหยัดพลังงาน และพลังงานทางเลือก4. กลุ่มธุรกิจ Ecosystem Business Platform &amp; Innovationระบบนิเวศทางธุรกิจและนวัตกรรมที่ส่งเสริมการทำธุรกิจของบริษัทร่วมกับพันธมิตร5. กลุ่มธุรกิจกัญชงและกัญชาแบบครบวงจร</t>
-  </si>
-  <si>
-    <t>บริษัทประกอบธุรกิจผลิตและจำหน่ายชิ้นส่วนยานยนต์ มีบริษัทย่อยที่บริษัทถือหุ้นในสัดส่วนร้อยละ 100 จำนวน 5 บริษัท บริษัทในประเทศเยอรมนีและฮังการี</t>
-  </si>
-  <si>
-    <t>พัฒนาอสังหาริมทรัพย์ประเภทบ้านจัดสรรเพื่อจำหน่าย ในกรุงเทพมหานคร ภูเก็ตและสมุทรปราการ</t>
-  </si>
-  <si>
-    <t>ธุรกิจพัฒนาอสังหาริมทรัพย์ แบ่งเป็น 1. ธุรกิจเพื่อขาย โดยพัฒนาโครงการที่อยู่อาศัยแนวราบและแนวสูง 2. ธุรกิจเพื่อให้เช่าอาคารสำนักงาน และอาคารพาณิชย์ ซึ่งเป็นโครงการที่ขายสิทธิการเช่า และธุรกิจบริการอสังหาริมทรัพย์ โดยแบ่งเป็นธุรกิจบริหารงานขายโครงการ ธุรกิจนายหน้า และบริการด้านการบริหารและจัดการโครงการอสังหาริมทรัพย์</t>
-  </si>
-  <si>
-    <t>ผลิตและจำหน่ายผลิตภัณฑ์พลาสติกบรรจุภัณฑ์ในลักษณะผลิตตามคำสั่ง (Made to Order) ของลูกค้าเพื่อการส่งออกไปจำหน่ายในต่างประเทศ</t>
-  </si>
-  <si>
-    <t>ธุรกิจเกี่ยวกับยางพาราครบวงจร ครอบคลุมตั้งแต่ ธุรกิจปลูกสวนยางพาราในประเทศไทย ผลิตและจำหน่ายวัตถุดิบจากยางพารา ได้แก่ น้ำยางข้น ยางแท่ง ธุรกิจผลิตและจำหน่ายเส้นด้ายยางยืด และที่นอนยางพารา นอกจากนี้บริษัทยังประกอบธุรกิจนายหน้าในตลาดสินค้าเกษตรล่วงหน้าแห่งประเทศไทย</t>
-  </si>
-  <si>
-    <t>ให้บริการด้านการออกแบบวิศวกรรม การจัดหาเครื่องจักรและอุปกรณ์ และการก่อสร้างโรงงานแบบครบวงจร ให้แก่ ผู้ประกอบการในอุตสาหกรรมพลังงาน ปิโตรเคมี และเคมีภัณฑ์ ทั้งในประเทศไทยและต่างประเทศ</t>
-  </si>
-  <si>
-    <t>บริษัทประกอบธุรกิจผลิตและจำหน่ายแผ่นไฟเบอร์บอร์ดความหนาแน่นปานกลาง (Medium Density Fiberboard : MDF) ซึ่งเป็นแผ่นไม้ทดแทนไม้ธรรมชาติ โดยส่วนใหญ่ส่งออกไปจำหน่ายในตลาดต่างประเทศ</t>
-  </si>
-  <si>
-    <t>บริษัทประกอบธุรกิจจัดจำหน่ายผลิตภัณฑ์เหล็กที่หลากหลายทั้งในรูปแบบวัตถุดิบที่ยังมิได้แปรรูป ได้แก่ เหล็กแผ่นรีดร้อนชนิดม้วน (Hot Rolled Coil) และที่แปรรูปแล้วทั้งเหล็กม้วนสลิต เหล็กแผ่น เหล็กรูปพรรณประเภทขึ้นรูปร้อน และเหล็กรูปพรรณประเภทขึ้นรูปเย็นรวมทั้งผลิตภัณฑ์เหล็กอื่นๆ นอกจากนี้บริษัทยังเป็นผู้แปรรูปผลิตภัณฑ์เหล็กบางประเภท ได้แก่ เหล็กแผ่น เหล็กม้วนสลิต เหล็กแบน เหล็กฉากพับ เหล็กรางพับ ท่อเหล็ก และเหล็กโครงสร้างรูปตัวซี</t>
-  </si>
-  <si>
-    <t>ประกอบกิจการสาธารณูปโภคในการผลิตและจ่ายน้ำประปา</t>
-  </si>
-  <si>
-    <t>รับจ้างผลิตชิ้นส่วนพลาสติกโดยกระบวนการขึ้นรูปพลาสติกและฉีดพลาสติก โดยมีบริษัทย่อยดำเนินธุรกิจพิมพ์ฉลากสินค้าคุณภาพสูงและธุรกิจผลิตและจำหน่ายสินค้าพลาสติกประเภทของใช้ในครัวเรือน</t>
-  </si>
-  <si>
-    <t>เป็นสายการเดินเรือที่ประกอบธุรกิจขนส่งตู้คอนเทนเนอร์ทางทะเลที่มีฐานประกอบกิจการในประเทศไทย ดำเนิน 3 สายธุรกิจ ได้แก่ 1. Shipper Owned Container 2. Carrier Owned Container และ 3. การให้บริการที่สร้างมูลค่าเพิ่มในด้านโลจิสติคส์ โดยมีเครือข่ายสำนักงานที่ครอบคลุมภูมิภาคเอเชียตะวันออกเฉียงเหนือ เอเชียตะวันออกเฉียงใต้ คาบสมุทรเอเชียใต้ และตะวันออกกลาง</t>
-  </si>
-  <si>
-    <t>บริษัทฯ ประกอบธุรกิจผลิตและจำหน่ายกระแสไฟฟ้าพลังงานแสงอาทิตย์และพลังงานหมุนเวียนอื่น โดยสามารถแบ่งออกได้เป็น   2 ประเภท คือ ธุรกิจโรงไฟฟ้าพลังงานแสงอาทิตย์ด้วยระบบโฟโต้โวลตาอิกหรือโซลาร์เซลล์ (Solar PV) และธุรกิจโรงไฟฟ้าชีวมวล (Biomass Power Plants)</t>
-  </si>
-  <si>
-    <t>กลุ่มบริษัททาคูนิ  ดำเนินธุรกิจค้าก๊าซปิโตรเลียมเหลว (Liquid Petroleum Gas:  LPG) และธุรกิจที่เกี่ยวเนื่องกับก๊าซปิโตรเลียมเหลว โดยแบ่งกลุ่มธุรกิจเป็น 7 กลุ่ม คือ  คือ   1. ธุรกิจจัดหา/จำหน่ายแก๊ส LPG บริษัทฯ เป็นผู้ค้าน้ำมันเชื้อเพลิงที่ได้รับอนุญาตตามมาตรา 7   2.ธุรกิจขนส่งทางบก  เป็นผู้ให้บริการขนส่งแก๊สLPG และแอมโมเนีย   3. ธุรกิจ ให้บริการก่อสร้างแก๊สและน้ำมัน ในลักษณะ Engineering Procurement Construction (EPC)4. ธุรกิจติดตั้งระบบแก๊สรถยนต์ เป็นผู้จำหน่ายอุปกรณ์ที่เกี่ยวข้องกับระบบก๊าซ และให้บริการติดตั้งระบบก๊าซ LPG และ NGV สำหรับยานยนต์  5. ธุรกิจบริการทดสอบและตรวจสอบด้านความปลอดภัยทางวิศวกรรม สำหรับระบบงานท่อก๊าซและอุปกรณ์นิรภัยสำหรับอุตสาหกรรมและสถานีบริการและตรวจสอบระบบก๊าซสำหรับยานยนต์ตามที่กฎหมายกำหนด  6. ธุรกิจพัฒนาอสังหาริมทรัพย์   7. ธุรกิจประกอบ และจัดจำหน่ายมอเตอร์ไซค์ไฟฟ้า</t>
-  </si>
-  <si>
-    <t>โรงกลั่นน้ามันของบริษัทผลิตผลิตภัณฑ์ปิโตรเลียม ได้แก่ ก๊าซปิโตรเลียมเหลว น้ามันเบนซินไร้สารตะกั่วเกรดพิเศษและเกรดธรรมดา น้ามันดีเซลหมุนเร็ว น้ามันเชื้อเพลิงอากาศยาน และน้ามันเตา รวมทั้งผลิตภัณฑ์ปิโตรเคมีซึ่งใช้เป็นผลิตภัณฑ์ตั้งต้นในอุตสาหกรรมปิโตรเคมี ได้แก่ โพรพิลีนเกรดโพลิเมอร์ ก๊าซปิโตรเลียมเหลว แนฟทาเกรดปิโตรเคมี ก๊าซผสม C4 และรีฟอร์เมท</t>
-  </si>
-  <si>
-    <t>ผลิตและส่งออกพลาสติกฟิล์มใช้สำหรับบรรจุภัณฑ์(Packaging) อุตสาหกรรม(Industrial) และอุปกรณ์ไฟฟ้า (Electrical)</t>
-  </si>
-  <si>
-    <t>ประกอบธุรกิจโดยการถือหุ้นในบริษัทอื่น</t>
-  </si>
-  <si>
-    <t>บริษัทดำเนินธุรกิจผลิตและจัดจำหน่ายมอเตอร์สำหรับเครื่องปรับอากาศ มอเตอร์กำลังสำหรับอุตสาหกรรม และเครื่องสูบน้ำ ปั๊มหอยโข่ง และมอเตอร์สำหรับสระและสปา โดยแบ่งเป็นการผลิตตามคำสั่งจ้างผลิต (OEM) และการผลิตจัดจำหน่ายภายใต้ตราสินค้า Pioneer Motor ซึ่งเป็นตราสินค้าของบริษัทเอง</t>
-  </si>
-  <si>
-    <t>ธุรกิจขนส่ง</t>
-  </si>
-  <si>
-    <t>ผู้จัดจำหน่ายผลิตภัณฑ์เพื่อความปลอดภัย อาชีวอนามัย และสิ่งแวดล้อม และผู้จัดจำหน่าย และให้บริการออกแบบ ผลิต รับก่อสร้าง ให้บริการเกี่ยวกับระบบบำบัดน้ำเพื่ออุปโภค และบริโภค</t>
-  </si>
-  <si>
-    <t>ธุรกิจโรงพยาบาลเอกชน ภายใต้ชื่อ โรงพยาบาลนอร์ทอีสเทอร์น-วัฒนา ให้บริการตรวจรักษา ฟื้นฟูป้องกัน และส่งเสริมสุขภาพแก่ประชาชน กลุ่มลูกค้าประกอบด้วยผู้ป่วย ซึ่งแบ่งการรักษาเป็นผู้ป่วยนอก และผู้ป่วยค้างคืน (ผู้ป่วยใน) ผู้รับบริการที่ไม่ป่วย ซึ่งเป็นการให้บริการสุขภาพในด้านป้องกัน และส่งเสริมสุขภาพ</t>
-  </si>
-  <si>
-    <t>ธุรกิจโรงพยาบาลเอกชนในเขตตะวันออกของกรุงเทพมหานคร จังหวัดสมุทรปราการและอำเภอหาดใหญ่ จังหวัดสงขลา ได้แก่ โรงพยาบาลศิครินทร์  โรงพยาบาลศิครินทร์ สมุทรปราการ และโรงพยาบาลศิครินทร์ หาดใหญ่</t>
-  </si>
-  <si>
-    <t>กลุ่มบริษัทประกอบกิจการสถานพยาบาลประเภทที่รับผู้ป่วยไว้ค้างคืน ในลักษณะโรงพยาบาลทั่วไป (General Hospital) ภายใต้ชื่อ "โรงพยาบาลราชธานี" และ "โรงพยาบาลราชธานี โรจนะ"</t>
-  </si>
-  <si>
-    <t>ดำเนินธุรกิจ 3 สาย ดังนี้  1. สายธุรกิจโครงสร้างเครือข่ายการสื่อสารโทรคมนาคม 2. สายธุรกิจเทคโนโลยีประยุกต์ด้าน ICT และ 3. สายธุรกิจแอปพลิเคชันสนับสนุนด้านการประกอบธุรกิจ</t>
-  </si>
-  <si>
-    <t>เป็นบริษัทแม่ของกลุ่มธุรกิจทางการเงิน ซึ่งบริษัทในกลุ่มธนชาตแบ่งประเภทการประกอบธุรกิจออกเป็น 2 กลุ่ม 1) ธุรกิจทางการเงิน ซึ่งประกอบด้วย ธุรกิจธนาคารพาณิชย์ ธุรกิจบริหารสินทรัพย์ ธุรกิจหลักทรัพย์ ธุรกิจประกัน  ธุรกิจให้เช่าซื้อ และธุรกิจลีสซิ่ง  2) ธุรกิจสนับสนุน ซึ่งประกอบด้วย ธุรกิจโบรกเกอร์ ธุรกิจบริการ และธุรกิจการพัฒนาฝึกอบรม</t>
-  </si>
-  <si>
-    <t>เป็นผู้ออกแบบ ผลิต และจัดจำหน่าย อุปกรณ์ไฟฟ้าส่องสว่าง อุปกรณ์ควบคุมที่เกี่ยวข้อง รวมทั้งหลอดไฟ และโคมไฟ ให้แก่ลูกค้าและเป็นผู้ผลิตไฟฟ้าจากพลังงานทดแทน</t>
-  </si>
-  <si>
-    <t>บริษัท ริช สปอร์ต จำกัด (มหาชน) เป็นผู้นำในการประกอบธุรกิจนำเข้า และจัดจำหน่ายสินค้าประเภทแฟชั่น และไลฟ์สไตล์ ภายใต้ตราสินค้าชั้นนำจากต่างประเทศ ทั้งในประเทศไทย และประเทศกัมพูชา</t>
-  </si>
-  <si>
-    <t>บริษัทประกอบธุรกิจด้านการผลิตและจำหน่ายไฟฟ้า โดยประกอบด้วยโรงไฟฟ้าพลังงานความร้อนทิ้ง และโรงไฟฟ้าพลังงานเชื้อเพลิง RDF ซึ่งโรงไฟฟ้าทั้งหมดตั้งอยู่ที่ อ.แก่งคอย จ.สระบุรี และประกอบธุรกิจสถานีบริการน้ำมันเชื้อเพลิงและก๊าซธรรมชาติ (NGV)</t>
-  </si>
-  <si>
-    <t>บริษัท อมตะ วีเอ็น จำกัด (มหาชน) ประกอบธุรกิจการลงทุนในบริษัทอื่น (Holding Company) โดยถือหุ้นใน Amata City Bien Hoa Joint Stock Company (บริษัทแกน) ร้อยละ 89.99  ซึ่งประกอบธุรกิจพัฒนานิคมอุตสาหกรรม Amata City Bien Hoa ประเทศเวียดนาม โดยมีรายได้จาก 1) การขายที่ดินในเขตนิคมอุตสาหกรรม เขตพาณิชยกรรมและที่อยู่อาศัย 2) การให้บริการเช่าโรงงานสำเร็จรูป อาคารสำนักงาน 3) การบริการสาธารณูปโภค</t>
-  </si>
-  <si>
-    <t>ผลิตถังแก๊สปิโตรเลียมเหลว และถังทนความดันต่ำแบบต่างๆ</t>
-  </si>
-  <si>
-    <t>เป็นผู้ผลิตชิ้นส่วนยานยนต์ที่ผลิตจากพลาสติก และเป็นศูนย์รวมในการจำหน่าย ทั้งชิ้นส่วนอะไหล่รถยนต์ทดแทน (Replacement Equipment Manufacturer: REM) และชิ้นส่วนอะไหล่รถยนต์ภายใต้ตราสินค้าของค่ายรถยนต์ต่างๆ (Original Equipment Manufacturer: OEM) รวมทั้งให้บริการรับจ้างฉีดขึ้นรูป ชุบ และพ่นสีผลิตภัณฑ์พลาสติก</t>
-  </si>
-  <si>
-    <t>แบบรายงานการเปิดเผยข้อมูลเพิ่มเติม(แบบ 56-1)/ 2562</t>
-  </si>
-  <si>
-    <t>ผลิตและจำหน่ายปูนซีเมนต์และปูนสำเร็จรูป ภายใต้ตราสินค้า อินทรี ทั้งในลักษณะผงและเม็ด รวมถึงผลิตภัณฑ์ที่เกี่ยวเนื่องอย่างครบวงจร</t>
-  </si>
-  <si>
-    <t>นำเข้า ผลิต และจัดจำหน่าย วัตถุดิบ สารปรุงแต่ง และวัตถุเจือปนในอาหารคนและอาหารสัตว์</t>
-  </si>
-  <si>
-    <t>ประกอบธุรกิจพัฒนาอสังหาริมทรัพย์เพื่อขาย</t>
-  </si>
-  <si>
-    <t>ผลิตและส่งออกชิ้นส่วนและส่วนประกอบเครื่องใช้ไฟฟ้าอิเล็กทรอนิกส์ และชิ้นส่วนยานยนต์</t>
-  </si>
-  <si>
-    <t>บริษัทฯ และบริษัทย่อย ได้มุ่งเน้นการจำหน่ายน้ำมันเชื้อเพลิงผ่านสถานีบริการน้ำมันภายใต้เครื่องหมายการค้าของบริษัทฯ และจำหน่ายสู่ภาคอุตสาหกรรมต่างๆ เช่น อุตสาหกรรมการบิน การผลิตไฟฟ้า การก่อสร้าง การขนส่งและบริการ ทั้งที่เป็นผู้ใช้โดยตรงและแก่ผู้ค้าน้ำมันรายอื่นที่ซื้อน้ำมันไปจำหน่ายแก่ผู้บริโภคอีกทอดหนึ่ง ซึ่งรวมการจำหน่ายให้ผู้ค้าน้ำมันในประเทศเพื่อนบ้านด้วย</t>
-  </si>
-  <si>
-    <t>ธุรกิจธนาคารพาณิชย์เต็มรูปแบบ มีสาขาอยู่ทั่วภูมิภาคในประเทศไทย และเป็นส่วนหนึ่งของกลุ่มซีไอเอ็มบี สถาบันการเงินที่มีชื่อเสียงของประเทศมาเลเซีย</t>
-  </si>
-  <si>
-    <t>พัฒนา ออกแบบ ผลิต ประกอบวงจรอิเล็กทรอนิกส์ (PCBA)  และผลิตภัณฑ์อิเล็กทรอนิกส์สำเร็จรูป รวมทั้งให้บริการจัดหาวัตถุดิบและจัดส่ง โดยให้บริการกับลูกค้าที่ผลิตผลิตภัณฑ์หลากหลายประเภท เช่น อุตสาหกรรมการแพทย์ สินค้าอุตสาหกรรมและพาณิชยกรรม อุปกรณ์เครือข่ายการสื่อสารไร้สายต่างๆ  อุตสาหกรรมยานยนต์ อุตสาหกรรมโทรคมนาคม และ สินค้าอุปโภคและบริโภค</t>
-  </si>
-  <si>
-    <t>กลุ่มบริษัทดำเนินธุรกิจให้บริการโลจิสติกส์ระหว่างประเทศทั้งทางทะเลและทางอากาศแบบครบวงจร (International Logistics Services and Solutions Provider) ทั้งการนำเข้าและส่งออก และการให้บริการด้านพิธีการศุลกากร และการขนส่งในประเทศ โดยสามารถให้บริการขนส่งสินค้าแบบประตูสู่ประตู (Door to Door) คือการให้บริการรับจัดการขนส่งตั้งแต่หน้าประตูโรงงานลูกค้าต้นทางเพื่อส่งมอบไปยังหน้าประตูโรงงานลูกค้าปลายทาง และแบบ Exwork คือการให้บริการรับจัดการขนส่งที่ผู้นำเข้ารับผิดชอบภาระค่าขนส่งตั้งแต่หน้าประตูโรงงานผู้ส่งออกไปจนถึงผู้รับปลายทาง</t>
-  </si>
-  <si>
-    <t>บริษัทและบริษัทย่อยผลิตชิ้นส่วนอุปกรณ์สำหรับเครื่องปรับอากาศที่ใช้สำหรับยานพาหนะ และเครื่องทำความเย็น รับจ้างผลิตและประกอบเครื่องปรับอากาศสำหรับที่อยู่อาศัย ทำความเย็น ซ่อมและผลิตแม่พิมพ์</t>
-  </si>
-  <si>
-    <t>ธุรกิจสายควบคุม (Control Cable) สำหรับรถยนต์ และรถจักรยานยนต์ และชุดควบคุมรางกระจกหน้าต่างรถยนต์ (Window Regulator) เพื่อจำหน่ายให้แก่ผู้ผลิตรถยนต์ และรถจักรยานยนต์ชั้นนำ ตลอดจนศูนย์อะไหล่และผู้ค้ารายย่อยต่างๆ ทั้งภายในและต่างประเทศ</t>
-  </si>
-  <si>
-    <t>บริษัทดำเนินธุรกิจลงทุนในบริษัทอื่น (Holding Company) โดยลงทุนในบริษัทย่อยที่ถือหุ้นร้อยละ 99.99 ซึ่งดำเนินธุรกิจจำนวน 6 บริษัท โดยมีธุรกิจหลักเป็นธุรกิจผลิตและจำหน่ายน้ำตาลทราย และอุตสาหกรรมต่อเนื่อง ได้แก่ 1) ธุรกิจผลิตและจำหน่ายน้ำตาลทราย โดยมีบริษัท โรงงานน้ำตาลบุรีรัมย์ จำกัด เป็นบริษัทแกน 2) ธุรกิจผลิตและจำหน่ายไฟฟ้าจากพลังงานชีวมวล โดยบริษัท บุรีรัมย์พลังงาน จำกัด, บริษัท บุรีรัมย์เพาเวอร์ จำกัด และ บริษัท บุรีรัมย์เพาเวอร์พลัส จำกัด 3) ธุรกิจผลิตและจำหน่ายปุ๋ยอินทรีย์ โดยบริษัท ปุ๋ยตรากุญแจ จำกัด 4) ธุรกิจผลิตบรรจุภัณฑ์ เครื่องใช้ และอุปกรณ์ต่าง ๆ จากชานอ้อย และเยื่อพืชธรรมชาติชนิดอื่น โดย บริษัท ชูการ์เคน อีโคแวร์ จำกัด เเละ 5)ธุรกิจการบริหารจัดการโลจิสติกส์และบริการขนส่ง โดยบริษัท บีอาร์อาร์ โลจิสติกส์ แมเนจเมนท์ จำกัด</t>
-  </si>
-  <si>
-    <t>ดำเนินธุรกิจผลิตและจำหน่ายยางแผ่นรมควัน ยางแท่ง และยางผสม เพื่อจำหน่ายไปยังผู้ผลิตในอุตสาหกรรมยานยนต์และกลุ่มผู้ค้าคนกลาง</t>
-  </si>
-  <si>
-    <t>บริษัท ประกอบธุรกิจให้บริการสินเชื่อเช่าซื้อรถยนต์มือสอง และสินเชื่อให้เงินกู้แก่ผู้ประกอบการซื้อรถยนต์ (Car Loan) บริการรับต่อกรมธรรม์ประกันภัย และ พ.ร.บ.ผู้ประสบภัยทางรถยนต์ เปิดดำเนินกิจการมาตั้งแต่ปี 2527 และได้เป็นบริษัทจดทะเบียนในตลาดหลักทรัพย์ เมื่อ 1 มีนาคม 2547 	บริษัทมีการรับต่อทะเบียนรถยนต์ กรมธรรม์ประกันภัย พ.ร.บ.คุ้มครองผู้ประสบภัยทางรถยนต์ และกรมธรรม์ประกันชีวิต ซึ่งเป็นการอำนวยความสะดวกให้แก่ลูกค้า อีกทั้งเป็นการเสริมรายได้ให้กับบริษัทอีกทางหนึ่ง  ตลอดจนเป็นการป้องกันความเสี่ยงที่อาจจะเกิดขึ้นกับรถยนต์และชีวิตของผู้เช่าซื้อ ซึ่งเป็นหลักประกันในการให้สินเชื่อของบริษัท</t>
-  </si>
-  <si>
-    <t>(1) กลุ่มธุรกิจบริการด้านการแพทย์ (2) ธุรกิจให้บริการตรวจวิเคราะห์และวินิจฉัยทางวิทยาศาสตร์ด้านเกษตร อาหาร ยา ปัจจัยการผลิตทางการเกษตร และสิ่งแวดล้อมอย่างครบวงจร (3) ธุรกิจสนับสนุนการให้บริการทางการแพทย์ การตลาด การขาย การบริหารสถานพยาบาลเฉพาะกิจนอกสถานที่(4) ธุรกิจสนับสนุนการให้บริการห้องปฏิบัติการทางการแพทย์</t>
-  </si>
-  <si>
-    <t>พัฒนาอสังหาริมทรัพย์ประเภทบ้านจัดสรรพร้อมที่ดินเพื่อขาย เน้นการพัฒนาโครงการในเขตปริมณฑล และสำหรับบริษัทย่อย เน้นการพัฒนาโครงการในส่วนภูมิภาคที่มีการเติบโตทางเศรษฐกิจอย่างต่อเนื่อง โดยบริษัทจะพัฒนาโครงการในขนาดไม่ใหญ่มากนัก</t>
-  </si>
-  <si>
-    <t>ผลิตเส้นใยประดิษฐ์เรยอนจำหน่ายทั้งภายในประเทศและต่างประเทศ</t>
   </si>
 </sst>
 </file>
@@ -1471,16 +2038,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="45" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1499,10 +2065,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
-        <v>235</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1510,10 +2076,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
-        <v>236</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1521,10 +2087,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="C4" t="s">
-        <v>237</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1532,10 +2098,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="C5" t="s">
-        <v>238</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1543,10 +2109,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="C6" t="s">
-        <v>239</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1554,10 +2120,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>124</v>
+        <v>187</v>
       </c>
       <c r="C7" t="s">
-        <v>240</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1565,10 +2131,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="C8" t="s">
-        <v>241</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1576,10 +2142,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="C9" t="s">
-        <v>242</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1587,10 +2153,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="C10" t="s">
-        <v>243</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1598,10 +2164,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="C11" t="s">
-        <v>244</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1609,10 +2175,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="C12" t="s">
-        <v>245</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1620,10 +2186,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="C13" t="s">
-        <v>246</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1631,10 +2197,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="C14" t="s">
-        <v>247</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1642,10 +2208,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>195</v>
       </c>
       <c r="C15" t="s">
-        <v>248</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1653,10 +2219,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>196</v>
       </c>
       <c r="C16" t="s">
-        <v>249</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1664,10 +2230,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>197</v>
       </c>
       <c r="C17" t="s">
-        <v>250</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1675,10 +2241,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>198</v>
       </c>
       <c r="C18" t="s">
-        <v>251</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1686,10 +2252,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>199</v>
       </c>
       <c r="C19" t="s">
-        <v>252</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1697,10 +2263,10 @@
         <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>200</v>
       </c>
       <c r="C20" t="s">
-        <v>253</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1708,901 +2274,901 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="C21" t="s">
-        <v>254</v>
+        <v>380</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>202</v>
       </c>
       <c r="C22" t="s">
-        <v>236</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>203</v>
       </c>
       <c r="C23" t="s">
-        <v>255</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>204</v>
       </c>
       <c r="C24" t="s">
-        <v>256</v>
+        <v>383</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="C25" t="s">
-        <v>257</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>130</v>
+        <v>206</v>
       </c>
       <c r="C26" t="s">
-        <v>246</v>
+        <v>385</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>142</v>
+        <v>207</v>
       </c>
       <c r="C27" t="s">
-        <v>258</v>
+        <v>386</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>143</v>
+        <v>208</v>
       </c>
       <c r="C28" t="s">
-        <v>259</v>
+        <v>387</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
       <c r="C29" t="s">
-        <v>260</v>
+        <v>388</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="C30" t="s">
-        <v>261</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>146</v>
+        <v>211</v>
       </c>
       <c r="C31" t="s">
-        <v>262</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>147</v>
+        <v>212</v>
       </c>
       <c r="C32" t="s">
-        <v>263</v>
+        <v>391</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>148</v>
+        <v>213</v>
       </c>
       <c r="C33" t="s">
-        <v>264</v>
+        <v>392</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>149</v>
+        <v>214</v>
       </c>
       <c r="C34" t="s">
-        <v>265</v>
+        <v>393</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="C35" t="s">
-        <v>266</v>
+        <v>394</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>151</v>
+        <v>216</v>
       </c>
       <c r="C36" t="s">
-        <v>267</v>
+        <v>395</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>152</v>
+        <v>217</v>
       </c>
       <c r="C37" t="s">
-        <v>268</v>
+        <v>396</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>153</v>
+        <v>218</v>
       </c>
       <c r="C38" t="s">
-        <v>269</v>
+        <v>397</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>154</v>
+        <v>219</v>
       </c>
       <c r="C39" t="s">
-        <v>270</v>
+        <v>398</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="C40" t="s">
-        <v>271</v>
+        <v>399</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>156</v>
+        <v>221</v>
       </c>
       <c r="C41" t="s">
-        <v>272</v>
+        <v>400</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>157</v>
+        <v>222</v>
       </c>
       <c r="C42" t="s">
-        <v>273</v>
+        <v>401</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s">
-        <v>158</v>
+        <v>223</v>
       </c>
       <c r="C43" t="s">
-        <v>274</v>
+        <v>402</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
-        <v>159</v>
+        <v>224</v>
       </c>
       <c r="C44" t="s">
-        <v>275</v>
+        <v>403</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="C45" t="s">
-        <v>276</v>
+        <v>389</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>161</v>
+        <v>225</v>
       </c>
       <c r="C46" t="s">
-        <v>277</v>
+        <v>404</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>162</v>
+        <v>226</v>
       </c>
       <c r="C47" t="s">
-        <v>278</v>
+        <v>405</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>163</v>
+        <v>227</v>
       </c>
       <c r="C48" t="s">
-        <v>279</v>
+        <v>406</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>164</v>
+        <v>228</v>
       </c>
       <c r="C49" t="s">
-        <v>280</v>
+        <v>407</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="C50" t="s">
-        <v>281</v>
+        <v>408</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>166</v>
+        <v>230</v>
       </c>
       <c r="C51" t="s">
-        <v>282</v>
+        <v>409</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>167</v>
+        <v>231</v>
       </c>
       <c r="C52" t="s">
-        <v>283</v>
+        <v>410</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="C53" t="s">
-        <v>284</v>
+        <v>411</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="C54" t="s">
-        <v>285</v>
+        <v>412</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="C55" t="s">
-        <v>286</v>
+        <v>413</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="C56" t="s">
-        <v>287</v>
+        <v>414</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>172</v>
+        <v>236</v>
       </c>
       <c r="C57" t="s">
-        <v>288</v>
+        <v>415</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>167</v>
+        <v>237</v>
       </c>
       <c r="C58" t="s">
-        <v>283</v>
+        <v>416</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>173</v>
+        <v>238</v>
       </c>
       <c r="C59" t="s">
-        <v>289</v>
+        <v>417</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>174</v>
+        <v>239</v>
       </c>
       <c r="C60" t="s">
-        <v>290</v>
+        <v>418</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>175</v>
+        <v>240</v>
       </c>
       <c r="C61" t="s">
-        <v>291</v>
+        <v>419</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>176</v>
+        <v>241</v>
       </c>
       <c r="C62" t="s">
-        <v>292</v>
+        <v>420</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>177</v>
+        <v>242</v>
       </c>
       <c r="C63" t="s">
-        <v>293</v>
+        <v>421</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>178</v>
+        <v>243</v>
       </c>
       <c r="C64" t="s">
-        <v>294</v>
+        <v>422</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>179</v>
+        <v>244</v>
       </c>
       <c r="C65" t="s">
-        <v>295</v>
+        <v>423</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="C66" t="s">
-        <v>296</v>
+        <v>424</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>181</v>
+        <v>246</v>
       </c>
       <c r="C67" t="s">
-        <v>297</v>
+        <v>425</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>147</v>
+        <v>247</v>
       </c>
       <c r="C68" t="s">
-        <v>263</v>
+        <v>426</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="C69" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="C70" t="s">
-        <v>299</v>
+        <v>428</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="C71" t="s">
-        <v>300</v>
+        <v>429</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>185</v>
+        <v>251</v>
       </c>
       <c r="C72" t="s">
-        <v>301</v>
+        <v>361</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>186</v>
+        <v>252</v>
       </c>
       <c r="C73" t="s">
-        <v>302</v>
+        <v>430</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>149</v>
+        <v>253</v>
       </c>
       <c r="C74" t="s">
-        <v>265</v>
+        <v>431</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>187</v>
+        <v>254</v>
       </c>
       <c r="C75" t="s">
-        <v>303</v>
+        <v>432</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>188</v>
+        <v>255</v>
       </c>
       <c r="C76" t="s">
-        <v>304</v>
+        <v>433</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>189</v>
+        <v>256</v>
       </c>
       <c r="C77" t="s">
-        <v>305</v>
+        <v>434</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B78" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="C78" t="s">
-        <v>306</v>
+        <v>409</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="C79" t="s">
-        <v>307</v>
+        <v>435</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>150</v>
+        <v>258</v>
       </c>
       <c r="C80" t="s">
-        <v>266</v>
+        <v>436</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>192</v>
+        <v>259</v>
       </c>
       <c r="C81" t="s">
-        <v>308</v>
+        <v>437</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="B82" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="C82" t="s">
-        <v>309</v>
+        <v>407</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>194</v>
+        <v>260</v>
       </c>
       <c r="C83" t="s">
-        <v>310</v>
+        <v>438</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="C84" t="s">
-        <v>311</v>
+        <v>439</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>196</v>
+        <v>262</v>
       </c>
       <c r="C85" t="s">
-        <v>312</v>
+        <v>440</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>197</v>
+        <v>263</v>
       </c>
       <c r="C86" t="s">
-        <v>313</v>
+        <v>441</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>198</v>
+        <v>264</v>
       </c>
       <c r="C87" t="s">
-        <v>314</v>
+        <v>442</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>199</v>
+        <v>265</v>
       </c>
       <c r="C88" t="s">
-        <v>315</v>
+        <v>443</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>200</v>
+        <v>266</v>
       </c>
       <c r="C89" t="s">
-        <v>316</v>
+        <v>444</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B90" t="s">
-        <v>201</v>
+        <v>257</v>
       </c>
       <c r="C90" t="s">
-        <v>317</v>
+        <v>435</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
       <c r="B91" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C91" t="s">
-        <v>318</v>
+        <v>369</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B92" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="C92" t="s">
-        <v>319</v>
+        <v>445</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B93" t="s">
-        <v>204</v>
+        <v>268</v>
       </c>
       <c r="C93" t="s">
-        <v>320</v>
+        <v>446</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B94" t="s">
-        <v>205</v>
+        <v>269</v>
       </c>
       <c r="C94" t="s">
-        <v>321</v>
+        <v>447</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B95" t="s">
-        <v>206</v>
+        <v>270</v>
       </c>
       <c r="C95" t="s">
-        <v>322</v>
+        <v>448</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="B96" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C96" t="s">
-        <v>323</v>
+        <v>392</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B97" t="s">
-        <v>208</v>
+        <v>265</v>
       </c>
       <c r="C97" t="s">
-        <v>297</v>
+        <v>443</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B98" t="s">
-        <v>209</v>
+        <v>271</v>
       </c>
       <c r="C98" t="s">
-        <v>324</v>
+        <v>449</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B99" t="s">
-        <v>210</v>
+        <v>272</v>
       </c>
       <c r="C99" t="s">
-        <v>325</v>
+        <v>450</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B100" t="s">
-        <v>211</v>
+        <v>273</v>
       </c>
       <c r="C100" t="s">
-        <v>326</v>
+        <v>451</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B101" t="s">
-        <v>212</v>
+        <v>274</v>
       </c>
       <c r="C101" t="s">
-        <v>327</v>
+        <v>452</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="B102" t="s">
-        <v>158</v>
+        <v>275</v>
       </c>
       <c r="C102" t="s">
-        <v>274</v>
+        <v>453</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -2610,10 +3176,10 @@
         <v>97</v>
       </c>
       <c r="B103" t="s">
-        <v>213</v>
+        <v>276</v>
       </c>
       <c r="C103" t="s">
-        <v>328</v>
+        <v>454</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -2621,21 +3187,21 @@
         <v>98</v>
       </c>
       <c r="B104" t="s">
-        <v>214</v>
+        <v>277</v>
       </c>
       <c r="C104" t="s">
-        <v>329</v>
+        <v>455</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="B105" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="C105" t="s">
-        <v>324</v>
+        <v>406</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -2643,32 +3209,32 @@
         <v>99</v>
       </c>
       <c r="B106" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="C106" t="s">
-        <v>330</v>
+        <v>456</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="B107" t="s">
-        <v>197</v>
+        <v>279</v>
       </c>
       <c r="C107" t="s">
-        <v>313</v>
+        <v>457</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="B108" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C108" t="s">
-        <v>331</v>
+        <v>412</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -2676,142 +3242,142 @@
         <v>101</v>
       </c>
       <c r="B109" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="C109" t="s">
-        <v>332</v>
+        <v>458</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="B110" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C110" t="s">
-        <v>333</v>
+        <v>393</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B111" t="s">
-        <v>219</v>
+        <v>281</v>
       </c>
       <c r="C111" t="s">
-        <v>334</v>
+        <v>459</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B112" t="s">
-        <v>220</v>
+        <v>282</v>
       </c>
       <c r="C112" t="s">
-        <v>335</v>
+        <v>460</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B113" t="s">
-        <v>221</v>
+        <v>283</v>
       </c>
       <c r="C113" t="s">
-        <v>336</v>
+        <v>461</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B114" t="s">
-        <v>222</v>
+        <v>284</v>
       </c>
       <c r="C114" t="s">
-        <v>337</v>
+        <v>462</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B115" t="s">
-        <v>223</v>
+        <v>285</v>
       </c>
       <c r="C115" t="s">
-        <v>338</v>
+        <v>463</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="B116" t="s">
-        <v>141</v>
+        <v>286</v>
       </c>
       <c r="C116" t="s">
-        <v>257</v>
+        <v>464</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B117" t="s">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="C117" t="s">
-        <v>339</v>
+        <v>448</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B118" t="s">
-        <v>225</v>
+        <v>287</v>
       </c>
       <c r="C118" t="s">
-        <v>340</v>
+        <v>465</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B119" t="s">
-        <v>226</v>
+        <v>288</v>
       </c>
       <c r="C119" t="s">
-        <v>341</v>
+        <v>466</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B120" t="s">
-        <v>227</v>
+        <v>289</v>
       </c>
       <c r="C120" t="s">
-        <v>342</v>
+        <v>467</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="B121" t="s">
-        <v>176</v>
+        <v>290</v>
       </c>
       <c r="C121" t="s">
-        <v>292</v>
+        <v>468</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2819,98 +3385,879 @@
         <v>112</v>
       </c>
       <c r="B122" t="s">
-        <v>228</v>
+        <v>291</v>
       </c>
       <c r="C122" t="s">
-        <v>343</v>
+        <v>469</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="B123" t="s">
-        <v>159</v>
+        <v>292</v>
       </c>
       <c r="C123" t="s">
-        <v>275</v>
+        <v>470</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="B124" t="s">
-        <v>129</v>
+        <v>243</v>
       </c>
       <c r="C124" t="s">
-        <v>245</v>
+        <v>422</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B125" t="s">
-        <v>229</v>
+        <v>293</v>
       </c>
       <c r="C125" t="s">
-        <v>344</v>
+        <v>471</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B126" t="s">
-        <v>230</v>
+        <v>294</v>
       </c>
       <c r="C126" t="s">
-        <v>345</v>
+        <v>472</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B127" t="s">
-        <v>231</v>
+        <v>295</v>
       </c>
       <c r="C127" t="s">
-        <v>346</v>
+        <v>473</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B128" t="s">
-        <v>232</v>
+        <v>296</v>
       </c>
       <c r="C128" t="s">
-        <v>347</v>
+        <v>474</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B129" t="s">
-        <v>233</v>
+        <v>297</v>
       </c>
       <c r="C129" t="s">
-        <v>348</v>
+        <v>475</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B130" t="s">
-        <v>234</v>
+        <v>298</v>
       </c>
       <c r="C130" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>120</v>
+      </c>
+      <c r="B131" t="s">
+        <v>299</v>
+      </c>
+      <c r="C131" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>121</v>
+      </c>
+      <c r="B132" t="s">
+        <v>300</v>
+      </c>
+      <c r="C132" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>122</v>
+      </c>
+      <c r="B133" t="s">
+        <v>301</v>
+      </c>
+      <c r="C133" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>123</v>
+      </c>
+      <c r="B134" t="s">
+        <v>302</v>
+      </c>
+      <c r="C134" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>113</v>
+      </c>
+      <c r="B135" t="s">
+        <v>292</v>
+      </c>
+      <c r="C135" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>27</v>
+      </c>
+      <c r="B136" t="s">
+        <v>206</v>
+      </c>
+      <c r="C136" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>124</v>
+      </c>
+      <c r="B137" t="s">
+        <v>303</v>
+      </c>
+      <c r="C137" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>125</v>
+      </c>
+      <c r="B138" t="s">
+        <v>304</v>
+      </c>
+      <c r="C138" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>126</v>
+      </c>
+      <c r="B139" t="s">
+        <v>305</v>
+      </c>
+      <c r="C139" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>127</v>
+      </c>
+      <c r="B140" t="s">
+        <v>306</v>
+      </c>
+      <c r="C140" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>128</v>
+      </c>
+      <c r="B141" t="s">
+        <v>307</v>
+      </c>
+      <c r="C141" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>129</v>
+      </c>
+      <c r="B142" t="s">
+        <v>308</v>
+      </c>
+      <c r="C142" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>130</v>
+      </c>
+      <c r="B143" t="s">
+        <v>309</v>
+      </c>
+      <c r="C143" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>131</v>
+      </c>
+      <c r="B144" t="s">
+        <v>310</v>
+      </c>
+      <c r="C144" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>69</v>
+      </c>
+      <c r="B145" t="s">
+        <v>248</v>
+      </c>
+      <c r="C145" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>59</v>
+      </c>
+      <c r="B146" t="s">
+        <v>238</v>
+      </c>
+      <c r="C146" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>132</v>
+      </c>
+      <c r="B147" t="s">
+        <v>311</v>
+      </c>
+      <c r="C147" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>133</v>
+      </c>
+      <c r="B148" t="s">
+        <v>312</v>
+      </c>
+      <c r="C148" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>134</v>
+      </c>
+      <c r="B149" t="s">
+        <v>313</v>
+      </c>
+      <c r="C149" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>135</v>
+      </c>
+      <c r="B150" t="s">
+        <v>314</v>
+      </c>
+      <c r="C150" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>136</v>
+      </c>
+      <c r="B151" t="s">
+        <v>315</v>
+      </c>
+      <c r="C151" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>137</v>
+      </c>
+      <c r="B152" t="s">
+        <v>316</v>
+      </c>
+      <c r="C152" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>105</v>
+      </c>
+      <c r="B153" t="s">
+        <v>284</v>
+      </c>
+      <c r="C153" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>138</v>
+      </c>
+      <c r="B154" t="s">
+        <v>317</v>
+      </c>
+      <c r="C154" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>139</v>
+      </c>
+      <c r="B155" t="s">
+        <v>318</v>
+      </c>
+      <c r="C155" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>140</v>
+      </c>
+      <c r="B156" t="s">
+        <v>319</v>
+      </c>
+      <c r="C156" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>141</v>
+      </c>
+      <c r="B157" t="s">
+        <v>320</v>
+      </c>
+      <c r="C157" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>142</v>
+      </c>
+      <c r="B158" t="s">
+        <v>321</v>
+      </c>
+      <c r="C158" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>143</v>
+      </c>
+      <c r="B159" t="s">
+        <v>322</v>
+      </c>
+      <c r="C159" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>144</v>
+      </c>
+      <c r="B160" t="s">
+        <v>323</v>
+      </c>
+      <c r="C160" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>145</v>
+      </c>
+      <c r="B161" t="s">
+        <v>324</v>
+      </c>
+      <c r="C161" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>146</v>
+      </c>
+      <c r="B162" t="s">
+        <v>325</v>
+      </c>
+      <c r="C162" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>147</v>
+      </c>
+      <c r="B163" t="s">
+        <v>326</v>
+      </c>
+      <c r="C163" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>148</v>
+      </c>
+      <c r="B164" t="s">
+        <v>327</v>
+      </c>
+      <c r="C164" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>149</v>
+      </c>
+      <c r="B165" t="s">
+        <v>328</v>
+      </c>
+      <c r="C165" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>150</v>
+      </c>
+      <c r="B166" t="s">
+        <v>329</v>
+      </c>
+      <c r="C166" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>151</v>
+      </c>
+      <c r="B167" t="s">
+        <v>330</v>
+      </c>
+      <c r="C167" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>152</v>
+      </c>
+      <c r="B168" t="s">
+        <v>331</v>
+      </c>
+      <c r="C168" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>134</v>
+      </c>
+      <c r="B169" t="s">
+        <v>313</v>
+      </c>
+      <c r="C169" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>153</v>
+      </c>
+      <c r="B170" t="s">
+        <v>332</v>
+      </c>
+      <c r="C170" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>154</v>
+      </c>
+      <c r="B171" t="s">
+        <v>333</v>
+      </c>
+      <c r="C171" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>155</v>
+      </c>
+      <c r="B172" t="s">
+        <v>334</v>
+      </c>
+      <c r="C172" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>156</v>
+      </c>
+      <c r="B173" t="s">
+        <v>335</v>
+      </c>
+      <c r="C173" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>157</v>
+      </c>
+      <c r="B174" t="s">
+        <v>336</v>
+      </c>
+      <c r="C174" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>158</v>
+      </c>
+      <c r="B175" t="s">
+        <v>337</v>
+      </c>
+      <c r="C175" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>159</v>
+      </c>
+      <c r="B176" t="s">
+        <v>338</v>
+      </c>
+      <c r="C176" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>160</v>
+      </c>
+      <c r="B177" t="s">
+        <v>339</v>
+      </c>
+      <c r="C177" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>161</v>
+      </c>
+      <c r="B178" t="s">
+        <v>340</v>
+      </c>
+      <c r="C178" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>162</v>
+      </c>
+      <c r="B179" t="s">
+        <v>341</v>
+      </c>
+      <c r="C179" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>163</v>
+      </c>
+      <c r="B180" t="s">
+        <v>342</v>
+      </c>
+      <c r="C180" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>164</v>
+      </c>
+      <c r="B181" t="s">
+        <v>343</v>
+      </c>
+      <c r="C181" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>165</v>
+      </c>
+      <c r="B182" t="s">
+        <v>344</v>
+      </c>
+      <c r="C182" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>166</v>
+      </c>
+      <c r="B183" t="s">
+        <v>345</v>
+      </c>
+      <c r="C183" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>167</v>
+      </c>
+      <c r="B184" t="s">
+        <v>346</v>
+      </c>
+      <c r="C184" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>168</v>
+      </c>
+      <c r="B185" t="s">
+        <v>347</v>
+      </c>
+      <c r="C185" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>169</v>
+      </c>
+      <c r="B186" t="s">
+        <v>348</v>
+      </c>
+      <c r="C186" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>170</v>
+      </c>
+      <c r="B187" t="s">
         <v>349</v>
+      </c>
+      <c r="C187" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>171</v>
+      </c>
+      <c r="B188" t="s">
+        <v>350</v>
+      </c>
+      <c r="C188" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>172</v>
+      </c>
+      <c r="B189" t="s">
+        <v>351</v>
+      </c>
+      <c r="C189" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>173</v>
+      </c>
+      <c r="B190" t="s">
+        <v>352</v>
+      </c>
+      <c r="C190" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>174</v>
+      </c>
+      <c r="B191" t="s">
+        <v>353</v>
+      </c>
+      <c r="C191" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>139</v>
+      </c>
+      <c r="B192" t="s">
+        <v>318</v>
+      </c>
+      <c r="C192" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>94</v>
+      </c>
+      <c r="B193" t="s">
+        <v>273</v>
+      </c>
+      <c r="C193" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>175</v>
+      </c>
+      <c r="B194" t="s">
+        <v>354</v>
+      </c>
+      <c r="C194" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>176</v>
+      </c>
+      <c r="B195" t="s">
+        <v>355</v>
+      </c>
+      <c r="C195" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>177</v>
+      </c>
+      <c r="B196" t="s">
+        <v>356</v>
+      </c>
+      <c r="C196" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>178</v>
+      </c>
+      <c r="B197" t="s">
+        <v>357</v>
+      </c>
+      <c r="C197" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>179</v>
+      </c>
+      <c r="B198" t="s">
+        <v>358</v>
+      </c>
+      <c r="C198" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>180</v>
+      </c>
+      <c r="B199" t="s">
+        <v>359</v>
+      </c>
+      <c r="C199" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>115</v>
+      </c>
+      <c r="B200" t="s">
+        <v>294</v>
+      </c>
+      <c r="C200" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>181</v>
+      </c>
+      <c r="B201" t="s">
+        <v>360</v>
+      </c>
+      <c r="C201" t="s">
+        <v>538</v>
       </c>
     </row>
   </sheetData>

--- a/file/stock-output/interesting-stock/SET/SET-interesting-company-info.xlsx
+++ b/file/stock-output/interesting-stock/SET/SET-interesting-company-info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekala\PycharmProjects\SET-stock-analysis\file\stock-output\interesting-stock\SET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960747BD-0F87-40AD-9183-27AFC4DAB91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B39DBFA-E355-4EEA-88E9-77C041C76895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5640" yWindow="2280" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2040,12 +2040,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
